--- a/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
@@ -424,13 +424,13 @@
         <v>1.00089558664768</v>
       </c>
       <c r="D2">
-        <v>1.020235252913387</v>
+        <v>1.020235252913386</v>
       </c>
       <c r="E2">
-        <v>1.007093031253965</v>
+        <v>1.007093031253964</v>
       </c>
       <c r="F2">
-        <v>1.017413031453066</v>
+        <v>1.017413031453065</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.023049543829807</v>
       </c>
       <c r="K2">
-        <v>1.03141969678022</v>
+        <v>1.031419696780219</v>
       </c>
       <c r="L2">
         <v>1.01845442549962</v>
       </c>
       <c r="M2">
-        <v>1.028634990431949</v>
+        <v>1.028634990431948</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -468,7 +468,7 @@
         <v>1.014664391111276</v>
       </c>
       <c r="F3">
-        <v>1.025594223569463</v>
+        <v>1.025594223569464</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>1.03740971273707</v>
       </c>
       <c r="L3">
-        <v>1.025113014601303</v>
+        <v>1.025113014601304</v>
       </c>
       <c r="M3">
-        <v>1.035909768917428</v>
+        <v>1.035909768917429</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,7 +503,7 @@
         <v>1.031406381427935</v>
       </c>
       <c r="E4">
-        <v>1.019389681675685</v>
+        <v>1.019389681675684</v>
       </c>
       <c r="F4">
         <v>1.030707935170936</v>
@@ -515,13 +515,13 @@
         <v>1.052339316875555</v>
       </c>
       <c r="J4">
-        <v>1.033969221183705</v>
+        <v>1.033969221183704</v>
       </c>
       <c r="K4">
         <v>1.041139978201957</v>
       </c>
       <c r="L4">
-        <v>1.029259589847778</v>
+        <v>1.029259589847777</v>
       </c>
       <c r="M4">
         <v>1.040449347645113</v>
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017164100320699</v>
+        <v>1.0171641003207</v>
       </c>
       <c r="D5">
-        <v>1.033176599792276</v>
+        <v>1.033176599792277</v>
       </c>
       <c r="E5">
-        <v>1.021337222677156</v>
+        <v>1.021337222677157</v>
       </c>
       <c r="F5">
         <v>1.032817429125443</v>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053220733247104</v>
+        <v>1.053220733247105</v>
       </c>
       <c r="J5">
         <v>1.035695057257673</v>
@@ -559,7 +559,7 @@
         <v>1.042675457673439</v>
       </c>
       <c r="L5">
-        <v>1.030966450038358</v>
+        <v>1.030966450038359</v>
       </c>
       <c r="M5">
         <v>1.042320188072298</v>
@@ -573,31 +573,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017534985088372</v>
+        <v>1.017534985088371</v>
       </c>
       <c r="D6">
-        <v>1.033471839874597</v>
+        <v>1.033471839874596</v>
       </c>
       <c r="E6">
         <v>1.021662010395386</v>
       </c>
       <c r="F6">
-        <v>1.033169334753046</v>
+        <v>1.033169334753045</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053367509937573</v>
+        <v>1.053367509937572</v>
       </c>
       <c r="J6">
-        <v>1.035982768945779</v>
+        <v>1.035982768945778</v>
       </c>
       <c r="K6">
-        <v>1.042931410984221</v>
+        <v>1.04293141098422</v>
       </c>
       <c r="L6">
-        <v>1.031250972973317</v>
+        <v>1.031250972973316</v>
       </c>
       <c r="M6">
         <v>1.042632174911068</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014970003620873</v>
+        <v>1.01497000362087</v>
       </c>
       <c r="D7">
-        <v>1.031430169695095</v>
+        <v>1.031430169695092</v>
       </c>
       <c r="E7">
-        <v>1.019415854629968</v>
+        <v>1.019415854629965</v>
       </c>
       <c r="F7">
-        <v>1.030736277235395</v>
+        <v>1.030736277235392</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052351176703827</v>
+        <v>1.052351176703826</v>
       </c>
       <c r="J7">
-        <v>1.033992421577912</v>
+        <v>1.033992421577909</v>
       </c>
       <c r="K7">
-        <v>1.041160621255264</v>
+        <v>1.041160621255262</v>
       </c>
       <c r="L7">
-        <v>1.029282536852685</v>
+        <v>1.029282536852683</v>
       </c>
       <c r="M7">
-        <v>1.040474490466791</v>
+        <v>1.040474490466788</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003861610472918</v>
+        <v>1.003861610472917</v>
       </c>
       <c r="D8">
         <v>1.022593193106732</v>
       </c>
       <c r="E8">
-        <v>1.009689500476494</v>
+        <v>1.009689500476493</v>
       </c>
       <c r="F8">
         <v>1.020216965398258</v>
@@ -664,19 +664,19 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047918325865495</v>
+        <v>1.047918325865494</v>
       </c>
       <c r="J8">
-        <v>1.025358385574737</v>
+        <v>1.025358385574736</v>
       </c>
       <c r="K8">
-        <v>1.033475580631521</v>
+        <v>1.03347558063152</v>
       </c>
       <c r="L8">
         <v>1.020739801645675</v>
       </c>
       <c r="M8">
-        <v>1.031129875278553</v>
+        <v>1.031129875278552</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9825971997930698</v>
+        <v>0.9825971997930707</v>
       </c>
       <c r="D9">
-        <v>1.005706651385005</v>
+        <v>1.005706651385006</v>
       </c>
       <c r="E9">
-        <v>0.9910827465198256</v>
+        <v>0.9910827465198265</v>
       </c>
       <c r="F9">
-        <v>1.000158410196662</v>
+        <v>1.000158410196663</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039315064893055</v>
+        <v>1.039315064893056</v>
       </c>
       <c r="J9">
-        <v>1.00877982572206</v>
+        <v>1.008779825722061</v>
       </c>
       <c r="K9">
-        <v>1.018707815722576</v>
+        <v>1.018707815722577</v>
       </c>
       <c r="L9">
-        <v>1.004322175959877</v>
+        <v>1.004322175959878</v>
       </c>
       <c r="M9">
-        <v>1.013248917828609</v>
+        <v>1.01324891782861</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.967020830854976</v>
+        <v>0.9670208308549773</v>
       </c>
       <c r="D10">
-        <v>0.9933688813430002</v>
+        <v>0.9933688813430016</v>
       </c>
       <c r="E10">
-        <v>0.9774696612304004</v>
+        <v>0.9774696612304015</v>
       </c>
       <c r="F10">
-        <v>0.9855291446144742</v>
+        <v>0.9855291446144754</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032937937282597</v>
+        <v>1.032937937282598</v>
       </c>
       <c r="J10">
-        <v>0.9966068968559705</v>
+        <v>0.9966068968559718</v>
       </c>
       <c r="K10">
-        <v>1.007858903814737</v>
+        <v>1.007858903814739</v>
       </c>
       <c r="L10">
-        <v>0.9922579824888176</v>
+        <v>0.9922579824888187</v>
       </c>
       <c r="M10">
-        <v>1.000164684428363</v>
+        <v>1.000164684428364</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9598708394363878</v>
+        <v>0.9598708394363885</v>
       </c>
       <c r="D11">
-        <v>0.9877161286404957</v>
+        <v>0.9877161286404964</v>
       </c>
       <c r="E11">
-        <v>0.9712270850365308</v>
+        <v>0.9712270850365318</v>
       </c>
       <c r="F11">
-        <v>0.9788318780836668</v>
+        <v>0.9788318780836675</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029994236641688</v>
+        <v>1.029994236641689</v>
       </c>
       <c r="J11">
-        <v>0.9910138680927164</v>
+        <v>0.9910138680927173</v>
       </c>
       <c r="K11">
         <v>1.002873479317064</v>
       </c>
       <c r="L11">
-        <v>0.9867128100810992</v>
+        <v>0.9867128100811002</v>
       </c>
       <c r="M11">
-        <v>0.9941643483951715</v>
+        <v>0.9941643483951721</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9571465157243432</v>
+        <v>0.9571465157243437</v>
       </c>
       <c r="D12">
-        <v>0.9855641966969179</v>
+        <v>0.9855641966969185</v>
       </c>
       <c r="E12">
-        <v>0.9688496763556222</v>
+        <v>0.9688496763556224</v>
       </c>
       <c r="F12">
-        <v>0.9762830397662575</v>
+        <v>0.9762830397662577</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.028870294196558</v>
       </c>
       <c r="J12">
-        <v>0.9888821494554308</v>
+        <v>0.9888821494554315</v>
       </c>
       <c r="K12">
-        <v>1.000973290147874</v>
+        <v>1.000973290147875</v>
       </c>
       <c r="L12">
-        <v>0.9845990316161766</v>
+        <v>0.9845990316161768</v>
       </c>
       <c r="M12">
-        <v>0.9918791755260201</v>
+        <v>0.9918791755260203</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9577341293025954</v>
+        <v>0.9577341293025963</v>
       </c>
       <c r="D13">
-        <v>0.9860282587808694</v>
+        <v>0.9860282587808699</v>
       </c>
       <c r="E13">
-        <v>0.9693624064964846</v>
+        <v>0.9693624064964853</v>
       </c>
       <c r="F13">
-        <v>0.976832662947816</v>
+        <v>0.9768326629478163</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029112821047133</v>
+        <v>1.029112821047134</v>
       </c>
       <c r="J13">
-        <v>0.9893419689346504</v>
+        <v>0.9893419689346509</v>
       </c>
       <c r="K13">
         <v>1.001383169194207</v>
       </c>
       <c r="L13">
-        <v>0.9850549945375853</v>
+        <v>0.9850549945375859</v>
       </c>
       <c r="M13">
-        <v>0.9923720138119191</v>
+        <v>0.9923720138119194</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9596470922277703</v>
+        <v>0.9596470922277718</v>
       </c>
       <c r="D14">
-        <v>0.9875393511318508</v>
+        <v>0.987539351131852</v>
       </c>
       <c r="E14">
-        <v>0.9710318046691619</v>
+        <v>0.9710318046691629</v>
       </c>
       <c r="F14">
-        <v>0.9786224811824203</v>
+        <v>0.9786224811824216</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029901973872801</v>
+        <v>1.029901973872802</v>
       </c>
       <c r="J14">
-        <v>0.9908388030623289</v>
+        <v>0.9908388030623299</v>
       </c>
       <c r="K14">
-        <v>1.002717429074078</v>
+        <v>1.00271742907408</v>
       </c>
       <c r="L14">
-        <v>0.986539224321749</v>
+        <v>0.9865392243217501</v>
       </c>
       <c r="M14">
-        <v>0.9939766445066923</v>
+        <v>0.9939766445066935</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9608164043299046</v>
+        <v>0.9608164043299061</v>
       </c>
       <c r="D15">
-        <v>0.9884632768850929</v>
+        <v>0.9884632768850945</v>
       </c>
       <c r="E15">
-        <v>0.9720523966877783</v>
+        <v>0.9720523966877793</v>
       </c>
       <c r="F15">
-        <v>0.9797169208118556</v>
+        <v>0.979716920811857</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03038404981425</v>
+        <v>1.030384049814251</v>
       </c>
       <c r="J15">
-        <v>0.9917536753443567</v>
+        <v>0.9917536753443581</v>
       </c>
       <c r="K15">
-        <v>1.003532930248363</v>
+        <v>1.003532930248365</v>
       </c>
       <c r="L15">
-        <v>0.9874463540440778</v>
+        <v>0.9874463540440789</v>
       </c>
       <c r="M15">
-        <v>0.9949576390417154</v>
+        <v>0.994957639041717</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9674861938069901</v>
+        <v>0.9674861938069871</v>
       </c>
       <c r="D16">
-        <v>0.9937370387746449</v>
+        <v>0.9937370387746424</v>
       </c>
       <c r="E16">
-        <v>0.9778761107934366</v>
+        <v>0.9778761107934341</v>
       </c>
       <c r="F16">
-        <v>0.9859654341677281</v>
+        <v>0.9859654341677258</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033129204473213</v>
+        <v>1.033129204473211</v>
       </c>
       <c r="J16">
-        <v>0.9969708273025326</v>
+        <v>0.9969708273025299</v>
       </c>
       <c r="K16">
-        <v>1.008183287909374</v>
+        <v>1.008183287909372</v>
       </c>
       <c r="L16">
-        <v>0.9926187570004827</v>
+        <v>0.9926187570004802</v>
       </c>
       <c r="M16">
-        <v>1.000555358090288</v>
+        <v>1.000555358090286</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9715564996284078</v>
+        <v>0.9715564996284088</v>
       </c>
       <c r="D17">
-        <v>0.9969583568173136</v>
+        <v>0.9969583568173145</v>
       </c>
       <c r="E17">
-        <v>0.9814318488543604</v>
+        <v>0.9814318488543613</v>
       </c>
       <c r="F17">
-        <v>0.9897834907790384</v>
+        <v>0.9897834907790395</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034800303532345</v>
+        <v>1.034800303532346</v>
       </c>
       <c r="J17">
-        <v>1.000153373598816</v>
+        <v>1.000153373598817</v>
       </c>
       <c r="K17">
-        <v>1.011019928069746</v>
+        <v>1.011019928069747</v>
       </c>
       <c r="L17">
-        <v>0.9957734709131786</v>
+        <v>0.9957734709131795</v>
       </c>
       <c r="M17">
-        <v>1.003973055513886</v>
+        <v>1.003973055513887</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9738921111466786</v>
+        <v>0.9738921111466782</v>
       </c>
       <c r="D18">
-        <v>0.9988077726347059</v>
+        <v>0.9988077726347055</v>
       </c>
       <c r="E18">
-        <v>0.9834727543933763</v>
+        <v>0.9834727543933759</v>
       </c>
       <c r="F18">
-        <v>0.9919760113381942</v>
+        <v>0.9919760113381941</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.035757669265775</v>
       </c>
       <c r="J18">
-        <v>1.001979067128694</v>
+        <v>1.001979067128693</v>
       </c>
       <c r="K18">
         <v>1.0126471172583</v>
       </c>
       <c r="L18">
-        <v>0.9975830011050323</v>
+        <v>0.9975830011050321</v>
       </c>
       <c r="M18">
         <v>1.005934701774256</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9746821687466914</v>
+        <v>0.9746821687466902</v>
       </c>
       <c r="D19">
-        <v>0.9994335227204659</v>
+        <v>0.9994335227204648</v>
       </c>
       <c r="E19">
-        <v>0.9841632120868657</v>
+        <v>0.9841632120868649</v>
       </c>
       <c r="F19">
-        <v>0.992717939087186</v>
+        <v>0.9927179390871851</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.036081248248534</v>
       </c>
       <c r="J19">
-        <v>1.00259654667457</v>
+        <v>1.002596546674569</v>
       </c>
       <c r="K19">
-        <v>1.013197445494444</v>
+        <v>1.013197445494443</v>
       </c>
       <c r="L19">
-        <v>0.9981949801038714</v>
+        <v>0.9981949801038702</v>
       </c>
       <c r="M19">
-        <v>1.006598340027723</v>
+        <v>1.006598340027722</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9711238302582959</v>
+        <v>0.9711238302582932</v>
       </c>
       <c r="D20">
-        <v>0.9966158311942099</v>
+        <v>0.9966158311942079</v>
       </c>
       <c r="E20">
-        <v>0.9810538175121536</v>
+        <v>0.9810538175121511</v>
       </c>
       <c r="F20">
-        <v>0.9893774612309425</v>
+        <v>0.9893774612309401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034622826694005</v>
+        <v>1.034622826694004</v>
       </c>
       <c r="J20">
-        <v>0.9998151238081282</v>
+        <v>0.9998151238081259</v>
       </c>
       <c r="K20">
-        <v>1.010718449296191</v>
+        <v>1.010718449296189</v>
       </c>
       <c r="L20">
-        <v>0.9954381996375861</v>
+        <v>0.9954381996375835</v>
       </c>
       <c r="M20">
-        <v>1.003609702776289</v>
+        <v>1.003609702776287</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9590857311962829</v>
+        <v>0.9590857311962824</v>
       </c>
       <c r="D21">
-        <v>0.9870958644709633</v>
+        <v>0.9870958644709622</v>
       </c>
       <c r="E21">
-        <v>0.9705418839094011</v>
+        <v>0.9705418839094005</v>
       </c>
       <c r="F21">
-        <v>0.9780971727235931</v>
+        <v>0.9780971727235921</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.029670458434156</v>
       </c>
       <c r="J21">
-        <v>0.9903995714936178</v>
+        <v>0.990399571493617</v>
       </c>
       <c r="K21">
-        <v>1.002325904270418</v>
+        <v>1.002325904270417</v>
       </c>
       <c r="L21">
-        <v>0.9861036994409628</v>
+        <v>0.986103699440962</v>
       </c>
       <c r="M21">
-        <v>0.9935057314592525</v>
+        <v>0.9935057314592513</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9511157438922373</v>
+        <v>0.9511157438922376</v>
       </c>
       <c r="D22">
-        <v>0.9808044321845211</v>
+        <v>0.9808044321845213</v>
       </c>
       <c r="E22">
         <v>0.9635893194694597</v>
       </c>
       <c r="F22">
-        <v>0.9706466219093107</v>
+        <v>0.9706466219093106</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.026378140989158</v>
       </c>
       <c r="J22">
-        <v>0.9841622411215444</v>
+        <v>0.9841622411215447</v>
       </c>
       <c r="K22">
-        <v>0.996765995212078</v>
+        <v>0.9967659952120781</v>
       </c>
       <c r="L22">
         <v>0.9799183128258488</v>
       </c>
       <c r="M22">
-        <v>0.9868228980762688</v>
+        <v>0.986822898076269</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9553817288746278</v>
+        <v>0.9553817288746277</v>
       </c>
       <c r="D23">
-        <v>0.9841707796916995</v>
+        <v>0.9841707796916992</v>
       </c>
       <c r="E23">
-        <v>0.9673099793008696</v>
+        <v>0.9673099793008693</v>
       </c>
       <c r="F23">
-        <v>0.9746328123852837</v>
+        <v>0.9746328123852831</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.028141582974597</v>
       </c>
       <c r="J23">
-        <v>0.9875010888858986</v>
+        <v>0.9875010888858987</v>
       </c>
       <c r="K23">
-        <v>0.9997422222405925</v>
+        <v>0.9997422222405924</v>
       </c>
       <c r="L23">
-        <v>0.9832295117308373</v>
+        <v>0.9832295117308371</v>
       </c>
       <c r="M23">
-        <v>0.9903992117490397</v>
+        <v>0.9903992117490391</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9713194534307803</v>
+        <v>0.9713194534307811</v>
       </c>
       <c r="D24">
-        <v>0.9967706946069493</v>
+        <v>0.99677069460695</v>
       </c>
       <c r="E24">
-        <v>0.9812247354145551</v>
+        <v>0.9812247354145561</v>
       </c>
       <c r="F24">
-        <v>0.9895610345916235</v>
+        <v>0.9895610345916244</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034703074249986</v>
+        <v>1.034703074249987</v>
       </c>
       <c r="J24">
-        <v>0.9999680585622083</v>
+        <v>0.9999680585622089</v>
       </c>
       <c r="K24">
         <v>1.010854758796053</v>
       </c>
       <c r="L24">
-        <v>0.9955897883134236</v>
+        <v>0.9955897883134245</v>
       </c>
       <c r="M24">
-        <v>1.003773984182748</v>
+        <v>1.003773984182749</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9883196232114555</v>
+        <v>0.9883196232114544</v>
       </c>
       <c r="D25">
         <v>1.01024648386394</v>
       </c>
       <c r="E25">
-        <v>0.996087834717046</v>
+        <v>0.9960878347170445</v>
       </c>
       <c r="F25">
-        <v>1.005546382331136</v>
+        <v>1.005546382331135</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041643338865437</v>
+        <v>1.041643338865436</v>
       </c>
       <c r="J25">
-        <v>1.013246575625474</v>
+        <v>1.013246575625473</v>
       </c>
       <c r="K25">
         <v>1.022687791805417</v>
       </c>
       <c r="L25">
-        <v>1.008747187115973</v>
+        <v>1.008747187115971</v>
       </c>
       <c r="M25">
-        <v>1.018059203710985</v>
+        <v>1.018059203710984</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
@@ -424,13 +424,13 @@
         <v>1.00089558664768</v>
       </c>
       <c r="D2">
-        <v>1.020235252913386</v>
+        <v>1.020235252913387</v>
       </c>
       <c r="E2">
-        <v>1.007093031253964</v>
+        <v>1.007093031253965</v>
       </c>
       <c r="F2">
-        <v>1.017413031453065</v>
+        <v>1.017413031453066</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.023049543829807</v>
       </c>
       <c r="K2">
-        <v>1.031419696780219</v>
+        <v>1.03141969678022</v>
       </c>
       <c r="L2">
         <v>1.01845442549962</v>
       </c>
       <c r="M2">
-        <v>1.028634990431948</v>
+        <v>1.028634990431949</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -468,7 +468,7 @@
         <v>1.014664391111276</v>
       </c>
       <c r="F3">
-        <v>1.025594223569464</v>
+        <v>1.025594223569463</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>1.03740971273707</v>
       </c>
       <c r="L3">
-        <v>1.025113014601304</v>
+        <v>1.025113014601303</v>
       </c>
       <c r="M3">
-        <v>1.035909768917429</v>
+        <v>1.035909768917428</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,7 +503,7 @@
         <v>1.031406381427935</v>
       </c>
       <c r="E4">
-        <v>1.019389681675684</v>
+        <v>1.019389681675685</v>
       </c>
       <c r="F4">
         <v>1.030707935170936</v>
@@ -515,13 +515,13 @@
         <v>1.052339316875555</v>
       </c>
       <c r="J4">
-        <v>1.033969221183704</v>
+        <v>1.033969221183705</v>
       </c>
       <c r="K4">
         <v>1.041139978201957</v>
       </c>
       <c r="L4">
-        <v>1.029259589847777</v>
+        <v>1.029259589847778</v>
       </c>
       <c r="M4">
         <v>1.040449347645113</v>
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0171641003207</v>
+        <v>1.017164100320699</v>
       </c>
       <c r="D5">
-        <v>1.033176599792277</v>
+        <v>1.033176599792276</v>
       </c>
       <c r="E5">
-        <v>1.021337222677157</v>
+        <v>1.021337222677156</v>
       </c>
       <c r="F5">
         <v>1.032817429125443</v>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053220733247105</v>
+        <v>1.053220733247104</v>
       </c>
       <c r="J5">
         <v>1.035695057257673</v>
@@ -559,7 +559,7 @@
         <v>1.042675457673439</v>
       </c>
       <c r="L5">
-        <v>1.030966450038359</v>
+        <v>1.030966450038358</v>
       </c>
       <c r="M5">
         <v>1.042320188072298</v>
@@ -573,31 +573,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017534985088371</v>
+        <v>1.017534985088372</v>
       </c>
       <c r="D6">
-        <v>1.033471839874596</v>
+        <v>1.033471839874597</v>
       </c>
       <c r="E6">
         <v>1.021662010395386</v>
       </c>
       <c r="F6">
-        <v>1.033169334753045</v>
+        <v>1.033169334753046</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053367509937572</v>
+        <v>1.053367509937573</v>
       </c>
       <c r="J6">
-        <v>1.035982768945778</v>
+        <v>1.035982768945779</v>
       </c>
       <c r="K6">
-        <v>1.04293141098422</v>
+        <v>1.042931410984221</v>
       </c>
       <c r="L6">
-        <v>1.031250972973316</v>
+        <v>1.031250972973317</v>
       </c>
       <c r="M6">
         <v>1.042632174911068</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01497000362087</v>
+        <v>1.014970003620873</v>
       </c>
       <c r="D7">
-        <v>1.031430169695092</v>
+        <v>1.031430169695095</v>
       </c>
       <c r="E7">
-        <v>1.019415854629965</v>
+        <v>1.019415854629968</v>
       </c>
       <c r="F7">
-        <v>1.030736277235392</v>
+        <v>1.030736277235395</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052351176703826</v>
+        <v>1.052351176703827</v>
       </c>
       <c r="J7">
-        <v>1.033992421577909</v>
+        <v>1.033992421577912</v>
       </c>
       <c r="K7">
-        <v>1.041160621255262</v>
+        <v>1.041160621255264</v>
       </c>
       <c r="L7">
-        <v>1.029282536852683</v>
+        <v>1.029282536852685</v>
       </c>
       <c r="M7">
-        <v>1.040474490466788</v>
+        <v>1.040474490466791</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003861610472917</v>
+        <v>1.003861610472918</v>
       </c>
       <c r="D8">
         <v>1.022593193106732</v>
       </c>
       <c r="E8">
-        <v>1.009689500476493</v>
+        <v>1.009689500476494</v>
       </c>
       <c r="F8">
         <v>1.020216965398258</v>
@@ -664,19 +664,19 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047918325865494</v>
+        <v>1.047918325865495</v>
       </c>
       <c r="J8">
-        <v>1.025358385574736</v>
+        <v>1.025358385574737</v>
       </c>
       <c r="K8">
-        <v>1.03347558063152</v>
+        <v>1.033475580631521</v>
       </c>
       <c r="L8">
         <v>1.020739801645675</v>
       </c>
       <c r="M8">
-        <v>1.031129875278552</v>
+        <v>1.031129875278553</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9825971997930707</v>
+        <v>0.9825971997930698</v>
       </c>
       <c r="D9">
-        <v>1.005706651385006</v>
+        <v>1.005706651385005</v>
       </c>
       <c r="E9">
-        <v>0.9910827465198265</v>
+        <v>0.9910827465198256</v>
       </c>
       <c r="F9">
-        <v>1.000158410196663</v>
+        <v>1.000158410196662</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039315064893056</v>
+        <v>1.039315064893055</v>
       </c>
       <c r="J9">
-        <v>1.008779825722061</v>
+        <v>1.00877982572206</v>
       </c>
       <c r="K9">
-        <v>1.018707815722577</v>
+        <v>1.018707815722576</v>
       </c>
       <c r="L9">
-        <v>1.004322175959878</v>
+        <v>1.004322175959877</v>
       </c>
       <c r="M9">
-        <v>1.01324891782861</v>
+        <v>1.013248917828609</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9670208308549773</v>
+        <v>0.967020830854976</v>
       </c>
       <c r="D10">
-        <v>0.9933688813430016</v>
+        <v>0.9933688813430002</v>
       </c>
       <c r="E10">
-        <v>0.9774696612304015</v>
+        <v>0.9774696612304004</v>
       </c>
       <c r="F10">
-        <v>0.9855291446144754</v>
+        <v>0.9855291446144742</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032937937282598</v>
+        <v>1.032937937282597</v>
       </c>
       <c r="J10">
-        <v>0.9966068968559718</v>
+        <v>0.9966068968559705</v>
       </c>
       <c r="K10">
-        <v>1.007858903814739</v>
+        <v>1.007858903814737</v>
       </c>
       <c r="L10">
-        <v>0.9922579824888187</v>
+        <v>0.9922579824888176</v>
       </c>
       <c r="M10">
-        <v>1.000164684428364</v>
+        <v>1.000164684428363</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9598708394363885</v>
+        <v>0.9598708394363878</v>
       </c>
       <c r="D11">
-        <v>0.9877161286404964</v>
+        <v>0.9877161286404957</v>
       </c>
       <c r="E11">
-        <v>0.9712270850365318</v>
+        <v>0.9712270850365308</v>
       </c>
       <c r="F11">
-        <v>0.9788318780836675</v>
+        <v>0.9788318780836668</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029994236641689</v>
+        <v>1.029994236641688</v>
       </c>
       <c r="J11">
-        <v>0.9910138680927173</v>
+        <v>0.9910138680927164</v>
       </c>
       <c r="K11">
         <v>1.002873479317064</v>
       </c>
       <c r="L11">
-        <v>0.9867128100811002</v>
+        <v>0.9867128100810992</v>
       </c>
       <c r="M11">
-        <v>0.9941643483951721</v>
+        <v>0.9941643483951715</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9571465157243437</v>
+        <v>0.9571465157243432</v>
       </c>
       <c r="D12">
-        <v>0.9855641966969185</v>
+        <v>0.9855641966969179</v>
       </c>
       <c r="E12">
-        <v>0.9688496763556224</v>
+        <v>0.9688496763556222</v>
       </c>
       <c r="F12">
-        <v>0.9762830397662577</v>
+        <v>0.9762830397662575</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.028870294196558</v>
       </c>
       <c r="J12">
-        <v>0.9888821494554315</v>
+        <v>0.9888821494554308</v>
       </c>
       <c r="K12">
-        <v>1.000973290147875</v>
+        <v>1.000973290147874</v>
       </c>
       <c r="L12">
-        <v>0.9845990316161768</v>
+        <v>0.9845990316161766</v>
       </c>
       <c r="M12">
-        <v>0.9918791755260203</v>
+        <v>0.9918791755260201</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9577341293025963</v>
+        <v>0.9577341293025954</v>
       </c>
       <c r="D13">
-        <v>0.9860282587808699</v>
+        <v>0.9860282587808694</v>
       </c>
       <c r="E13">
-        <v>0.9693624064964853</v>
+        <v>0.9693624064964846</v>
       </c>
       <c r="F13">
-        <v>0.9768326629478163</v>
+        <v>0.976832662947816</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029112821047134</v>
+        <v>1.029112821047133</v>
       </c>
       <c r="J13">
-        <v>0.9893419689346509</v>
+        <v>0.9893419689346504</v>
       </c>
       <c r="K13">
         <v>1.001383169194207</v>
       </c>
       <c r="L13">
-        <v>0.9850549945375859</v>
+        <v>0.9850549945375853</v>
       </c>
       <c r="M13">
-        <v>0.9923720138119194</v>
+        <v>0.9923720138119191</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9596470922277718</v>
+        <v>0.9596470922277703</v>
       </c>
       <c r="D14">
-        <v>0.987539351131852</v>
+        <v>0.9875393511318508</v>
       </c>
       <c r="E14">
-        <v>0.9710318046691629</v>
+        <v>0.9710318046691619</v>
       </c>
       <c r="F14">
-        <v>0.9786224811824216</v>
+        <v>0.9786224811824203</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029901973872802</v>
+        <v>1.029901973872801</v>
       </c>
       <c r="J14">
-        <v>0.9908388030623299</v>
+        <v>0.9908388030623289</v>
       </c>
       <c r="K14">
-        <v>1.00271742907408</v>
+        <v>1.002717429074078</v>
       </c>
       <c r="L14">
-        <v>0.9865392243217501</v>
+        <v>0.986539224321749</v>
       </c>
       <c r="M14">
-        <v>0.9939766445066935</v>
+        <v>0.9939766445066923</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9608164043299061</v>
+        <v>0.9608164043299046</v>
       </c>
       <c r="D15">
-        <v>0.9884632768850945</v>
+        <v>0.9884632768850929</v>
       </c>
       <c r="E15">
-        <v>0.9720523966877793</v>
+        <v>0.9720523966877783</v>
       </c>
       <c r="F15">
-        <v>0.979716920811857</v>
+        <v>0.9797169208118556</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030384049814251</v>
+        <v>1.03038404981425</v>
       </c>
       <c r="J15">
-        <v>0.9917536753443581</v>
+        <v>0.9917536753443567</v>
       </c>
       <c r="K15">
-        <v>1.003532930248365</v>
+        <v>1.003532930248363</v>
       </c>
       <c r="L15">
-        <v>0.9874463540440789</v>
+        <v>0.9874463540440778</v>
       </c>
       <c r="M15">
-        <v>0.994957639041717</v>
+        <v>0.9949576390417154</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9674861938069871</v>
+        <v>0.9674861938069901</v>
       </c>
       <c r="D16">
-        <v>0.9937370387746424</v>
+        <v>0.9937370387746449</v>
       </c>
       <c r="E16">
-        <v>0.9778761107934341</v>
+        <v>0.9778761107934366</v>
       </c>
       <c r="F16">
-        <v>0.9859654341677258</v>
+        <v>0.9859654341677281</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033129204473211</v>
+        <v>1.033129204473213</v>
       </c>
       <c r="J16">
-        <v>0.9969708273025299</v>
+        <v>0.9969708273025326</v>
       </c>
       <c r="K16">
-        <v>1.008183287909372</v>
+        <v>1.008183287909374</v>
       </c>
       <c r="L16">
-        <v>0.9926187570004802</v>
+        <v>0.9926187570004827</v>
       </c>
       <c r="M16">
-        <v>1.000555358090286</v>
+        <v>1.000555358090288</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9715564996284088</v>
+        <v>0.9715564996284078</v>
       </c>
       <c r="D17">
-        <v>0.9969583568173145</v>
+        <v>0.9969583568173136</v>
       </c>
       <c r="E17">
-        <v>0.9814318488543613</v>
+        <v>0.9814318488543604</v>
       </c>
       <c r="F17">
-        <v>0.9897834907790395</v>
+        <v>0.9897834907790384</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034800303532346</v>
+        <v>1.034800303532345</v>
       </c>
       <c r="J17">
-        <v>1.000153373598817</v>
+        <v>1.000153373598816</v>
       </c>
       <c r="K17">
-        <v>1.011019928069747</v>
+        <v>1.011019928069746</v>
       </c>
       <c r="L17">
-        <v>0.9957734709131795</v>
+        <v>0.9957734709131786</v>
       </c>
       <c r="M17">
-        <v>1.003973055513887</v>
+        <v>1.003973055513886</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9738921111466782</v>
+        <v>0.9738921111466786</v>
       </c>
       <c r="D18">
-        <v>0.9988077726347055</v>
+        <v>0.9988077726347059</v>
       </c>
       <c r="E18">
-        <v>0.9834727543933759</v>
+        <v>0.9834727543933763</v>
       </c>
       <c r="F18">
-        <v>0.9919760113381941</v>
+        <v>0.9919760113381942</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.035757669265775</v>
       </c>
       <c r="J18">
-        <v>1.001979067128693</v>
+        <v>1.001979067128694</v>
       </c>
       <c r="K18">
         <v>1.0126471172583</v>
       </c>
       <c r="L18">
-        <v>0.9975830011050321</v>
+        <v>0.9975830011050323</v>
       </c>
       <c r="M18">
         <v>1.005934701774256</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9746821687466902</v>
+        <v>0.9746821687466914</v>
       </c>
       <c r="D19">
-        <v>0.9994335227204648</v>
+        <v>0.9994335227204659</v>
       </c>
       <c r="E19">
-        <v>0.9841632120868649</v>
+        <v>0.9841632120868657</v>
       </c>
       <c r="F19">
-        <v>0.9927179390871851</v>
+        <v>0.992717939087186</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.036081248248534</v>
       </c>
       <c r="J19">
-        <v>1.002596546674569</v>
+        <v>1.00259654667457</v>
       </c>
       <c r="K19">
-        <v>1.013197445494443</v>
+        <v>1.013197445494444</v>
       </c>
       <c r="L19">
-        <v>0.9981949801038702</v>
+        <v>0.9981949801038714</v>
       </c>
       <c r="M19">
-        <v>1.006598340027722</v>
+        <v>1.006598340027723</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9711238302582932</v>
+        <v>0.9711238302582959</v>
       </c>
       <c r="D20">
-        <v>0.9966158311942079</v>
+        <v>0.9966158311942099</v>
       </c>
       <c r="E20">
-        <v>0.9810538175121511</v>
+        <v>0.9810538175121536</v>
       </c>
       <c r="F20">
-        <v>0.9893774612309401</v>
+        <v>0.9893774612309425</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034622826694004</v>
+        <v>1.034622826694005</v>
       </c>
       <c r="J20">
-        <v>0.9998151238081259</v>
+        <v>0.9998151238081282</v>
       </c>
       <c r="K20">
-        <v>1.010718449296189</v>
+        <v>1.010718449296191</v>
       </c>
       <c r="L20">
-        <v>0.9954381996375835</v>
+        <v>0.9954381996375861</v>
       </c>
       <c r="M20">
-        <v>1.003609702776287</v>
+        <v>1.003609702776289</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9590857311962824</v>
+        <v>0.9590857311962829</v>
       </c>
       <c r="D21">
-        <v>0.9870958644709622</v>
+        <v>0.9870958644709633</v>
       </c>
       <c r="E21">
-        <v>0.9705418839094005</v>
+        <v>0.9705418839094011</v>
       </c>
       <c r="F21">
-        <v>0.9780971727235921</v>
+        <v>0.9780971727235931</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.029670458434156</v>
       </c>
       <c r="J21">
-        <v>0.990399571493617</v>
+        <v>0.9903995714936178</v>
       </c>
       <c r="K21">
-        <v>1.002325904270417</v>
+        <v>1.002325904270418</v>
       </c>
       <c r="L21">
-        <v>0.986103699440962</v>
+        <v>0.9861036994409628</v>
       </c>
       <c r="M21">
-        <v>0.9935057314592513</v>
+        <v>0.9935057314592525</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9511157438922376</v>
+        <v>0.9511157438922373</v>
       </c>
       <c r="D22">
-        <v>0.9808044321845213</v>
+        <v>0.9808044321845211</v>
       </c>
       <c r="E22">
         <v>0.9635893194694597</v>
       </c>
       <c r="F22">
-        <v>0.9706466219093106</v>
+        <v>0.9706466219093107</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.026378140989158</v>
       </c>
       <c r="J22">
-        <v>0.9841622411215447</v>
+        <v>0.9841622411215444</v>
       </c>
       <c r="K22">
-        <v>0.9967659952120781</v>
+        <v>0.996765995212078</v>
       </c>
       <c r="L22">
         <v>0.9799183128258488</v>
       </c>
       <c r="M22">
-        <v>0.986822898076269</v>
+        <v>0.9868228980762688</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9553817288746277</v>
+        <v>0.9553817288746278</v>
       </c>
       <c r="D23">
-        <v>0.9841707796916992</v>
+        <v>0.9841707796916995</v>
       </c>
       <c r="E23">
-        <v>0.9673099793008693</v>
+        <v>0.9673099793008696</v>
       </c>
       <c r="F23">
-        <v>0.9746328123852831</v>
+        <v>0.9746328123852837</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.028141582974597</v>
       </c>
       <c r="J23">
-        <v>0.9875010888858987</v>
+        <v>0.9875010888858986</v>
       </c>
       <c r="K23">
-        <v>0.9997422222405924</v>
+        <v>0.9997422222405925</v>
       </c>
       <c r="L23">
-        <v>0.9832295117308371</v>
+        <v>0.9832295117308373</v>
       </c>
       <c r="M23">
-        <v>0.9903992117490391</v>
+        <v>0.9903992117490397</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9713194534307811</v>
+        <v>0.9713194534307803</v>
       </c>
       <c r="D24">
-        <v>0.99677069460695</v>
+        <v>0.9967706946069493</v>
       </c>
       <c r="E24">
-        <v>0.9812247354145561</v>
+        <v>0.9812247354145551</v>
       </c>
       <c r="F24">
-        <v>0.9895610345916244</v>
+        <v>0.9895610345916235</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034703074249987</v>
+        <v>1.034703074249986</v>
       </c>
       <c r="J24">
-        <v>0.9999680585622089</v>
+        <v>0.9999680585622083</v>
       </c>
       <c r="K24">
         <v>1.010854758796053</v>
       </c>
       <c r="L24">
-        <v>0.9955897883134245</v>
+        <v>0.9955897883134236</v>
       </c>
       <c r="M24">
-        <v>1.003773984182749</v>
+        <v>1.003773984182748</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9883196232114544</v>
+        <v>0.9883196232114555</v>
       </c>
       <c r="D25">
         <v>1.01024648386394</v>
       </c>
       <c r="E25">
-        <v>0.9960878347170445</v>
+        <v>0.996087834717046</v>
       </c>
       <c r="F25">
-        <v>1.005546382331135</v>
+        <v>1.005546382331136</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041643338865436</v>
+        <v>1.041643338865437</v>
       </c>
       <c r="J25">
-        <v>1.013246575625473</v>
+        <v>1.013246575625474</v>
       </c>
       <c r="K25">
         <v>1.022687791805417</v>
       </c>
       <c r="L25">
-        <v>1.008747187115971</v>
+        <v>1.008747187115973</v>
       </c>
       <c r="M25">
-        <v>1.018059203710984</v>
+        <v>1.018059203710985</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00089558664768</v>
+        <v>1.003469339198665</v>
       </c>
       <c r="D2">
-        <v>1.020235252913387</v>
+        <v>1.022342496745833</v>
       </c>
       <c r="E2">
-        <v>1.007093031253965</v>
+        <v>1.009297310948167</v>
       </c>
       <c r="F2">
-        <v>1.017413031453066</v>
+        <v>1.01942050740263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046726869235679</v>
+        <v>1.047947341413942</v>
       </c>
       <c r="J2">
-        <v>1.023049543829807</v>
+        <v>1.025546775782551</v>
       </c>
       <c r="K2">
-        <v>1.03141969678022</v>
+        <v>1.033499098901034</v>
       </c>
       <c r="L2">
-        <v>1.01845442549962</v>
+        <v>1.020628621410721</v>
       </c>
       <c r="M2">
-        <v>1.028634990431949</v>
+        <v>1.03061575472018</v>
+      </c>
+      <c r="N2">
+        <v>1.027003169836022</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009543768087029</v>
+        <v>1.012096212707618</v>
       </c>
       <c r="D3">
-        <v>1.027112373987745</v>
+        <v>1.029205048697196</v>
       </c>
       <c r="E3">
-        <v>1.014664391111276</v>
+        <v>1.016851846976875</v>
       </c>
       <c r="F3">
-        <v>1.025594223569463</v>
+        <v>1.027582006519138</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050191894858086</v>
+        <v>1.051405273703067</v>
       </c>
       <c r="J3">
-        <v>1.029777598863002</v>
+        <v>1.032262467736667</v>
       </c>
       <c r="K3">
-        <v>1.03740971273707</v>
+        <v>1.039477399953931</v>
       </c>
       <c r="L3">
-        <v>1.025113014601303</v>
+        <v>1.027273551904815</v>
       </c>
       <c r="M3">
-        <v>1.035909768917428</v>
+        <v>1.037873726656989</v>
+      </c>
+      <c r="N3">
+        <v>1.033728398843013</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01494011514115</v>
+        <v>1.017480299046355</v>
       </c>
       <c r="D4">
-        <v>1.031406381427935</v>
+        <v>1.033490722998532</v>
       </c>
       <c r="E4">
-        <v>1.019389681675685</v>
+        <v>1.021567505123673</v>
       </c>
       <c r="F4">
-        <v>1.030707935170936</v>
+        <v>1.032684307439695</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052339316875555</v>
+        <v>1.053548719996611</v>
       </c>
       <c r="J4">
-        <v>1.033969221183705</v>
+        <v>1.036447185543123</v>
       </c>
       <c r="K4">
-        <v>1.041139978201957</v>
+        <v>1.043201072996183</v>
       </c>
       <c r="L4">
-        <v>1.029259589847778</v>
+        <v>1.031412415557207</v>
       </c>
       <c r="M4">
-        <v>1.040449347645113</v>
+        <v>1.042403637739668</v>
+      </c>
+      <c r="N4">
+        <v>1.037919059428748</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017164100320699</v>
+        <v>1.019699457169277</v>
       </c>
       <c r="D5">
-        <v>1.033176599792276</v>
+        <v>1.035257673125662</v>
       </c>
       <c r="E5">
-        <v>1.021337222677156</v>
+        <v>1.023511265902103</v>
       </c>
       <c r="F5">
-        <v>1.032817429125443</v>
+        <v>1.034789290491168</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053220733247104</v>
+        <v>1.054428597249376</v>
       </c>
       <c r="J5">
-        <v>1.035695057257673</v>
+        <v>1.038170353677106</v>
       </c>
       <c r="K5">
-        <v>1.042675457673439</v>
+        <v>1.044733993146625</v>
       </c>
       <c r="L5">
-        <v>1.030966450038358</v>
+        <v>1.03311627572118</v>
       </c>
       <c r="M5">
-        <v>1.042320188072298</v>
+        <v>1.04427067336452</v>
+      </c>
+      <c r="N5">
+        <v>1.039644674659131</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017534985088372</v>
+        <v>1.02006954964345</v>
       </c>
       <c r="D6">
-        <v>1.033471839874597</v>
+        <v>1.035552377529766</v>
       </c>
       <c r="E6">
-        <v>1.021662010395386</v>
+        <v>1.023835433879439</v>
       </c>
       <c r="F6">
-        <v>1.033169334753046</v>
+        <v>1.035140454635792</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053367509937573</v>
+        <v>1.054575122883812</v>
       </c>
       <c r="J6">
-        <v>1.035982768945779</v>
+        <v>1.038457630447957</v>
       </c>
       <c r="K6">
-        <v>1.042931410984221</v>
+        <v>1.044989528534795</v>
       </c>
       <c r="L6">
-        <v>1.031250972973317</v>
+        <v>1.033400308395243</v>
       </c>
       <c r="M6">
-        <v>1.042632174911068</v>
+        <v>1.044582035797728</v>
+      </c>
+      <c r="N6">
+        <v>1.039932359395948</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014970003620873</v>
+        <v>1.017510121786688</v>
       </c>
       <c r="D7">
-        <v>1.031430169695095</v>
+        <v>1.033514466704466</v>
       </c>
       <c r="E7">
-        <v>1.019415854629968</v>
+        <v>1.021593626545889</v>
       </c>
       <c r="F7">
-        <v>1.030736277235395</v>
+        <v>1.032712588144534</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052351176703827</v>
+        <v>1.053560558757191</v>
       </c>
       <c r="J7">
-        <v>1.033992421577912</v>
+        <v>1.036470349399129</v>
       </c>
       <c r="K7">
-        <v>1.041160621255264</v>
+        <v>1.043221681047656</v>
       </c>
       <c r="L7">
-        <v>1.029282536852685</v>
+        <v>1.031435321558572</v>
       </c>
       <c r="M7">
-        <v>1.040474490466791</v>
+        <v>1.042428728737617</v>
+      </c>
+      <c r="N7">
+        <v>1.037942256180087</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003861610472918</v>
+        <v>1.006427820826574</v>
       </c>
       <c r="D8">
-        <v>1.022593193106732</v>
+        <v>1.024695269158372</v>
       </c>
       <c r="E8">
-        <v>1.009689500476494</v>
+        <v>1.011887814741189</v>
       </c>
       <c r="F8">
-        <v>1.020216965398258</v>
+        <v>1.02221748886825</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047918325865495</v>
+        <v>1.049136264032905</v>
       </c>
       <c r="J8">
-        <v>1.025358385574737</v>
+        <v>1.027851194654276</v>
       </c>
       <c r="K8">
-        <v>1.033475580631521</v>
+        <v>1.035550803189519</v>
       </c>
       <c r="L8">
-        <v>1.020739801645675</v>
+        <v>1.022909130232396</v>
       </c>
       <c r="M8">
-        <v>1.031129875278553</v>
+        <v>1.033104690462244</v>
+      </c>
+      <c r="N8">
+        <v>1.029310861246865</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9825971997930698</v>
+        <v>0.9852231767130788</v>
       </c>
       <c r="D9">
-        <v>1.005706651385005</v>
+        <v>1.007849909496639</v>
       </c>
       <c r="E9">
-        <v>0.9910827465198256</v>
+        <v>0.9933285529478725</v>
       </c>
       <c r="F9">
-        <v>1.000158410196662</v>
+        <v>1.002213591804417</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039315064893055</v>
+        <v>1.040553592798318</v>
       </c>
       <c r="J9">
-        <v>1.00877982572206</v>
+        <v>1.011308755034799</v>
       </c>
       <c r="K9">
-        <v>1.018707815722576</v>
+        <v>1.020816898441745</v>
       </c>
       <c r="L9">
-        <v>1.004322175959877</v>
+        <v>1.00653080510677</v>
       </c>
       <c r="M9">
-        <v>1.013248917828609</v>
+        <v>1.015270856828645</v>
+      </c>
+      <c r="N9">
+        <v>1.012744929465684</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.967020830854976</v>
+        <v>0.9696996428355463</v>
       </c>
       <c r="D10">
-        <v>0.9933688813430002</v>
+        <v>0.9955488345643896</v>
       </c>
       <c r="E10">
-        <v>0.9774696612304004</v>
+        <v>0.9797577234161636</v>
       </c>
       <c r="F10">
-        <v>0.9855291446144742</v>
+        <v>0.9876320014478907</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032937937282597</v>
+        <v>1.034195336330272</v>
       </c>
       <c r="J10">
-        <v>0.9966068968559705</v>
+        <v>0.9991692475815972</v>
       </c>
       <c r="K10">
-        <v>1.007858903814737</v>
+        <v>1.009998923955784</v>
       </c>
       <c r="L10">
-        <v>0.9922579824888176</v>
+        <v>0.9945023362880956</v>
       </c>
       <c r="M10">
-        <v>1.000164684428363</v>
+        <v>1.00222821320472</v>
+      </c>
+      <c r="N10">
+        <v>1.000588182519478</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9598708394363878</v>
+        <v>0.962576760437715</v>
       </c>
       <c r="D11">
-        <v>0.9877161286404957</v>
+        <v>0.9899149703495294</v>
       </c>
       <c r="E11">
-        <v>0.9712270850365308</v>
+        <v>0.9735368829881549</v>
       </c>
       <c r="F11">
-        <v>0.9788318780836668</v>
+        <v>0.9809590217270667</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029994236641688</v>
+        <v>1.031261471976135</v>
       </c>
       <c r="J11">
-        <v>0.9910138680927164</v>
+        <v>0.9935937385397757</v>
       </c>
       <c r="K11">
-        <v>1.002873479317064</v>
+        <v>1.005029615033787</v>
       </c>
       <c r="L11">
-        <v>0.9867128100810992</v>
+        <v>0.9889757266306022</v>
       </c>
       <c r="M11">
-        <v>0.9941643483951715</v>
+        <v>0.9962491838447735</v>
+      </c>
+      <c r="N11">
+        <v>0.9950047556152968</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9571465157243432</v>
+        <v>0.9598632727034834</v>
       </c>
       <c r="D12">
-        <v>0.9855641966969179</v>
+        <v>0.9877705968044278</v>
       </c>
       <c r="E12">
-        <v>0.9688496763556222</v>
+        <v>0.9711681697382177</v>
       </c>
       <c r="F12">
-        <v>0.9762830397662575</v>
+        <v>0.9784198629333427</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028870294196558</v>
+        <v>1.030141483899007</v>
       </c>
       <c r="J12">
-        <v>0.9888821494554308</v>
+        <v>0.9914690802870916</v>
       </c>
       <c r="K12">
-        <v>1.000973290147874</v>
+        <v>1.003135904205707</v>
       </c>
       <c r="L12">
-        <v>0.9845990316161766</v>
+        <v>0.9868694029131778</v>
       </c>
       <c r="M12">
-        <v>0.9918791755260201</v>
+        <v>0.9939725211938937</v>
+      </c>
+      <c r="N12">
+        <v>0.9928770801041924</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9577341293025954</v>
+        <v>0.9604485247626613</v>
       </c>
       <c r="D13">
-        <v>0.9860282587808694</v>
+        <v>0.9882330113037817</v>
       </c>
       <c r="E13">
-        <v>0.9693624064964846</v>
+        <v>0.9716790045495</v>
       </c>
       <c r="F13">
-        <v>0.976832662947816</v>
+        <v>0.9789673779321678</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029112821047133</v>
+        <v>1.030383147956221</v>
       </c>
       <c r="J13">
-        <v>0.9893419689346504</v>
+        <v>0.9919273584756102</v>
       </c>
       <c r="K13">
-        <v>1.001383169194207</v>
+        <v>1.003544369760433</v>
       </c>
       <c r="L13">
-        <v>0.9850549945375853</v>
+        <v>0.9873237396384502</v>
       </c>
       <c r="M13">
-        <v>0.9923720138119191</v>
+        <v>0.9944635051368537</v>
+      </c>
+      <c r="N13">
+        <v>0.993336009100304</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9596470922277703</v>
+        <v>0.9623538924181161</v>
       </c>
       <c r="D14">
-        <v>0.9875393511318508</v>
+        <v>0.9897388059389637</v>
       </c>
       <c r="E14">
-        <v>0.9710318046691619</v>
+        <v>0.9733423079960762</v>
       </c>
       <c r="F14">
-        <v>0.9786224811824203</v>
+        <v>0.9807504107626885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029901973872801</v>
+        <v>1.031169529601217</v>
       </c>
       <c r="J14">
-        <v>0.9908388030623289</v>
+        <v>0.9934192452076626</v>
       </c>
       <c r="K14">
-        <v>1.002717429074078</v>
+        <v>1.004874089686156</v>
       </c>
       <c r="L14">
-        <v>0.986539224321749</v>
+        <v>0.9888027450263609</v>
       </c>
       <c r="M14">
-        <v>0.9939766445066923</v>
+        <v>0.9960621705803564</v>
+      </c>
+      <c r="N14">
+        <v>0.9948300144826377</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9608164043299046</v>
+        <v>0.9635186308879767</v>
       </c>
       <c r="D15">
-        <v>0.9884632768850929</v>
+        <v>0.9906595426183354</v>
       </c>
       <c r="E15">
-        <v>0.9720523966877783</v>
+        <v>0.9743592308610618</v>
       </c>
       <c r="F15">
-        <v>0.9797169208118556</v>
+        <v>0.9818407607268544</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03038404981425</v>
+        <v>1.031649939716435</v>
       </c>
       <c r="J15">
-        <v>0.9917536753443567</v>
+        <v>0.9943311457482967</v>
       </c>
       <c r="K15">
-        <v>1.003532930248363</v>
+        <v>1.00568686175887</v>
       </c>
       <c r="L15">
-        <v>0.9874463540440778</v>
+        <v>0.9897067332565551</v>
       </c>
       <c r="M15">
-        <v>0.9949576390417154</v>
+        <v>0.9970395721514143</v>
+      </c>
+      <c r="N15">
+        <v>0.9957432100266359</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9674861938069901</v>
+        <v>0.970163306210112</v>
       </c>
       <c r="D16">
-        <v>0.9937370387746449</v>
+        <v>0.9959158089287926</v>
       </c>
       <c r="E16">
-        <v>0.9778761107934366</v>
+        <v>0.9801628112749035</v>
       </c>
       <c r="F16">
-        <v>0.9859654341677281</v>
+        <v>0.9880667647634701</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033129204473213</v>
+        <v>1.034385989825879</v>
       </c>
       <c r="J16">
-        <v>0.9969708273025326</v>
+        <v>0.9995320870694531</v>
       </c>
       <c r="K16">
-        <v>1.008183287909374</v>
+        <v>1.010322302474628</v>
       </c>
       <c r="L16">
-        <v>0.9926187570004827</v>
+        <v>0.9948619515907593</v>
       </c>
       <c r="M16">
-        <v>1.000555358090288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.002617550302263</v>
+      </c>
+      <c r="N16">
+        <v>1.000951537281024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9715564996284078</v>
+        <v>0.974219073693073</v>
       </c>
       <c r="D17">
-        <v>0.9969583568173136</v>
+        <v>0.9991270132250817</v>
       </c>
       <c r="E17">
-        <v>0.9814318488543604</v>
+        <v>0.9837069068813808</v>
       </c>
       <c r="F17">
-        <v>0.9897834907790384</v>
+        <v>0.9918717471557309</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034800303532345</v>
+        <v>1.036051855439693</v>
       </c>
       <c r="J17">
-        <v>1.000153373598816</v>
+        <v>1.002705340563024</v>
       </c>
       <c r="K17">
-        <v>1.011019928069746</v>
+        <v>1.013150366395078</v>
       </c>
       <c r="L17">
-        <v>0.9957734709131786</v>
+        <v>0.9980067740736579</v>
       </c>
       <c r="M17">
-        <v>1.003973055513886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.006023811042016</v>
+      </c>
+      <c r="N17">
+        <v>1.004129297158534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9738921111466786</v>
+        <v>0.9765466030974185</v>
       </c>
       <c r="D18">
-        <v>0.9988077726347059</v>
+        <v>1.000970811967862</v>
       </c>
       <c r="E18">
-        <v>0.9834727543933763</v>
+        <v>0.9857413450180615</v>
       </c>
       <c r="F18">
-        <v>0.9919760113381942</v>
+        <v>0.9940569844499839</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035757669265775</v>
+        <v>1.037006325220286</v>
       </c>
       <c r="J18">
-        <v>1.001979067128694</v>
+        <v>1.004525900312725</v>
       </c>
       <c r="K18">
-        <v>1.0126471172583</v>
+        <v>1.014772808947665</v>
       </c>
       <c r="L18">
-        <v>0.9975830011050323</v>
+        <v>0.9998108257280326</v>
       </c>
       <c r="M18">
-        <v>1.005934701774256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.007979096718249</v>
+      </c>
+      <c r="N18">
+        <v>1.005952442311901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9746821687466914</v>
+        <v>0.977333968940452</v>
       </c>
       <c r="D19">
-        <v>0.9994335227204659</v>
+        <v>1.001594692205706</v>
       </c>
       <c r="E19">
-        <v>0.9841632120868657</v>
+        <v>0.986429649582143</v>
       </c>
       <c r="F19">
-        <v>0.992717939087186</v>
+        <v>0.9947964839939721</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036081248248534</v>
+        <v>1.037328941991124</v>
       </c>
       <c r="J19">
-        <v>1.00259654667457</v>
+        <v>1.005141675478735</v>
       </c>
       <c r="K19">
-        <v>1.013197445494444</v>
+        <v>1.015321559875049</v>
       </c>
       <c r="L19">
-        <v>0.9981949801038714</v>
+        <v>1.000420983537717</v>
       </c>
       <c r="M19">
-        <v>1.006598340027723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.008640616148129</v>
+      </c>
+      <c r="N19">
+        <v>1.006569091949276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9711238302582959</v>
+        <v>0.9737879221576742</v>
       </c>
       <c r="D20">
-        <v>0.9966158311942099</v>
+        <v>0.9987855429427469</v>
       </c>
       <c r="E20">
-        <v>0.9810538175121536</v>
+        <v>0.9833300905334943</v>
       </c>
       <c r="F20">
-        <v>0.9893774612309425</v>
+        <v>0.9914670841868368</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034622826694005</v>
+        <v>1.035874923575059</v>
       </c>
       <c r="J20">
-        <v>0.9998151238081282</v>
+        <v>1.002368057554024</v>
       </c>
       <c r="K20">
-        <v>1.010718449296191</v>
+        <v>1.012849780781197</v>
       </c>
       <c r="L20">
-        <v>0.9954381996375861</v>
+        <v>0.9976725333495035</v>
       </c>
       <c r="M20">
-        <v>1.003609702776289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.005661652617314</v>
+      </c>
+      <c r="N20">
+        <v>1.003791535168974</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9590857311962829</v>
+        <v>0.9617947456215794</v>
       </c>
       <c r="D21">
-        <v>0.9870958644709633</v>
+        <v>0.9892968634929142</v>
       </c>
       <c r="E21">
-        <v>0.9705418839094011</v>
+        <v>0.9728541638331577</v>
       </c>
       <c r="F21">
-        <v>0.9780971727235931</v>
+        <v>0.9802270812260253</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029670458434156</v>
+        <v>1.030938821431104</v>
       </c>
       <c r="J21">
-        <v>0.9903995714936178</v>
+        <v>0.9929814543760178</v>
       </c>
       <c r="K21">
-        <v>1.002325904270418</v>
+        <v>1.004483887412313</v>
       </c>
       <c r="L21">
-        <v>0.9861036994409628</v>
+        <v>0.9883687422611862</v>
       </c>
       <c r="M21">
-        <v>0.9935057314592525</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9955929967596046</v>
+      </c>
+      <c r="N21">
+        <v>0.9943916019377967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9511157438922373</v>
+        <v>0.9538575300511589</v>
       </c>
       <c r="D22">
-        <v>0.9808044321845211</v>
+        <v>0.9830283056002901</v>
       </c>
       <c r="E22">
-        <v>0.9635893194694597</v>
+        <v>0.9659279101735632</v>
       </c>
       <c r="F22">
-        <v>0.9706466219093107</v>
+        <v>0.9728057466836658</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026378140989158</v>
+        <v>1.027658506872693</v>
       </c>
       <c r="J22">
-        <v>0.9841622411215444</v>
+        <v>0.9867655908944246</v>
       </c>
       <c r="K22">
-        <v>0.996765995212078</v>
+        <v>0.9989436428543292</v>
       </c>
       <c r="L22">
-        <v>0.9799183128258488</v>
+        <v>0.9822059691314483</v>
       </c>
       <c r="M22">
-        <v>0.9868228980762688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9889358866504863</v>
+      </c>
+      <c r="N22">
+        <v>0.9881669112170898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9553817288746278</v>
+        <v>0.9581056596142136</v>
       </c>
       <c r="D23">
-        <v>0.9841707796916995</v>
+        <v>0.9863821859443688</v>
       </c>
       <c r="E23">
-        <v>0.9673099793008696</v>
+        <v>0.969634231244113</v>
       </c>
       <c r="F23">
-        <v>0.9746328123852837</v>
+        <v>0.9767760353844862</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028141582974597</v>
+        <v>1.029415396937764</v>
       </c>
       <c r="J23">
-        <v>0.9875010888858986</v>
+        <v>0.9900927103871117</v>
       </c>
       <c r="K23">
-        <v>0.9997422222405925</v>
+        <v>1.001909135580166</v>
       </c>
       <c r="L23">
-        <v>0.9832295117308373</v>
+        <v>0.98550482816063</v>
       </c>
       <c r="M23">
-        <v>0.9903992117490397</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9924981894099312</v>
+      </c>
+      <c r="N23">
+        <v>0.9914987556010826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9713194534307803</v>
+        <v>0.973982858265853</v>
       </c>
       <c r="D24">
-        <v>0.9967706946069493</v>
+        <v>0.998939928627209</v>
       </c>
       <c r="E24">
-        <v>0.9812247354145551</v>
+        <v>0.9835004584402542</v>
       </c>
       <c r="F24">
-        <v>0.9895610345916235</v>
+        <v>0.9916500389980858</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034703074249986</v>
+        <v>1.035954924400476</v>
       </c>
       <c r="J24">
-        <v>0.9999680585622083</v>
+        <v>1.002520554582318</v>
       </c>
       <c r="K24">
-        <v>1.010854758796053</v>
+        <v>1.012985685916327</v>
       </c>
       <c r="L24">
-        <v>0.9955897883134236</v>
+        <v>0.9978236554711294</v>
       </c>
       <c r="M24">
-        <v>1.003773984182748</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.005825393413645</v>
+      </c>
+      <c r="N24">
+        <v>1.00394424876054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9883196232114555</v>
+        <v>0.9909281809961658</v>
       </c>
       <c r="D25">
-        <v>1.01024648386394</v>
+        <v>1.012377692798233</v>
       </c>
       <c r="E25">
-        <v>0.996087834717046</v>
+        <v>0.9983197552320991</v>
       </c>
       <c r="F25">
-        <v>1.005546382331136</v>
+        <v>1.007585727011553</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041643338865437</v>
+        <v>1.042875761437824</v>
       </c>
       <c r="J25">
-        <v>1.013246575625474</v>
+        <v>1.015764753110033</v>
       </c>
       <c r="K25">
-        <v>1.022687791805417</v>
+        <v>1.024786852349278</v>
       </c>
       <c r="L25">
-        <v>1.008747187115973</v>
+        <v>1.010944210955031</v>
       </c>
       <c r="M25">
-        <v>1.018059203710985</v>
+        <v>1.020067414694155</v>
+      </c>
+      <c r="N25">
+        <v>1.017207255569295</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003469339198665</v>
+        <v>0.9988706329364648</v>
       </c>
       <c r="D2">
-        <v>1.022342496745833</v>
+        <v>1.021472561487908</v>
       </c>
       <c r="E2">
-        <v>1.009297310948167</v>
+        <v>1.005081345755332</v>
       </c>
       <c r="F2">
-        <v>1.01942050740263</v>
+        <v>1.027509516093174</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047947341413942</v>
+        <v>1.044274785656257</v>
       </c>
       <c r="J2">
-        <v>1.025546775782551</v>
+        <v>1.021085175726953</v>
       </c>
       <c r="K2">
-        <v>1.033499098901034</v>
+        <v>1.032640640097678</v>
       </c>
       <c r="L2">
-        <v>1.020628621410721</v>
+        <v>1.016470340389248</v>
       </c>
       <c r="M2">
-        <v>1.03061575472018</v>
+        <v>1.038598454868499</v>
       </c>
       <c r="N2">
-        <v>1.027003169836022</v>
+        <v>1.022535233796588</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012096212707618</v>
+        <v>1.005535060677927</v>
       </c>
       <c r="D3">
-        <v>1.029205048697196</v>
+        <v>1.02658856498566</v>
       </c>
       <c r="E3">
-        <v>1.016851846976875</v>
+        <v>1.010585785560718</v>
       </c>
       <c r="F3">
-        <v>1.027582006519138</v>
+        <v>1.033155490060815</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051405273703067</v>
+        <v>1.046123576721453</v>
       </c>
       <c r="J3">
-        <v>1.032262467736667</v>
+        <v>1.025875963289788</v>
       </c>
       <c r="K3">
-        <v>1.039477399953931</v>
+        <v>1.03689217802839</v>
       </c>
       <c r="L3">
-        <v>1.027273551904815</v>
+        <v>1.021084987588257</v>
       </c>
       <c r="M3">
-        <v>1.037873726656989</v>
+        <v>1.043381012946915</v>
       </c>
       <c r="N3">
-        <v>1.033728398843013</v>
+        <v>1.027332824827277</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017480299046355</v>
+        <v>1.009731818718163</v>
       </c>
       <c r="D4">
-        <v>1.033490722998532</v>
+        <v>1.029812932919106</v>
       </c>
       <c r="E4">
-        <v>1.021567505123673</v>
+        <v>1.014058350625285</v>
       </c>
       <c r="F4">
-        <v>1.032684307439695</v>
+        <v>1.036716772189733</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053548719996611</v>
+        <v>1.047276210181985</v>
       </c>
       <c r="J4">
-        <v>1.036447185543123</v>
+        <v>1.028889817611077</v>
       </c>
       <c r="K4">
-        <v>1.043201072996183</v>
+        <v>1.039564379661175</v>
       </c>
       <c r="L4">
-        <v>1.031412415557207</v>
+        <v>1.0239900137772</v>
       </c>
       <c r="M4">
-        <v>1.042403637739668</v>
+        <v>1.046391368442707</v>
       </c>
       <c r="N4">
-        <v>1.037919059428748</v>
+        <v>1.030350959167396</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019699457169277</v>
+        <v>1.011469857416688</v>
       </c>
       <c r="D5">
-        <v>1.035257673125662</v>
+        <v>1.031148808422782</v>
       </c>
       <c r="E5">
-        <v>1.023511265902103</v>
+        <v>1.015497898005237</v>
       </c>
       <c r="F5">
-        <v>1.034789290491168</v>
+        <v>1.038192932065561</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054428597249376</v>
+        <v>1.047750714572458</v>
       </c>
       <c r="J5">
-        <v>1.038170353677106</v>
+        <v>1.030137180916567</v>
       </c>
       <c r="K5">
-        <v>1.044733993146625</v>
+        <v>1.040669734530096</v>
       </c>
       <c r="L5">
-        <v>1.03311627572118</v>
+        <v>1.025192804537679</v>
       </c>
       <c r="M5">
-        <v>1.04427067336452</v>
+        <v>1.047637651673042</v>
       </c>
       <c r="N5">
-        <v>1.039644674659131</v>
+        <v>1.031600093871855</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02006954964345</v>
+        <v>1.011760179304993</v>
       </c>
       <c r="D6">
-        <v>1.035552377529766</v>
+        <v>1.031371981862637</v>
       </c>
       <c r="E6">
-        <v>1.023835433879439</v>
+        <v>1.015738441412458</v>
       </c>
       <c r="F6">
-        <v>1.035140454635792</v>
+        <v>1.038439582814409</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054575122883812</v>
+        <v>1.047829806658572</v>
       </c>
       <c r="J6">
-        <v>1.038457630447957</v>
+        <v>1.030345492199959</v>
       </c>
       <c r="K6">
-        <v>1.044989528534795</v>
+        <v>1.040854293786617</v>
       </c>
       <c r="L6">
-        <v>1.033400308395243</v>
+        <v>1.025393699547744</v>
       </c>
       <c r="M6">
-        <v>1.044582035797728</v>
+        <v>1.047845803257152</v>
       </c>
       <c r="N6">
-        <v>1.039932359395948</v>
+        <v>1.031808700981163</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.017510121786688</v>
+        <v>1.009755143969537</v>
       </c>
       <c r="D7">
-        <v>1.033514466704466</v>
+        <v>1.029830858956329</v>
       </c>
       <c r="E7">
-        <v>1.021593626545889</v>
+        <v>1.014077664459341</v>
       </c>
       <c r="F7">
-        <v>1.032712588144534</v>
+        <v>1.03673657792711</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053560558757191</v>
+        <v>1.047282589578042</v>
       </c>
       <c r="J7">
-        <v>1.036470349399129</v>
+        <v>1.02890656098532</v>
       </c>
       <c r="K7">
-        <v>1.043221681047656</v>
+        <v>1.039579219288874</v>
       </c>
       <c r="L7">
-        <v>1.031435321558572</v>
+        <v>1.024006157006445</v>
       </c>
       <c r="M7">
-        <v>1.042428728737617</v>
+        <v>1.046408095907218</v>
       </c>
       <c r="N7">
-        <v>1.037942256180087</v>
+        <v>1.030367726319151</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006427820826574</v>
+        <v>1.001147707602881</v>
       </c>
       <c r="D8">
-        <v>1.024695269158372</v>
+        <v>1.023219943392175</v>
       </c>
       <c r="E8">
-        <v>1.011887814741189</v>
+        <v>1.006960705324462</v>
       </c>
       <c r="F8">
-        <v>1.02221748886825</v>
+        <v>1.029437301844863</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049136264032905</v>
+        <v>1.044908876320018</v>
       </c>
       <c r="J8">
-        <v>1.027851194654276</v>
+        <v>1.022722669606613</v>
       </c>
       <c r="K8">
-        <v>1.035550803189519</v>
+        <v>1.034094309913064</v>
       </c>
       <c r="L8">
-        <v>1.022909130232396</v>
+        <v>1.01804720777995</v>
       </c>
       <c r="M8">
-        <v>1.033104690462244</v>
+        <v>1.040232760105789</v>
       </c>
       <c r="N8">
-        <v>1.029310861246865</v>
+        <v>1.024175053105384</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9852231767130788</v>
+        <v>0.985026834170274</v>
       </c>
       <c r="D9">
-        <v>1.007849909496639</v>
+        <v>1.010865415127629</v>
       </c>
       <c r="E9">
-        <v>0.9933285529478725</v>
+        <v>0.9936862560861882</v>
       </c>
       <c r="F9">
-        <v>1.002213591804417</v>
+        <v>1.015819610566073</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040553592798318</v>
+        <v>1.040372636453147</v>
       </c>
       <c r="J9">
-        <v>1.011308755034799</v>
+        <v>1.011119643522959</v>
       </c>
       <c r="K9">
-        <v>1.020816898441745</v>
+        <v>1.023784634365943</v>
       </c>
       <c r="L9">
-        <v>1.00653080510677</v>
+        <v>1.006882606756414</v>
       </c>
       <c r="M9">
-        <v>1.015270856828645</v>
+        <v>1.028661135745889</v>
       </c>
       <c r="N9">
-        <v>1.012744929465684</v>
+        <v>1.012555549393805</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9696996428355463</v>
+        <v>0.9735325940759502</v>
       </c>
       <c r="D10">
-        <v>0.9955488345643896</v>
+        <v>1.002083291137394</v>
       </c>
       <c r="E10">
-        <v>0.9797577234161636</v>
+        <v>0.9842654945544108</v>
       </c>
       <c r="F10">
-        <v>0.9876320014478907</v>
+        <v>1.006155290686157</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034195336330272</v>
+        <v>1.037081334539978</v>
       </c>
       <c r="J10">
-        <v>0.9991692475815972</v>
+        <v>1.002837150300276</v>
       </c>
       <c r="K10">
-        <v>1.009998923955784</v>
+        <v>1.016415032720702</v>
       </c>
       <c r="L10">
-        <v>0.9945023362880956</v>
+        <v>0.9989247729979289</v>
       </c>
       <c r="M10">
-        <v>1.00222821320472</v>
+        <v>1.020414291746653</v>
       </c>
       <c r="N10">
-        <v>1.000588182519478</v>
+        <v>1.004261294080731</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.962576760437715</v>
+        <v>0.968351092782927</v>
       </c>
       <c r="D11">
-        <v>0.9899149703495294</v>
+        <v>0.9981328112562035</v>
       </c>
       <c r="E11">
-        <v>0.9735368829881549</v>
+        <v>0.9800308111194193</v>
       </c>
       <c r="F11">
-        <v>0.9809590217270667</v>
+        <v>1.001811696532785</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031261471976135</v>
+        <v>1.03558526561782</v>
       </c>
       <c r="J11">
-        <v>0.9935937385397757</v>
+        <v>0.9991024607320496</v>
       </c>
       <c r="K11">
-        <v>1.005029615033787</v>
+        <v>1.013090026136275</v>
       </c>
       <c r="L11">
-        <v>0.9889757266306022</v>
+        <v>0.9953394053552744</v>
       </c>
       <c r="M11">
-        <v>0.9962491838447735</v>
+        <v>1.016699527595267</v>
       </c>
       <c r="N11">
-        <v>0.9950047556152968</v>
+        <v>1.000521300824943</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9598632727034834</v>
+        <v>0.966393106620081</v>
       </c>
       <c r="D12">
-        <v>0.9877705968044278</v>
+        <v>0.9966414660020666</v>
       </c>
       <c r="E12">
-        <v>0.9711681697382177</v>
+        <v>0.9784325867641822</v>
       </c>
       <c r="F12">
-        <v>0.9784198629333427</v>
+        <v>1.000172507195034</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030141483899007</v>
+        <v>1.035018178090628</v>
       </c>
       <c r="J12">
-        <v>0.9914690802870916</v>
+        <v>0.997691160577072</v>
       </c>
       <c r="K12">
-        <v>1.003135904205707</v>
+        <v>1.011833294331071</v>
       </c>
       <c r="L12">
-        <v>0.9868694029131778</v>
+        <v>0.9939849868849175</v>
       </c>
       <c r="M12">
-        <v>0.9939725211938937</v>
+        <v>1.015296402985402</v>
       </c>
       <c r="N12">
-        <v>0.9928770801041924</v>
+        <v>0.9991079964618672</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9604485247626613</v>
+        <v>0.9668146559075348</v>
       </c>
       <c r="D13">
-        <v>0.9882330113037817</v>
+        <v>0.9969624793486301</v>
       </c>
       <c r="E13">
-        <v>0.9716790045495</v>
+        <v>0.9787765882683728</v>
       </c>
       <c r="F13">
-        <v>0.9789673779321678</v>
+        <v>1.000525318781109</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030383147956221</v>
+        <v>1.035140347862271</v>
       </c>
       <c r="J13">
-        <v>0.9919273584756102</v>
+        <v>0.9979950093951601</v>
       </c>
       <c r="K13">
-        <v>1.003544369760433</v>
+        <v>1.012103875370602</v>
       </c>
       <c r="L13">
-        <v>0.9873237396384502</v>
+        <v>0.9942765684743948</v>
       </c>
       <c r="M13">
-        <v>0.9944635051368537</v>
+        <v>1.01559846131837</v>
       </c>
       <c r="N13">
-        <v>0.993336009100304</v>
+        <v>0.9994122767801291</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9623538924181161</v>
+        <v>0.9681899415984655</v>
       </c>
       <c r="D14">
-        <v>0.9897388059389637</v>
+        <v>0.9980100358757997</v>
       </c>
       <c r="E14">
-        <v>0.9733423079960762</v>
+        <v>0.9798992288699822</v>
       </c>
       <c r="F14">
-        <v>0.9807504107626885</v>
+        <v>1.001676738468116</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031169529601217</v>
+        <v>1.035538626645143</v>
       </c>
       <c r="J14">
-        <v>0.9934192452076626</v>
+        <v>0.998986304300544</v>
       </c>
       <c r="K14">
-        <v>1.004874089686156</v>
+        <v>1.012986596103395</v>
       </c>
       <c r="L14">
-        <v>0.9888027450263609</v>
+        <v>0.9952279212352092</v>
       </c>
       <c r="M14">
-        <v>0.9960621705803564</v>
+        <v>1.016584030531186</v>
       </c>
       <c r="N14">
-        <v>0.9948300144826377</v>
+        <v>1.000404979437981</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9635186308879767</v>
+        <v>0.9690327978920426</v>
       </c>
       <c r="D15">
-        <v>0.9906595426183354</v>
+        <v>0.998652238929394</v>
       </c>
       <c r="E15">
-        <v>0.9743592308610618</v>
+        <v>0.9805875145329728</v>
       </c>
       <c r="F15">
-        <v>0.9818407607268544</v>
+        <v>1.002382688482711</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031649939716435</v>
+        <v>1.035782488147859</v>
       </c>
       <c r="J15">
-        <v>0.9943311457482967</v>
+        <v>0.9995938273848926</v>
       </c>
       <c r="K15">
-        <v>1.00568686175887</v>
+        <v>1.01352754765016</v>
       </c>
       <c r="L15">
-        <v>0.9897067332565551</v>
+        <v>0.995811025701116</v>
       </c>
       <c r="M15">
-        <v>0.9970395721514143</v>
+        <v>1.017188131669755</v>
       </c>
       <c r="N15">
-        <v>0.9957432100266359</v>
+        <v>1.001013365274794</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.970163306210112</v>
+        <v>0.9738719483112297</v>
       </c>
       <c r="D16">
-        <v>0.9959158089287926</v>
+        <v>1.002342212307687</v>
       </c>
       <c r="E16">
-        <v>0.9801628112749035</v>
+        <v>0.9845431024872372</v>
       </c>
       <c r="F16">
-        <v>0.9880667647634701</v>
+        <v>1.006440054567037</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034385989825879</v>
+        <v>1.037179069395942</v>
       </c>
       <c r="J16">
-        <v>0.9995320870694531</v>
+        <v>1.003081736446318</v>
       </c>
       <c r="K16">
-        <v>1.010322302474628</v>
+        <v>1.016632751955485</v>
       </c>
       <c r="L16">
-        <v>0.9948619515907593</v>
+        <v>0.9991596418812811</v>
       </c>
       <c r="M16">
-        <v>1.002617550302263</v>
+        <v>1.020657658298826</v>
       </c>
       <c r="N16">
-        <v>1.000951537281024</v>
+        <v>1.004506227567155</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.974219073693073</v>
+        <v>0.976850923158643</v>
       </c>
       <c r="D17">
-        <v>0.9991270132250817</v>
+        <v>1.004616090771083</v>
       </c>
       <c r="E17">
-        <v>0.9837069068813808</v>
+        <v>0.9869814329132018</v>
       </c>
       <c r="F17">
-        <v>0.9918717471557309</v>
+        <v>1.008941308706557</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036051855439693</v>
+        <v>1.038035633690267</v>
       </c>
       <c r="J17">
-        <v>1.002705340563024</v>
+        <v>1.005228700736082</v>
       </c>
       <c r="K17">
-        <v>1.013150366395078</v>
+        <v>1.018543664408395</v>
       </c>
       <c r="L17">
-        <v>0.9980067740736579</v>
+        <v>1.001221641238589</v>
       </c>
       <c r="M17">
-        <v>1.006023811042016</v>
+        <v>1.022794359854563</v>
       </c>
       <c r="N17">
-        <v>1.004129297158534</v>
+        <v>1.006656240792471</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9765466030974185</v>
+        <v>0.9785689783752918</v>
       </c>
       <c r="D18">
-        <v>1.000970811967862</v>
+        <v>1.005928277464059</v>
       </c>
       <c r="E18">
-        <v>0.9857413450180615</v>
+        <v>0.9883888135278666</v>
       </c>
       <c r="F18">
-        <v>0.9940569844499839</v>
+        <v>1.010385058281473</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037006325220286</v>
+        <v>1.038528464181621</v>
       </c>
       <c r="J18">
-        <v>1.004525900312725</v>
+        <v>1.006466809222432</v>
       </c>
       <c r="K18">
-        <v>1.014772808947665</v>
+        <v>1.019645459758153</v>
       </c>
       <c r="L18">
-        <v>0.9998108257280326</v>
+        <v>1.002411027008381</v>
       </c>
       <c r="M18">
-        <v>1.007979096718249</v>
+        <v>1.024026907934095</v>
       </c>
       <c r="N18">
-        <v>1.005952442311901</v>
+        <v>1.007896107534884</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.977333968940452</v>
+        <v>0.9791515532840696</v>
       </c>
       <c r="D19">
-        <v>1.001594692205706</v>
+        <v>1.006373353226829</v>
       </c>
       <c r="E19">
-        <v>0.986429649582143</v>
+        <v>0.9888662290357901</v>
       </c>
       <c r="F19">
-        <v>0.9947964839939721</v>
+        <v>1.010874817946824</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037328941991124</v>
+        <v>1.038695375909201</v>
       </c>
       <c r="J19">
-        <v>1.005141675478735</v>
+        <v>1.006886618219375</v>
       </c>
       <c r="K19">
-        <v>1.015321559875049</v>
+        <v>1.020019015615028</v>
       </c>
       <c r="L19">
-        <v>1.000420983537717</v>
+        <v>1.002814361654977</v>
       </c>
       <c r="M19">
-        <v>1.008640616148129</v>
+        <v>1.024444890368255</v>
       </c>
       <c r="N19">
-        <v>1.006569091949276</v>
+        <v>1.008316512708756</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9737879221576742</v>
+        <v>0.9765333455521862</v>
       </c>
       <c r="D20">
-        <v>0.9987855429427469</v>
+        <v>1.004373598586339</v>
       </c>
       <c r="E20">
-        <v>0.9833300905334943</v>
+        <v>0.9867213730048069</v>
       </c>
       <c r="F20">
-        <v>0.9914670841868368</v>
+        <v>1.008674532119296</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035874923575059</v>
+        <v>1.037944439662224</v>
       </c>
       <c r="J20">
-        <v>1.002368057554024</v>
+        <v>1.004999830717255</v>
       </c>
       <c r="K20">
-        <v>1.012849780781197</v>
+        <v>1.018339977031456</v>
       </c>
       <c r="L20">
-        <v>0.9976725333495035</v>
+        <v>1.001001799984262</v>
       </c>
       <c r="M20">
-        <v>1.005661652617314</v>
+        <v>1.022566546223523</v>
       </c>
       <c r="N20">
-        <v>1.003791535168974</v>
+        <v>1.006427045751966</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9617947456215794</v>
+        <v>0.967785897435569</v>
       </c>
       <c r="D21">
-        <v>0.9892968634929142</v>
+        <v>0.9977022331646073</v>
       </c>
       <c r="E21">
-        <v>0.9728541638331577</v>
+        <v>0.9795693534139771</v>
       </c>
       <c r="F21">
-        <v>0.9802270812260253</v>
+        <v>1.001338402309956</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030938821431104</v>
+        <v>1.035421663884771</v>
       </c>
       <c r="J21">
-        <v>0.9929814543760178</v>
+        <v>0.9986950724833725</v>
       </c>
       <c r="K21">
-        <v>1.004483887412313</v>
+        <v>1.012727268596041</v>
       </c>
       <c r="L21">
-        <v>0.9883687422611862</v>
+        <v>0.9949484113780621</v>
       </c>
       <c r="M21">
-        <v>0.9955929967596046</v>
+        <v>1.016294462537167</v>
       </c>
       <c r="N21">
-        <v>0.9943916019377967</v>
+        <v>1.000113334038225</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9538575300511589</v>
+        <v>0.9620915638238987</v>
       </c>
       <c r="D22">
-        <v>0.9830283056002901</v>
+        <v>0.9933680275882231</v>
       </c>
       <c r="E22">
-        <v>0.9659279101735632</v>
+        <v>0.9749252487157949</v>
       </c>
       <c r="F22">
-        <v>0.9728057466836658</v>
+        <v>0.9965755918415956</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027658506872693</v>
+        <v>1.033769226472447</v>
       </c>
       <c r="J22">
-        <v>0.9867655908944246</v>
+        <v>0.9945907189972472</v>
       </c>
       <c r="K22">
-        <v>0.9989436428543292</v>
+        <v>1.00907202002787</v>
       </c>
       <c r="L22">
-        <v>0.9822059691314483</v>
+        <v>0.9910103622852094</v>
       </c>
       <c r="M22">
-        <v>0.9889358866504863</v>
+        <v>1.012215193536886</v>
       </c>
       <c r="N22">
-        <v>0.9881669112170898</v>
+        <v>0.9960031518993734</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9581056596142136</v>
+        <v>0.9651296329565207</v>
       </c>
       <c r="D23">
-        <v>0.9863821859443688</v>
+        <v>0.9956795506923217</v>
       </c>
       <c r="E23">
-        <v>0.969634231244113</v>
+        <v>0.9774018434751282</v>
       </c>
       <c r="F23">
-        <v>0.9767760353844862</v>
+        <v>0.9991153908372075</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029415396937764</v>
+        <v>1.034651760904623</v>
       </c>
       <c r="J23">
-        <v>0.9900927103871117</v>
+        <v>0.9967804649522661</v>
       </c>
       <c r="K23">
-        <v>1.001909135580166</v>
+        <v>1.011022276572565</v>
       </c>
       <c r="L23">
-        <v>0.98550482816063</v>
+        <v>0.9931111264226964</v>
       </c>
       <c r="M23">
-        <v>0.9924981894099312</v>
+        <v>1.01439117405672</v>
       </c>
       <c r="N23">
-        <v>0.9914987556010826</v>
+        <v>0.9981960075448159</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.973982858265853</v>
+        <v>0.9766769053622281</v>
       </c>
       <c r="D24">
-        <v>0.998939928627209</v>
+        <v>1.004483213896598</v>
       </c>
       <c r="E24">
-        <v>0.9835004584402542</v>
+        <v>0.9868389286513888</v>
       </c>
       <c r="F24">
-        <v>0.9916500389980858</v>
+        <v>1.008795123774772</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035954924400476</v>
+        <v>1.037985667244145</v>
       </c>
       <c r="J24">
-        <v>1.002520554582318</v>
+        <v>1.005103290913591</v>
       </c>
       <c r="K24">
-        <v>1.012985685916327</v>
+        <v>1.018432054053434</v>
       </c>
       <c r="L24">
-        <v>0.9978236554711294</v>
+        <v>1.001101177895108</v>
       </c>
       <c r="M24">
-        <v>1.005825393413645</v>
+        <v>1.022669527775728</v>
       </c>
       <c r="N24">
-        <v>1.00394424876054</v>
+        <v>1.006530652873647</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9909281809961658</v>
+        <v>0.9893177117894238</v>
       </c>
       <c r="D25">
-        <v>1.012377692798233</v>
+        <v>1.014149879556032</v>
       </c>
       <c r="E25">
-        <v>0.9983197552320991</v>
+        <v>0.9972125019391161</v>
       </c>
       <c r="F25">
-        <v>1.007585727011553</v>
+        <v>1.019437197825068</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042875761437824</v>
+        <v>1.041590110137226</v>
       </c>
       <c r="J25">
-        <v>1.015764753110033</v>
+        <v>1.014210004179211</v>
       </c>
       <c r="K25">
-        <v>1.024786852349278</v>
+        <v>1.026532437346843</v>
       </c>
       <c r="L25">
-        <v>1.010944210955031</v>
+        <v>1.009854244896852</v>
       </c>
       <c r="M25">
-        <v>1.020067414694155</v>
+        <v>1.031741087625005</v>
       </c>
       <c r="N25">
-        <v>1.017207255569295</v>
+        <v>1.015650298716659</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9988706329364648</v>
+        <v>1.033474275513085</v>
       </c>
       <c r="D2">
-        <v>1.021472561487908</v>
+        <v>1.049256647384706</v>
       </c>
       <c r="E2">
-        <v>1.005081345755332</v>
+        <v>1.034606274676463</v>
       </c>
       <c r="F2">
-        <v>1.027509516093174</v>
+        <v>1.055210173165712</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044274785656257</v>
+        <v>1.064878618188859</v>
       </c>
       <c r="J2">
-        <v>1.021085175726953</v>
+        <v>1.05469788073663</v>
       </c>
       <c r="K2">
-        <v>1.032640640097678</v>
+        <v>1.060069899881862</v>
       </c>
       <c r="L2">
-        <v>1.016470340389248</v>
+        <v>1.045603656625831</v>
       </c>
       <c r="M2">
-        <v>1.038598454868499</v>
+        <v>1.06595041657717</v>
       </c>
       <c r="N2">
-        <v>1.022535233796588</v>
+        <v>1.056195672702814</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005535060677927</v>
+        <v>1.03952640421216</v>
       </c>
       <c r="D3">
-        <v>1.02658856498566</v>
+        <v>1.054037895435893</v>
       </c>
       <c r="E3">
-        <v>1.010585785560718</v>
+        <v>1.039656829190323</v>
       </c>
       <c r="F3">
-        <v>1.033155490060815</v>
+        <v>1.060606663398239</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046123576721453</v>
+        <v>1.067478811924075</v>
       </c>
       <c r="J3">
-        <v>1.025875963289788</v>
+        <v>1.058994615202236</v>
       </c>
       <c r="K3">
-        <v>1.03689217802839</v>
+        <v>1.064023065449971</v>
       </c>
       <c r="L3">
-        <v>1.021084987588257</v>
+        <v>1.049806243406965</v>
       </c>
       <c r="M3">
-        <v>1.043381012946915</v>
+        <v>1.070518634852523</v>
       </c>
       <c r="N3">
-        <v>1.027332824827277</v>
+        <v>1.060498509024203</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009731818718163</v>
+        <v>1.043344802329887</v>
       </c>
       <c r="D4">
-        <v>1.029812932919106</v>
+        <v>1.057057099041987</v>
       </c>
       <c r="E4">
-        <v>1.014058350625285</v>
+        <v>1.042847550317392</v>
       </c>
       <c r="F4">
-        <v>1.036716772189733</v>
+        <v>1.064017341036994</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047276210181985</v>
+        <v>1.069108789247763</v>
       </c>
       <c r="J4">
-        <v>1.028889817611077</v>
+        <v>1.061701173744312</v>
       </c>
       <c r="K4">
-        <v>1.039564379661175</v>
+        <v>1.066512415669001</v>
       </c>
       <c r="L4">
-        <v>1.0239900137772</v>
+        <v>1.052454948505078</v>
       </c>
       <c r="M4">
-        <v>1.046391368442707</v>
+        <v>1.073399973446614</v>
       </c>
       <c r="N4">
-        <v>1.030350959167396</v>
+        <v>1.063208911189855</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011469857416688</v>
+        <v>1.044927718655978</v>
       </c>
       <c r="D5">
-        <v>1.031148808422782</v>
+        <v>1.058309273440684</v>
       </c>
       <c r="E5">
-        <v>1.015497898005237</v>
+        <v>1.044171218888547</v>
       </c>
       <c r="F5">
-        <v>1.038192932065561</v>
+        <v>1.065432596183781</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047750714572458</v>
+        <v>1.069781925518585</v>
       </c>
       <c r="J5">
-        <v>1.030137180916567</v>
+        <v>1.062822093800238</v>
       </c>
       <c r="K5">
-        <v>1.040669734530096</v>
+        <v>1.067543177950116</v>
       </c>
       <c r="L5">
-        <v>1.025192804537679</v>
+        <v>1.053552249701235</v>
       </c>
       <c r="M5">
-        <v>1.047637651673042</v>
+        <v>1.074594173104848</v>
       </c>
       <c r="N5">
-        <v>1.031600093871855</v>
+        <v>1.064331423080832</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011760179304993</v>
+        <v>1.045192216862566</v>
       </c>
       <c r="D6">
-        <v>1.031371981862637</v>
+        <v>1.058518537456271</v>
       </c>
       <c r="E6">
-        <v>1.015738441412458</v>
+        <v>1.044392452457757</v>
       </c>
       <c r="F6">
-        <v>1.038439582814409</v>
+        <v>1.065669157079782</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047829806658572</v>
+        <v>1.069894251182087</v>
       </c>
       <c r="J6">
-        <v>1.030345492199959</v>
+        <v>1.06300932954614</v>
       </c>
       <c r="K6">
-        <v>1.040854293786617</v>
+        <v>1.067715341817407</v>
       </c>
       <c r="L6">
-        <v>1.025393699547744</v>
+        <v>1.053735560075131</v>
       </c>
       <c r="M6">
-        <v>1.047845803257152</v>
+        <v>1.0747937016303</v>
       </c>
       <c r="N6">
-        <v>1.031808700981163</v>
+        <v>1.06451892472297</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009755143969537</v>
+        <v>1.043366039758797</v>
       </c>
       <c r="D7">
-        <v>1.029830858956329</v>
+        <v>1.057073896878203</v>
       </c>
       <c r="E7">
-        <v>1.014077664459341</v>
+        <v>1.042865305809345</v>
       </c>
       <c r="F7">
-        <v>1.03673657792711</v>
+        <v>1.064036323722766</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047282589578042</v>
+        <v>1.069117830699827</v>
       </c>
       <c r="J7">
-        <v>1.02890656098532</v>
+        <v>1.061716217073653</v>
       </c>
       <c r="K7">
-        <v>1.039579219288874</v>
+        <v>1.066526249844103</v>
       </c>
       <c r="L7">
-        <v>1.024006157006445</v>
+        <v>1.052469673516624</v>
       </c>
       <c r="M7">
-        <v>1.046408095907218</v>
+        <v>1.073415996700181</v>
       </c>
       <c r="N7">
-        <v>1.030367726319151</v>
+        <v>1.06322397588245</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001147707602881</v>
+        <v>1.035540517638394</v>
       </c>
       <c r="D8">
-        <v>1.023219943392175</v>
+        <v>1.050888406831487</v>
       </c>
       <c r="E8">
-        <v>1.006960705324462</v>
+        <v>1.036329642986447</v>
       </c>
       <c r="F8">
-        <v>1.029437301844863</v>
+        <v>1.057051286390194</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044908876320018</v>
+        <v>1.065768532257943</v>
       </c>
       <c r="J8">
-        <v>1.022722669606613</v>
+        <v>1.056165700882253</v>
       </c>
       <c r="K8">
-        <v>1.034094309913064</v>
+        <v>1.061420511840439</v>
       </c>
       <c r="L8">
-        <v>1.01804720777995</v>
+        <v>1.04703900456793</v>
       </c>
       <c r="M8">
-        <v>1.040232760105789</v>
+        <v>1.067510178829549</v>
       </c>
       <c r="N8">
-        <v>1.024175053105384</v>
+        <v>1.057665577321405</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.985026834170274</v>
+        <v>1.020950909076632</v>
       </c>
       <c r="D9">
-        <v>1.010865415127629</v>
+        <v>1.039380860169865</v>
       </c>
       <c r="E9">
-        <v>0.9936862560861882</v>
+        <v>1.024181882920469</v>
       </c>
       <c r="F9">
-        <v>1.015819610566073</v>
+        <v>1.044079610755541</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040372636453147</v>
+        <v>1.059441672673678</v>
       </c>
       <c r="J9">
-        <v>1.011119643522959</v>
+        <v>1.045784926791061</v>
       </c>
       <c r="K9">
-        <v>1.023784634365943</v>
+        <v>1.051865762312558</v>
       </c>
       <c r="L9">
-        <v>1.006882606756414</v>
+        <v>1.036894441581275</v>
       </c>
       <c r="M9">
-        <v>1.028661135745889</v>
+        <v>1.056495834206161</v>
       </c>
       <c r="N9">
-        <v>1.012555549393805</v>
+        <v>1.047270061340312</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9735325940759502</v>
+        <v>1.010607818549023</v>
       </c>
       <c r="D10">
-        <v>1.002083291137394</v>
+        <v>1.031244466094308</v>
       </c>
       <c r="E10">
-        <v>0.9842654945544108</v>
+        <v>1.015599796226457</v>
       </c>
       <c r="F10">
-        <v>1.006155290686157</v>
+        <v>1.034923216586408</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037081334539978</v>
+        <v>1.054903363905747</v>
       </c>
       <c r="J10">
-        <v>1.002837150300276</v>
+        <v>1.038406796292083</v>
       </c>
       <c r="K10">
-        <v>1.016415032720702</v>
+        <v>1.04507161244046</v>
       </c>
       <c r="L10">
-        <v>0.9989247729979289</v>
+        <v>1.029692990308905</v>
       </c>
       <c r="M10">
-        <v>1.020414291746653</v>
+        <v>1.048689306657252</v>
       </c>
       <c r="N10">
-        <v>1.004261294080731</v>
+        <v>1.039881453049742</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.968351092782927</v>
+        <v>1.005963043387222</v>
       </c>
       <c r="D11">
-        <v>0.9981328112562035</v>
+        <v>1.027597067627583</v>
       </c>
       <c r="E11">
-        <v>0.9800308111194193</v>
+        <v>1.011754096081084</v>
       </c>
       <c r="F11">
-        <v>1.001811696532785</v>
+        <v>1.030822032674082</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03558526561782</v>
+        <v>1.05285352408883</v>
       </c>
       <c r="J11">
-        <v>0.9991024607320496</v>
+        <v>1.035089839768343</v>
       </c>
       <c r="K11">
-        <v>1.013090026136275</v>
+        <v>1.042016657241272</v>
       </c>
       <c r="L11">
-        <v>0.9953394053552744</v>
+        <v>1.026457700205028</v>
       </c>
       <c r="M11">
-        <v>1.016699527595267</v>
+        <v>1.045185193531686</v>
       </c>
       <c r="N11">
-        <v>1.000521300824943</v>
+        <v>1.036559786067277</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.966393106620081</v>
+        <v>1.004210916678496</v>
       </c>
       <c r="D12">
-        <v>0.9966414660020666</v>
+        <v>1.02622225758697</v>
       </c>
       <c r="E12">
-        <v>0.9784325867641822</v>
+        <v>1.01030475030691</v>
       </c>
       <c r="F12">
-        <v>1.000172507195034</v>
+        <v>1.029276684852643</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035018178090628</v>
+        <v>1.052078566691837</v>
       </c>
       <c r="J12">
-        <v>0.997691160577072</v>
+        <v>1.033838125979824</v>
       </c>
       <c r="K12">
-        <v>1.011833294331071</v>
+        <v>1.040863752550037</v>
       </c>
       <c r="L12">
-        <v>0.9939849868849175</v>
+        <v>1.025237155089701</v>
       </c>
       <c r="M12">
-        <v>1.015296402985402</v>
+        <v>1.043863692077009</v>
       </c>
       <c r="N12">
-        <v>0.9991079964618672</v>
+        <v>1.035306294701606</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9668146559075348</v>
+        <v>1.004588001242305</v>
       </c>
       <c r="D13">
-        <v>0.9969624793486301</v>
+        <v>1.026518087019611</v>
       </c>
       <c r="E13">
-        <v>0.9787765882683728</v>
+        <v>1.010616608984978</v>
       </c>
       <c r="F13">
-        <v>1.000525318781109</v>
+        <v>1.029609187648143</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035140347862271</v>
+        <v>1.052245425272793</v>
       </c>
       <c r="J13">
-        <v>0.9979950093951601</v>
+        <v>1.034107534121415</v>
       </c>
       <c r="K13">
-        <v>1.012103875370602</v>
+        <v>1.041111896346123</v>
       </c>
       <c r="L13">
-        <v>0.9942765684743948</v>
+        <v>1.025499838691149</v>
       </c>
       <c r="M13">
-        <v>1.01559846131837</v>
+        <v>1.044148082434158</v>
       </c>
       <c r="N13">
-        <v>0.9994122767801291</v>
+        <v>1.03557608543366</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9681899415984655</v>
+        <v>1.005818771379565</v>
       </c>
       <c r="D14">
-        <v>0.9980100358757997</v>
+        <v>1.027483841630636</v>
       </c>
       <c r="E14">
-        <v>0.9798992288699822</v>
+        <v>1.011634727328313</v>
       </c>
       <c r="F14">
-        <v>1.001676738468116</v>
+        <v>1.03069475138239</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035538626645143</v>
+        <v>1.052789747469115</v>
       </c>
       <c r="J14">
-        <v>0.998986304300544</v>
+        <v>1.034986781464869</v>
       </c>
       <c r="K14">
-        <v>1.012986596103395</v>
+        <v>1.041921735405143</v>
       </c>
       <c r="L14">
-        <v>0.9952279212352092</v>
+        <v>1.026357200937365</v>
       </c>
       <c r="M14">
-        <v>1.016584030531186</v>
+        <v>1.045076372173147</v>
       </c>
       <c r="N14">
-        <v>1.000404979437981</v>
+        <v>1.036456581409192</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9690327978920426</v>
+        <v>1.006573471848298</v>
       </c>
       <c r="D15">
-        <v>0.998652238929394</v>
+        <v>1.028076182204596</v>
       </c>
       <c r="E15">
-        <v>0.9805875145329728</v>
+        <v>1.012259212119014</v>
       </c>
       <c r="F15">
-        <v>1.002382688482711</v>
+        <v>1.031360642643274</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035782488147859</v>
+        <v>1.053123299977998</v>
       </c>
       <c r="J15">
-        <v>0.9995938273848926</v>
+        <v>1.035525870342405</v>
       </c>
       <c r="K15">
-        <v>1.01352754765016</v>
+        <v>1.042418260738851</v>
       </c>
       <c r="L15">
-        <v>0.995811025701116</v>
+        <v>1.026882918069763</v>
       </c>
       <c r="M15">
-        <v>1.017188131669755</v>
+        <v>1.045645641374598</v>
       </c>
       <c r="N15">
-        <v>1.001013365274794</v>
+        <v>1.036996435854769</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9738719483112297</v>
+        <v>1.010912419455091</v>
       </c>
       <c r="D16">
-        <v>1.002342212307687</v>
+        <v>1.031483802610901</v>
       </c>
       <c r="E16">
-        <v>0.9845431024872372</v>
+        <v>1.015852174824783</v>
       </c>
       <c r="F16">
-        <v>1.006440054567037</v>
+        <v>1.035192400630409</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037179069395942</v>
+        <v>1.055037551237207</v>
       </c>
       <c r="J16">
-        <v>1.003081736446318</v>
+        <v>1.038624250137238</v>
       </c>
       <c r="K16">
-        <v>1.016632751955485</v>
+        <v>1.045271880349712</v>
       </c>
       <c r="L16">
-        <v>0.9991596418812811</v>
+        <v>1.02990513784919</v>
       </c>
       <c r="M16">
-        <v>1.020657658298826</v>
+        <v>1.048919144825984</v>
       </c>
       <c r="N16">
-        <v>1.004506227567155</v>
+        <v>1.040099215704299</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.976850923158643</v>
+        <v>1.013588368322552</v>
       </c>
       <c r="D17">
-        <v>1.004616090771083</v>
+        <v>1.033587137476794</v>
       </c>
       <c r="E17">
-        <v>0.9869814329132018</v>
+        <v>1.018070293795404</v>
       </c>
       <c r="F17">
-        <v>1.008941308706557</v>
+        <v>1.037558432384069</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038035633690267</v>
+        <v>1.0562150686925</v>
       </c>
       <c r="J17">
-        <v>1.005228700736082</v>
+        <v>1.040534197662478</v>
       </c>
       <c r="K17">
-        <v>1.018543664408395</v>
+        <v>1.04703082118061</v>
       </c>
       <c r="L17">
-        <v>1.001221641238589</v>
+        <v>1.031768733843482</v>
       </c>
       <c r="M17">
-        <v>1.022794359854563</v>
+        <v>1.050938484857549</v>
       </c>
       <c r="N17">
-        <v>1.006656240792471</v>
+        <v>1.042011875574099</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9785689783752918</v>
+        <v>1.015133310165238</v>
       </c>
       <c r="D18">
-        <v>1.005928277464059</v>
+        <v>1.034802081746452</v>
       </c>
       <c r="E18">
-        <v>0.9883888135278666</v>
+        <v>1.019351682743421</v>
       </c>
       <c r="F18">
-        <v>1.010385058281473</v>
+        <v>1.038925445683949</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038528464181621</v>
+        <v>1.056893780186446</v>
       </c>
       <c r="J18">
-        <v>1.006466809222432</v>
+        <v>1.041636543117563</v>
       </c>
       <c r="K18">
-        <v>1.019645459758153</v>
+        <v>1.04804595969468</v>
       </c>
       <c r="L18">
-        <v>1.002411027008381</v>
+        <v>1.032844537137419</v>
       </c>
       <c r="M18">
-        <v>1.024026907934095</v>
+        <v>1.052104478563781</v>
       </c>
       <c r="N18">
-        <v>1.007896107534884</v>
+        <v>1.043115786486171</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9791515532840696</v>
+        <v>1.015657453871602</v>
       </c>
       <c r="D19">
-        <v>1.006373353226829</v>
+        <v>1.035214367052025</v>
       </c>
       <c r="E19">
-        <v>0.9888662290357901</v>
+        <v>1.019786540261378</v>
       </c>
       <c r="F19">
-        <v>1.010874817946824</v>
+        <v>1.039389390886947</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038695375909201</v>
+        <v>1.057123850731597</v>
       </c>
       <c r="J19">
-        <v>1.006886618219375</v>
+        <v>1.04201046805291</v>
       </c>
       <c r="K19">
-        <v>1.020019015615028</v>
+        <v>1.048390293957572</v>
       </c>
       <c r="L19">
-        <v>1.002814361654977</v>
+        <v>1.033209493982973</v>
       </c>
       <c r="M19">
-        <v>1.024444890368255</v>
+        <v>1.052500079618993</v>
       </c>
       <c r="N19">
-        <v>1.008316512708756</v>
+        <v>1.043490242437816</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9765333455521862</v>
+        <v>1.013302921361774</v>
       </c>
       <c r="D20">
-        <v>1.004373598586339</v>
+        <v>1.033362709159182</v>
       </c>
       <c r="E20">
-        <v>0.9867213730048069</v>
+        <v>1.017833603213615</v>
       </c>
       <c r="F20">
-        <v>1.008674532119296</v>
+        <v>1.037305940028805</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037944439662224</v>
+        <v>1.056089577258311</v>
       </c>
       <c r="J20">
-        <v>1.004999830717255</v>
+        <v>1.040330496940223</v>
       </c>
       <c r="K20">
-        <v>1.018339977031456</v>
+        <v>1.046843230965717</v>
       </c>
       <c r="L20">
-        <v>1.001001799984262</v>
+        <v>1.031569954712974</v>
       </c>
       <c r="M20">
-        <v>1.022566546223523</v>
+        <v>1.050723063898106</v>
       </c>
       <c r="N20">
-        <v>1.006427045751966</v>
+        <v>1.041807885573454</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.967785897435569</v>
+        <v>1.005457097570151</v>
       </c>
       <c r="D21">
-        <v>0.9977022331646073</v>
+        <v>1.027200014514049</v>
       </c>
       <c r="E21">
-        <v>0.9795693534139771</v>
+        <v>1.011335505302709</v>
       </c>
       <c r="F21">
-        <v>1.001338402309956</v>
+        <v>1.030375699539745</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035421663884771</v>
+        <v>1.05262983939947</v>
       </c>
       <c r="J21">
-        <v>0.9986950724833725</v>
+        <v>1.034728418450402</v>
       </c>
       <c r="K21">
-        <v>1.012727268596041</v>
+        <v>1.041683769257278</v>
       </c>
       <c r="L21">
-        <v>0.9949484113780621</v>
+        <v>1.026105259011368</v>
       </c>
       <c r="M21">
-        <v>1.016294462537167</v>
+        <v>1.044803574998482</v>
       </c>
       <c r="N21">
-        <v>1.000113334038225</v>
+        <v>1.03619785148961</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9620915638238987</v>
+        <v>1.000367690092556</v>
       </c>
       <c r="D22">
-        <v>0.9933680275882231</v>
+        <v>1.023208790615953</v>
       </c>
       <c r="E22">
-        <v>0.9749252487157949</v>
+        <v>1.007128276829389</v>
       </c>
       <c r="F22">
-        <v>0.9965755918415956</v>
+        <v>1.025890332327821</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033769226472447</v>
+        <v>1.050375665492544</v>
       </c>
       <c r="J22">
-        <v>0.9945907189972472</v>
+        <v>1.031091753209118</v>
       </c>
       <c r="K22">
-        <v>1.00907202002787</v>
+        <v>1.038334083876377</v>
       </c>
       <c r="L22">
-        <v>0.9910103622852094</v>
+        <v>1.022559831551779</v>
       </c>
       <c r="M22">
-        <v>1.012215193536886</v>
+        <v>1.040965772119885</v>
       </c>
       <c r="N22">
-        <v>0.9960031518993734</v>
+        <v>1.032556021766552</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9651296329565207</v>
+        <v>1.00308119026844</v>
       </c>
       <c r="D23">
-        <v>0.9956795506923217</v>
+        <v>1.025336135447077</v>
       </c>
       <c r="E23">
-        <v>0.9774018434751282</v>
+        <v>1.009370644041041</v>
       </c>
       <c r="F23">
-        <v>0.9991153908372075</v>
+        <v>1.028280785268065</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034651760904623</v>
+        <v>1.051578422416949</v>
       </c>
       <c r="J23">
-        <v>0.9967804649522661</v>
+        <v>1.033030929427078</v>
       </c>
       <c r="K23">
-        <v>1.011022276572565</v>
+        <v>1.040120260359431</v>
       </c>
       <c r="L23">
-        <v>0.9931111264226964</v>
+        <v>1.02445015902144</v>
       </c>
       <c r="M23">
-        <v>1.01439117405672</v>
+        <v>1.043011730920344</v>
       </c>
       <c r="N23">
-        <v>0.9981960075448159</v>
+        <v>1.034497951837168</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9766769053622281</v>
+        <v>1.013431951533507</v>
       </c>
       <c r="D24">
-        <v>1.004483213896598</v>
+        <v>1.033464155317516</v>
       </c>
       <c r="E24">
-        <v>0.9868389286513888</v>
+        <v>1.017940591722068</v>
       </c>
       <c r="F24">
-        <v>1.008795123774772</v>
+        <v>1.037420070683281</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037985667244145</v>
+        <v>1.056146306450752</v>
       </c>
       <c r="J24">
-        <v>1.005103290913591</v>
+        <v>1.040422576572724</v>
       </c>
       <c r="K24">
-        <v>1.018432054053434</v>
+        <v>1.046928028265212</v>
       </c>
       <c r="L24">
-        <v>1.001101177895108</v>
+        <v>1.031659808968071</v>
       </c>
       <c r="M24">
-        <v>1.022669527775728</v>
+        <v>1.050820439889853</v>
       </c>
       <c r="N24">
-        <v>1.006530652873647</v>
+        <v>1.041900095969595</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9893177117894238</v>
+        <v>1.024825164777541</v>
       </c>
       <c r="D25">
-        <v>1.014149879556032</v>
+        <v>1.042433345565706</v>
       </c>
       <c r="E25">
-        <v>0.9972125019391161</v>
+        <v>1.027402946713656</v>
       </c>
       <c r="F25">
-        <v>1.019437197825068</v>
+        <v>1.047517816100088</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041590110137226</v>
+        <v>1.061131063838895</v>
       </c>
       <c r="J25">
-        <v>1.014210004179211</v>
+        <v>1.048545003384976</v>
       </c>
       <c r="K25">
-        <v>1.026532437346843</v>
+        <v>1.054406807745763</v>
       </c>
       <c r="L25">
-        <v>1.009854244896852</v>
+        <v>1.039590255525701</v>
       </c>
       <c r="M25">
-        <v>1.031741087625005</v>
+        <v>1.059420689841121</v>
       </c>
       <c r="N25">
-        <v>1.015650298716659</v>
+        <v>1.050034057559576</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.033474275513085</v>
+        <v>1.059748109965638</v>
       </c>
       <c r="D2">
-        <v>1.049256647384706</v>
+        <v>1.063861502042142</v>
       </c>
       <c r="E2">
-        <v>1.034606274676463</v>
+        <v>1.055552643545337</v>
       </c>
       <c r="F2">
-        <v>1.055210173165712</v>
+        <v>1.074316816113762</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064878618188859</v>
+        <v>1.055531757346504</v>
       </c>
       <c r="J2">
-        <v>1.05469788073663</v>
+        <v>1.064732532764985</v>
       </c>
       <c r="K2">
-        <v>1.060069899881862</v>
+        <v>1.066578996682135</v>
       </c>
       <c r="L2">
-        <v>1.045603656625831</v>
+        <v>1.058292786578198</v>
       </c>
       <c r="M2">
-        <v>1.06595041657717</v>
+        <v>1.077006349704311</v>
       </c>
       <c r="N2">
-        <v>1.056195672702814</v>
+        <v>1.06624457508804</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.03952640421216</v>
+        <v>1.060967609431931</v>
       </c>
       <c r="D3">
-        <v>1.054037895435893</v>
+        <v>1.06483651508921</v>
       </c>
       <c r="E3">
-        <v>1.039656829190323</v>
+        <v>1.056606006188037</v>
       </c>
       <c r="F3">
-        <v>1.060606663398239</v>
+        <v>1.075448165908222</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067478811924075</v>
+        <v>1.055974796120894</v>
       </c>
       <c r="J3">
-        <v>1.058994615202236</v>
+        <v>1.065604119867755</v>
       </c>
       <c r="K3">
-        <v>1.064023065449971</v>
+        <v>1.067368701774916</v>
       </c>
       <c r="L3">
-        <v>1.049806243406965</v>
+        <v>1.059159001432654</v>
       </c>
       <c r="M3">
-        <v>1.070518634852523</v>
+        <v>1.077954029828008</v>
       </c>
       <c r="N3">
-        <v>1.060498509024203</v>
+        <v>1.067117399944468</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.043344802329887</v>
+        <v>1.061756335355835</v>
       </c>
       <c r="D4">
-        <v>1.057057099041987</v>
+        <v>1.065467050076784</v>
       </c>
       <c r="E4">
-        <v>1.042847550317392</v>
+        <v>1.057287394046781</v>
       </c>
       <c r="F4">
-        <v>1.064017341036994</v>
+        <v>1.076180224621914</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069108789247763</v>
+        <v>1.056260019171712</v>
       </c>
       <c r="J4">
-        <v>1.061701173744312</v>
+        <v>1.066167180539155</v>
       </c>
       <c r="K4">
-        <v>1.066512415669001</v>
+        <v>1.067878710651292</v>
       </c>
       <c r="L4">
-        <v>1.052454948505078</v>
+        <v>1.059718690861036</v>
       </c>
       <c r="M4">
-        <v>1.073399973446614</v>
+        <v>1.078566651344324</v>
       </c>
       <c r="N4">
-        <v>1.063208911189855</v>
+        <v>1.067681260226605</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.044927718655978</v>
+        <v>1.062087828837681</v>
       </c>
       <c r="D5">
-        <v>1.058309273440684</v>
+        <v>1.065732040931018</v>
       </c>
       <c r="E5">
-        <v>1.044171218888547</v>
+        <v>1.057573800862858</v>
       </c>
       <c r="F5">
-        <v>1.065432596183781</v>
+        <v>1.076487983252342</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.069781925518585</v>
+        <v>1.056379579894472</v>
       </c>
       <c r="J5">
-        <v>1.062822093800238</v>
+        <v>1.066403673578297</v>
       </c>
       <c r="K5">
-        <v>1.067543177950116</v>
+        <v>1.068092884068946</v>
       </c>
       <c r="L5">
-        <v>1.053552249701235</v>
+        <v>1.059953791662008</v>
       </c>
       <c r="M5">
-        <v>1.074594173104848</v>
+        <v>1.07882405709579</v>
       </c>
       <c r="N5">
-        <v>1.064331423080832</v>
+        <v>1.067918089112989</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.045192216862566</v>
+        <v>1.062143483017544</v>
       </c>
       <c r="D6">
-        <v>1.058518537456271</v>
+        <v>1.065776529044349</v>
       </c>
       <c r="E6">
-        <v>1.044392452457757</v>
+        <v>1.057621887010309</v>
       </c>
       <c r="F6">
-        <v>1.065669157079782</v>
+        <v>1.076539657382974</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069894251182087</v>
+        <v>1.056399634335864</v>
       </c>
       <c r="J6">
-        <v>1.06300932954614</v>
+        <v>1.066443369072638</v>
       </c>
       <c r="K6">
-        <v>1.067715341817407</v>
+        <v>1.06812883101835</v>
       </c>
       <c r="L6">
-        <v>1.053735560075131</v>
+        <v>1.05999325485858</v>
       </c>
       <c r="M6">
-        <v>1.0747937016303</v>
+        <v>1.078867268457598</v>
       </c>
       <c r="N6">
-        <v>1.06451892472297</v>
+        <v>1.067957840979486</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.043366039758797</v>
+        <v>1.061760765126768</v>
       </c>
       <c r="D7">
-        <v>1.057073896878203</v>
+        <v>1.065470591234429</v>
       </c>
       <c r="E7">
-        <v>1.042865305809345</v>
+        <v>1.057291221218287</v>
       </c>
       <c r="F7">
-        <v>1.064036323722766</v>
+        <v>1.076184336901777</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069117830699827</v>
+        <v>1.056261618110701</v>
       </c>
       <c r="J7">
-        <v>1.061716217073653</v>
+        <v>1.06617034142443</v>
       </c>
       <c r="K7">
-        <v>1.066526249844103</v>
+        <v>1.067881573366366</v>
       </c>
       <c r="L7">
-        <v>1.052469673516624</v>
+        <v>1.059721833044916</v>
       </c>
       <c r="M7">
-        <v>1.073415996700181</v>
+        <v>1.078570091362582</v>
       </c>
       <c r="N7">
-        <v>1.06322397588245</v>
+        <v>1.067684425600701</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.035540517638394</v>
+        <v>1.06016032376732</v>
       </c>
       <c r="D8">
-        <v>1.050888406831487</v>
+        <v>1.064191088168112</v>
       </c>
       <c r="E8">
-        <v>1.036329642986447</v>
+        <v>1.055908676219138</v>
       </c>
       <c r="F8">
-        <v>1.057051286390194</v>
+        <v>1.074699161854333</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065768532257943</v>
+        <v>1.055681785592648</v>
       </c>
       <c r="J8">
-        <v>1.056165700882253</v>
+        <v>1.065027279810751</v>
       </c>
       <c r="K8">
-        <v>1.061420511840439</v>
+        <v>1.066846085409447</v>
       </c>
       <c r="L8">
-        <v>1.04703900456793</v>
+        <v>1.058585696257073</v>
       </c>
       <c r="M8">
-        <v>1.067510178829549</v>
+        <v>1.077326745666483</v>
       </c>
       <c r="N8">
-        <v>1.057665577321405</v>
+        <v>1.06653974070842</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.020950909076632</v>
+        <v>1.057337199689381</v>
       </c>
       <c r="D9">
-        <v>1.039380860169865</v>
+        <v>1.061933609730102</v>
       </c>
       <c r="E9">
-        <v>1.024181882920469</v>
+        <v>1.053470806309265</v>
       </c>
       <c r="F9">
-        <v>1.044079610755541</v>
+        <v>1.072082037187428</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059441672673678</v>
+        <v>1.054648888420612</v>
       </c>
       <c r="J9">
-        <v>1.045784926791061</v>
+        <v>1.06300599886113</v>
       </c>
       <c r="K9">
-        <v>1.051865762312558</v>
+        <v>1.06501384650766</v>
       </c>
       <c r="L9">
-        <v>1.036894441581275</v>
+        <v>1.056577425894221</v>
       </c>
       <c r="M9">
-        <v>1.056495834206161</v>
+        <v>1.075131235306018</v>
       </c>
       <c r="N9">
-        <v>1.047270061340312</v>
+        <v>1.064515589308005</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.010607818549023</v>
+        <v>1.055453004611754</v>
       </c>
       <c r="D10">
-        <v>1.031244466094308</v>
+        <v>1.060426654943902</v>
       </c>
       <c r="E10">
-        <v>1.015599796226457</v>
+        <v>1.051844372554451</v>
       </c>
       <c r="F10">
-        <v>1.034923216586408</v>
+        <v>1.070337170529974</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054903363905747</v>
+        <v>1.053952741289574</v>
       </c>
       <c r="J10">
-        <v>1.038406796292083</v>
+        <v>1.061653649961865</v>
       </c>
       <c r="K10">
-        <v>1.04507161244046</v>
+        <v>1.063787191521483</v>
       </c>
       <c r="L10">
-        <v>1.029692990308905</v>
+        <v>1.055234300077809</v>
       </c>
       <c r="M10">
-        <v>1.048689306657252</v>
+        <v>1.073664411357265</v>
       </c>
       <c r="N10">
-        <v>1.039881453049742</v>
+        <v>1.063161319918187</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.005963043387222</v>
+        <v>1.054636595727571</v>
       </c>
       <c r="D11">
-        <v>1.027597067627583</v>
+        <v>1.059773644327681</v>
       </c>
       <c r="E11">
-        <v>1.011754096081084</v>
+        <v>1.05113980896919</v>
       </c>
       <c r="F11">
-        <v>1.030822032674082</v>
+        <v>1.069581577886335</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05285352408883</v>
+        <v>1.053649500489079</v>
       </c>
       <c r="J11">
-        <v>1.035089839768343</v>
+        <v>1.061066903995405</v>
       </c>
       <c r="K11">
-        <v>1.042016657241272</v>
+        <v>1.063254796091382</v>
       </c>
       <c r="L11">
-        <v>1.026457700205028</v>
+        <v>1.054651679445574</v>
       </c>
       <c r="M11">
-        <v>1.045185193531686</v>
+        <v>1.073028496066345</v>
       </c>
       <c r="N11">
-        <v>1.036559786067277</v>
+        <v>1.062573740705154</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.004210916678496</v>
+        <v>1.054333261259951</v>
       </c>
       <c r="D12">
-        <v>1.02622225758697</v>
+        <v>1.059531012170665</v>
       </c>
       <c r="E12">
-        <v>1.01030475030691</v>
+        <v>1.050878054885325</v>
       </c>
       <c r="F12">
-        <v>1.029276684852643</v>
+        <v>1.069300907356367</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052078566691837</v>
+        <v>1.053536591239572</v>
       </c>
       <c r="J12">
-        <v>1.033838125979824</v>
+        <v>1.06084878293384</v>
       </c>
       <c r="K12">
-        <v>1.040863752550037</v>
+        <v>1.063056852111848</v>
       </c>
       <c r="L12">
-        <v>1.025237155089701</v>
+        <v>1.054435110616677</v>
       </c>
       <c r="M12">
-        <v>1.043863692077009</v>
+        <v>1.072792171431763</v>
       </c>
       <c r="N12">
-        <v>1.035306294701606</v>
+        <v>1.062355309886662</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.004588001242305</v>
+        <v>1.054398331371588</v>
       </c>
       <c r="D13">
-        <v>1.026518087019611</v>
+        <v>1.059583061006214</v>
       </c>
       <c r="E13">
-        <v>1.010616608984978</v>
+        <v>1.050934204214649</v>
       </c>
       <c r="F13">
-        <v>1.029609187648143</v>
+        <v>1.069361112607479</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052245425272793</v>
+        <v>1.053560822986838</v>
       </c>
       <c r="J13">
-        <v>1.034107534121415</v>
+        <v>1.060895578701038</v>
       </c>
       <c r="K13">
-        <v>1.041111896346123</v>
+        <v>1.063099320325893</v>
       </c>
       <c r="L13">
-        <v>1.025499838691149</v>
+        <v>1.05448157252231</v>
       </c>
       <c r="M13">
-        <v>1.044148082434158</v>
+        <v>1.072842869205137</v>
       </c>
       <c r="N13">
-        <v>1.03557608543366</v>
+        <v>1.062402172109217</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.005818771379565</v>
+        <v>1.054611523732333</v>
       </c>
       <c r="D14">
-        <v>1.027483841630636</v>
+        <v>1.059753589814939</v>
       </c>
       <c r="E14">
-        <v>1.011634727328313</v>
+        <v>1.051118173279688</v>
       </c>
       <c r="F14">
-        <v>1.03069475138239</v>
+        <v>1.069558377782042</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052789747469115</v>
+        <v>1.053640172932185</v>
       </c>
       <c r="J14">
-        <v>1.034986781464869</v>
+        <v>1.061048877670954</v>
       </c>
       <c r="K14">
-        <v>1.041921735405143</v>
+        <v>1.063238437836342</v>
       </c>
       <c r="L14">
-        <v>1.026357200937365</v>
+        <v>1.054633781022531</v>
       </c>
       <c r="M14">
-        <v>1.045076372173147</v>
+        <v>1.073008963801978</v>
       </c>
       <c r="N14">
-        <v>1.036456581409192</v>
+        <v>1.062555688781254</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.006573471848298</v>
+        <v>1.054742867388315</v>
       </c>
       <c r="D15">
-        <v>1.028076182204596</v>
+        <v>1.059858648269027</v>
       </c>
       <c r="E15">
-        <v>1.012259212119014</v>
+        <v>1.051231516308762</v>
       </c>
       <c r="F15">
-        <v>1.031360642643274</v>
+        <v>1.069679918020266</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053123299977998</v>
+        <v>1.053689026964389</v>
       </c>
       <c r="J15">
-        <v>1.035525870342405</v>
+        <v>1.061143306656148</v>
       </c>
       <c r="K15">
-        <v>1.042418260738851</v>
+        <v>1.063324127689479</v>
       </c>
       <c r="L15">
-        <v>1.026882918069763</v>
+        <v>1.05472754077378</v>
       </c>
       <c r="M15">
-        <v>1.045645641374598</v>
+        <v>1.073111284563657</v>
       </c>
       <c r="N15">
-        <v>1.036996435854769</v>
+        <v>1.062650251866438</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.010912419455091</v>
+        <v>1.05550717537081</v>
       </c>
       <c r="D16">
-        <v>1.031483802610901</v>
+        <v>1.060469982677601</v>
       </c>
       <c r="E16">
-        <v>1.015852174824783</v>
+        <v>1.051891125507931</v>
       </c>
       <c r="F16">
-        <v>1.035192400630409</v>
+        <v>1.070387315446506</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055037551237207</v>
+        <v>1.053972828278008</v>
       </c>
       <c r="J16">
-        <v>1.038624250137238</v>
+        <v>1.061692565563476</v>
       </c>
       <c r="K16">
-        <v>1.045271880349712</v>
+        <v>1.063822498482594</v>
       </c>
       <c r="L16">
-        <v>1.02990513784919</v>
+        <v>1.055272944678832</v>
       </c>
       <c r="M16">
-        <v>1.048919144825984</v>
+        <v>1.073706598586032</v>
       </c>
       <c r="N16">
-        <v>1.040099215704299</v>
+        <v>1.063200290784416</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.013588368322552</v>
+        <v>1.055986459079758</v>
       </c>
       <c r="D17">
-        <v>1.033587137476794</v>
+        <v>1.06085332460312</v>
       </c>
       <c r="E17">
-        <v>1.018070293795404</v>
+        <v>1.052304797552179</v>
       </c>
       <c r="F17">
-        <v>1.037558432384069</v>
+        <v>1.070831031551544</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0562150686925</v>
+        <v>1.054150365516448</v>
       </c>
       <c r="J17">
-        <v>1.040534197662478</v>
+        <v>1.06203678672431</v>
       </c>
       <c r="K17">
-        <v>1.04703082118061</v>
+        <v>1.064134778771059</v>
       </c>
       <c r="L17">
-        <v>1.031768733843482</v>
+        <v>1.055614783034823</v>
       </c>
       <c r="M17">
-        <v>1.050938484857549</v>
+        <v>1.074079815859714</v>
       </c>
       <c r="N17">
-        <v>1.042011875574099</v>
+        <v>1.06354500077878</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.015133310165238</v>
+        <v>1.056265965243832</v>
       </c>
       <c r="D18">
-        <v>1.034802081746452</v>
+        <v>1.061076874355474</v>
       </c>
       <c r="E18">
-        <v>1.019351682743421</v>
+        <v>1.05254605594634</v>
       </c>
       <c r="F18">
-        <v>1.038925445683949</v>
+        <v>1.071089838566604</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056893780186446</v>
+        <v>1.054253745944798</v>
       </c>
       <c r="J18">
-        <v>1.041636543117563</v>
+        <v>1.062237452335332</v>
       </c>
       <c r="K18">
-        <v>1.04804595969468</v>
+        <v>1.064316806484873</v>
       </c>
       <c r="L18">
-        <v>1.032844537137419</v>
+        <v>1.05581407149325</v>
       </c>
       <c r="M18">
-        <v>1.052104478563781</v>
+        <v>1.074297432913522</v>
       </c>
       <c r="N18">
-        <v>1.043115786486171</v>
+        <v>1.063745951357987</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.015657453871602</v>
+        <v>1.056361260899172</v>
       </c>
       <c r="D19">
-        <v>1.035214367052025</v>
+        <v>1.061153091096668</v>
       </c>
       <c r="E19">
-        <v>1.019786540261378</v>
+        <v>1.052628313868544</v>
       </c>
       <c r="F19">
-        <v>1.039389390886947</v>
+        <v>1.071178084259039</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057123850731597</v>
+        <v>1.054288966509467</v>
       </c>
       <c r="J19">
-        <v>1.04201046805291</v>
+        <v>1.06230585504684</v>
       </c>
       <c r="K19">
-        <v>1.048390293957572</v>
+        <v>1.064378852904659</v>
       </c>
       <c r="L19">
-        <v>1.033209493982973</v>
+        <v>1.05588200678145</v>
       </c>
       <c r="M19">
-        <v>1.052500079618993</v>
+        <v>1.074371622155104</v>
       </c>
       <c r="N19">
-        <v>1.043490242437816</v>
+        <v>1.063814451209191</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.013302921361774</v>
+        <v>1.055935041864429</v>
       </c>
       <c r="D20">
-        <v>1.033362709159182</v>
+        <v>1.060812200526246</v>
       </c>
       <c r="E20">
-        <v>1.017833603213615</v>
+        <v>1.05226041752226</v>
       </c>
       <c r="F20">
-        <v>1.037305940028805</v>
+        <v>1.07078342555165</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056089577258311</v>
+        <v>1.054131335460507</v>
       </c>
       <c r="J20">
-        <v>1.040330496940223</v>
+        <v>1.061999866728875</v>
       </c>
       <c r="K20">
-        <v>1.046843230965717</v>
+        <v>1.064101286484863</v>
       </c>
       <c r="L20">
-        <v>1.031569954712974</v>
+        <v>1.055578117377606</v>
       </c>
       <c r="M20">
-        <v>1.050723063898106</v>
+        <v>1.074039780872492</v>
       </c>
       <c r="N20">
-        <v>1.041807885573454</v>
+        <v>1.063508028352718</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.005457097570151</v>
+        <v>1.054548746232609</v>
       </c>
       <c r="D21">
-        <v>1.027200014514049</v>
+        <v>1.059703375411313</v>
       </c>
       <c r="E21">
-        <v>1.011335505302709</v>
+        <v>1.051064000308214</v>
       </c>
       <c r="F21">
-        <v>1.030375699539745</v>
+        <v>1.069500288388366</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05262983939947</v>
+        <v>1.053616813870824</v>
       </c>
       <c r="J21">
-        <v>1.034728418450402</v>
+        <v>1.061003739858391</v>
       </c>
       <c r="K21">
-        <v>1.041683769257278</v>
+        <v>1.063197476415245</v>
       </c>
       <c r="L21">
-        <v>1.026105259011368</v>
+        <v>1.05458896377584</v>
       </c>
       <c r="M21">
-        <v>1.044803574998482</v>
+        <v>1.072960056335947</v>
       </c>
       <c r="N21">
-        <v>1.03619785148961</v>
+        <v>1.06251048686782</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000367690092556</v>
+        <v>1.053676640617779</v>
       </c>
       <c r="D22">
-        <v>1.023208790615953</v>
+        <v>1.059005778765292</v>
       </c>
       <c r="E22">
-        <v>1.007128276829389</v>
+        <v>1.050311487948383</v>
       </c>
       <c r="F22">
-        <v>1.025890332327821</v>
+        <v>1.068693471707136</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050375665492544</v>
+        <v>1.053291738855502</v>
       </c>
       <c r="J22">
-        <v>1.031091753209118</v>
+        <v>1.06037640763712</v>
       </c>
       <c r="K22">
-        <v>1.038334083876377</v>
+        <v>1.062628123178868</v>
       </c>
       <c r="L22">
-        <v>1.022559831551779</v>
+        <v>1.053966131118011</v>
       </c>
       <c r="M22">
-        <v>1.040965772119885</v>
+        <v>1.072280510752014</v>
       </c>
       <c r="N22">
-        <v>1.032556021766552</v>
+        <v>1.061882263762839</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.00308119026844</v>
+        <v>1.054139007335986</v>
       </c>
       <c r="D23">
-        <v>1.025336135447077</v>
+        <v>1.059375629592312</v>
       </c>
       <c r="E23">
-        <v>1.009370644041041</v>
+        <v>1.050710435838605</v>
       </c>
       <c r="F23">
-        <v>1.028280785268065</v>
+        <v>1.069121186502729</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051578422416949</v>
+        <v>1.053464216888673</v>
       </c>
       <c r="J23">
-        <v>1.033030929427078</v>
+        <v>1.060709066305567</v>
       </c>
       <c r="K23">
-        <v>1.040120260359431</v>
+        <v>1.062930052095641</v>
       </c>
       <c r="L23">
-        <v>1.02445015902144</v>
+        <v>1.054296393524692</v>
       </c>
       <c r="M23">
-        <v>1.043011730920344</v>
+        <v>1.072640815697431</v>
       </c>
       <c r="N23">
-        <v>1.034497951837168</v>
+        <v>1.062215394844752</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.013431951533507</v>
+        <v>1.055958275251212</v>
       </c>
       <c r="D24">
-        <v>1.033464155317516</v>
+        <v>1.060830782872062</v>
       </c>
       <c r="E24">
-        <v>1.017940591722068</v>
+        <v>1.052280471038725</v>
       </c>
       <c r="F24">
-        <v>1.037420070683281</v>
+        <v>1.070804936669621</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056146306450752</v>
+        <v>1.054139934861423</v>
       </c>
       <c r="J24">
-        <v>1.040422576572724</v>
+        <v>1.062016549634083</v>
       </c>
       <c r="K24">
-        <v>1.046928028265212</v>
+        <v>1.064116420578459</v>
       </c>
       <c r="L24">
-        <v>1.031659808968071</v>
+        <v>1.055594685319101</v>
       </c>
       <c r="M24">
-        <v>1.050820439889853</v>
+        <v>1.074057871189475</v>
       </c>
       <c r="N24">
-        <v>1.041900095969595</v>
+        <v>1.063524734949564</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.024825164777541</v>
+        <v>1.058067407389227</v>
       </c>
       <c r="D25">
-        <v>1.042433345565706</v>
+        <v>1.06251756423756</v>
       </c>
       <c r="E25">
-        <v>1.027402946713656</v>
+        <v>1.054101257594447</v>
       </c>
       <c r="F25">
-        <v>1.047517816100088</v>
+        <v>1.072758641447195</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061131063838895</v>
+        <v>1.054917244223051</v>
       </c>
       <c r="J25">
-        <v>1.048545003384976</v>
+        <v>1.063529393481127</v>
       </c>
       <c r="K25">
-        <v>1.054406807745763</v>
+        <v>1.065488429080743</v>
       </c>
       <c r="L25">
-        <v>1.039590255525701</v>
+        <v>1.057097360579136</v>
       </c>
       <c r="M25">
-        <v>1.059420689841121</v>
+        <v>1.075699377236589</v>
       </c>
       <c r="N25">
-        <v>1.050034057559576</v>
+        <v>1.065039727208397</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.059748109965638</v>
+        <v>1.033474275513087</v>
       </c>
       <c r="D2">
-        <v>1.063861502042142</v>
+        <v>1.049256647384708</v>
       </c>
       <c r="E2">
-        <v>1.055552643545337</v>
+        <v>1.034606274676465</v>
       </c>
       <c r="F2">
-        <v>1.074316816113762</v>
+        <v>1.055210173165713</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055531757346504</v>
+        <v>1.064878618188861</v>
       </c>
       <c r="J2">
-        <v>1.064732532764985</v>
+        <v>1.054697880736633</v>
       </c>
       <c r="K2">
-        <v>1.066578996682135</v>
+        <v>1.060069899881864</v>
       </c>
       <c r="L2">
-        <v>1.058292786578198</v>
+        <v>1.045603656625833</v>
       </c>
       <c r="M2">
-        <v>1.077006349704311</v>
+        <v>1.065950416577172</v>
       </c>
       <c r="N2">
-        <v>1.06624457508804</v>
+        <v>1.056195672702816</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.060967609431931</v>
+        <v>1.039526404212161</v>
       </c>
       <c r="D3">
-        <v>1.06483651508921</v>
+        <v>1.054037895435894</v>
       </c>
       <c r="E3">
-        <v>1.056606006188037</v>
+        <v>1.039656829190324</v>
       </c>
       <c r="F3">
-        <v>1.075448165908222</v>
+        <v>1.060606663398241</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055974796120894</v>
+        <v>1.067478811924076</v>
       </c>
       <c r="J3">
-        <v>1.065604119867755</v>
+        <v>1.058994615202237</v>
       </c>
       <c r="K3">
-        <v>1.067368701774916</v>
+        <v>1.064023065449972</v>
       </c>
       <c r="L3">
-        <v>1.059159001432654</v>
+        <v>1.049806243406966</v>
       </c>
       <c r="M3">
-        <v>1.077954029828008</v>
+        <v>1.070518634852525</v>
       </c>
       <c r="N3">
-        <v>1.067117399944468</v>
+        <v>1.060498509024204</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.061756335355835</v>
+        <v>1.043344802329886</v>
       </c>
       <c r="D4">
-        <v>1.065467050076784</v>
+        <v>1.057057099041987</v>
       </c>
       <c r="E4">
-        <v>1.057287394046781</v>
+        <v>1.042847550317391</v>
       </c>
       <c r="F4">
-        <v>1.076180224621914</v>
+        <v>1.064017341036993</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056260019171712</v>
+        <v>1.069108789247762</v>
       </c>
       <c r="J4">
-        <v>1.066167180539155</v>
+        <v>1.061701173744311</v>
       </c>
       <c r="K4">
-        <v>1.067878710651292</v>
+        <v>1.066512415669002</v>
       </c>
       <c r="L4">
-        <v>1.059718690861036</v>
+        <v>1.052454948505078</v>
       </c>
       <c r="M4">
-        <v>1.078566651344324</v>
+        <v>1.073399973446614</v>
       </c>
       <c r="N4">
-        <v>1.067681260226605</v>
+        <v>1.063208911189855</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.062087828837681</v>
+        <v>1.044927718655978</v>
       </c>
       <c r="D5">
-        <v>1.065732040931018</v>
+        <v>1.058309273440684</v>
       </c>
       <c r="E5">
-        <v>1.057573800862858</v>
+        <v>1.044171218888547</v>
       </c>
       <c r="F5">
-        <v>1.076487983252342</v>
+        <v>1.065432596183782</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056379579894472</v>
+        <v>1.069781925518585</v>
       </c>
       <c r="J5">
-        <v>1.066403673578297</v>
+        <v>1.062822093800237</v>
       </c>
       <c r="K5">
-        <v>1.068092884068946</v>
+        <v>1.067543177950116</v>
       </c>
       <c r="L5">
-        <v>1.059953791662008</v>
+        <v>1.053552249701235</v>
       </c>
       <c r="M5">
-        <v>1.07882405709579</v>
+        <v>1.074594173104848</v>
       </c>
       <c r="N5">
-        <v>1.067918089112989</v>
+        <v>1.064331423080832</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.062143483017544</v>
+        <v>1.045192216862565</v>
       </c>
       <c r="D6">
-        <v>1.065776529044349</v>
+        <v>1.05851853745627</v>
       </c>
       <c r="E6">
-        <v>1.057621887010309</v>
+        <v>1.044392452457755</v>
       </c>
       <c r="F6">
-        <v>1.076539657382974</v>
+        <v>1.06566915707978</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056399634335864</v>
+        <v>1.069894251182086</v>
       </c>
       <c r="J6">
-        <v>1.066443369072638</v>
+        <v>1.063009329546139</v>
       </c>
       <c r="K6">
-        <v>1.06812883101835</v>
+        <v>1.067715341817406</v>
       </c>
       <c r="L6">
-        <v>1.05999325485858</v>
+        <v>1.05373556007513</v>
       </c>
       <c r="M6">
-        <v>1.078867268457598</v>
+        <v>1.074793701630299</v>
       </c>
       <c r="N6">
-        <v>1.067957840979486</v>
+        <v>1.064518924722969</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.061760765126768</v>
+        <v>1.043366039758798</v>
       </c>
       <c r="D7">
-        <v>1.065470591234429</v>
+        <v>1.057073896878203</v>
       </c>
       <c r="E7">
-        <v>1.057291221218287</v>
+        <v>1.042865305809346</v>
       </c>
       <c r="F7">
-        <v>1.076184336901777</v>
+        <v>1.064036323722767</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056261618110701</v>
+        <v>1.069117830699827</v>
       </c>
       <c r="J7">
-        <v>1.06617034142443</v>
+        <v>1.061716217073654</v>
       </c>
       <c r="K7">
-        <v>1.067881573366366</v>
+        <v>1.066526249844104</v>
       </c>
       <c r="L7">
-        <v>1.059721833044916</v>
+        <v>1.052469673516625</v>
       </c>
       <c r="M7">
-        <v>1.078570091362582</v>
+        <v>1.073415996700182</v>
       </c>
       <c r="N7">
-        <v>1.067684425600701</v>
+        <v>1.063223975882451</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.06016032376732</v>
+        <v>1.035540517638394</v>
       </c>
       <c r="D8">
-        <v>1.064191088168112</v>
+        <v>1.050888406831487</v>
       </c>
       <c r="E8">
-        <v>1.055908676219138</v>
+        <v>1.036329642986447</v>
       </c>
       <c r="F8">
-        <v>1.074699161854333</v>
+        <v>1.057051286390194</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055681785592648</v>
+        <v>1.065768532257943</v>
       </c>
       <c r="J8">
-        <v>1.065027279810751</v>
+        <v>1.056165700882254</v>
       </c>
       <c r="K8">
-        <v>1.066846085409447</v>
+        <v>1.061420511840439</v>
       </c>
       <c r="L8">
-        <v>1.058585696257073</v>
+        <v>1.04703900456793</v>
       </c>
       <c r="M8">
-        <v>1.077326745666483</v>
+        <v>1.067510178829549</v>
       </c>
       <c r="N8">
-        <v>1.06653974070842</v>
+        <v>1.057665577321405</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.057337199689381</v>
+        <v>1.020950909076631</v>
       </c>
       <c r="D9">
-        <v>1.061933609730102</v>
+        <v>1.039380860169864</v>
       </c>
       <c r="E9">
-        <v>1.053470806309265</v>
+        <v>1.024181882920469</v>
       </c>
       <c r="F9">
-        <v>1.072082037187428</v>
+        <v>1.04407961075554</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054648888420612</v>
+        <v>1.059441672673677</v>
       </c>
       <c r="J9">
-        <v>1.06300599886113</v>
+        <v>1.04578492679106</v>
       </c>
       <c r="K9">
-        <v>1.06501384650766</v>
+        <v>1.051865762312557</v>
       </c>
       <c r="L9">
-        <v>1.056577425894221</v>
+        <v>1.036894441581274</v>
       </c>
       <c r="M9">
-        <v>1.075131235306018</v>
+        <v>1.056495834206161</v>
       </c>
       <c r="N9">
-        <v>1.064515589308005</v>
+        <v>1.047270061340311</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.055453004611754</v>
+        <v>1.010607818549023</v>
       </c>
       <c r="D10">
-        <v>1.060426654943902</v>
+        <v>1.031244466094308</v>
       </c>
       <c r="E10">
-        <v>1.051844372554451</v>
+        <v>1.015599796226457</v>
       </c>
       <c r="F10">
-        <v>1.070337170529974</v>
+        <v>1.034923216586408</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053952741289574</v>
+        <v>1.054903363905747</v>
       </c>
       <c r="J10">
-        <v>1.061653649961865</v>
+        <v>1.038406796292083</v>
       </c>
       <c r="K10">
-        <v>1.063787191521483</v>
+        <v>1.04507161244046</v>
       </c>
       <c r="L10">
-        <v>1.055234300077809</v>
+        <v>1.029692990308904</v>
       </c>
       <c r="M10">
-        <v>1.073664411357265</v>
+        <v>1.048689306657251</v>
       </c>
       <c r="N10">
-        <v>1.063161319918187</v>
+        <v>1.039881453049742</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.054636595727571</v>
+        <v>1.005963043387222</v>
       </c>
       <c r="D11">
-        <v>1.059773644327681</v>
+        <v>1.027597067627583</v>
       </c>
       <c r="E11">
-        <v>1.05113980896919</v>
+        <v>1.011754096081083</v>
       </c>
       <c r="F11">
-        <v>1.069581577886335</v>
+        <v>1.030822032674081</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053649500489079</v>
+        <v>1.052853524088829</v>
       </c>
       <c r="J11">
-        <v>1.061066903995405</v>
+        <v>1.035089839768342</v>
       </c>
       <c r="K11">
-        <v>1.063254796091382</v>
+        <v>1.042016657241271</v>
       </c>
       <c r="L11">
-        <v>1.054651679445574</v>
+        <v>1.026457700205027</v>
       </c>
       <c r="M11">
-        <v>1.073028496066345</v>
+        <v>1.045185193531685</v>
       </c>
       <c r="N11">
-        <v>1.062573740705154</v>
+        <v>1.036559786067277</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054333261259951</v>
+        <v>1.004210916678499</v>
       </c>
       <c r="D12">
-        <v>1.059531012170665</v>
+        <v>1.026222257586973</v>
       </c>
       <c r="E12">
-        <v>1.050878054885325</v>
+        <v>1.010304750306912</v>
       </c>
       <c r="F12">
-        <v>1.069300907356367</v>
+        <v>1.029276684852646</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053536591239572</v>
+        <v>1.052078566691839</v>
       </c>
       <c r="J12">
-        <v>1.06084878293384</v>
+        <v>1.033838125979827</v>
       </c>
       <c r="K12">
-        <v>1.063056852111848</v>
+        <v>1.04086375255004</v>
       </c>
       <c r="L12">
-        <v>1.054435110616677</v>
+        <v>1.025237155089703</v>
       </c>
       <c r="M12">
-        <v>1.072792171431763</v>
+        <v>1.043863692077012</v>
       </c>
       <c r="N12">
-        <v>1.062355309886662</v>
+        <v>1.035306294701609</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054398331371588</v>
+        <v>1.004588001242303</v>
       </c>
       <c r="D13">
-        <v>1.059583061006214</v>
+        <v>1.02651808701961</v>
       </c>
       <c r="E13">
-        <v>1.050934204214649</v>
+        <v>1.010616608984976</v>
       </c>
       <c r="F13">
-        <v>1.069361112607479</v>
+        <v>1.029609187648143</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053560822986838</v>
+        <v>1.052245425272792</v>
       </c>
       <c r="J13">
-        <v>1.060895578701038</v>
+        <v>1.034107534121414</v>
       </c>
       <c r="K13">
-        <v>1.063099320325893</v>
+        <v>1.041111896346122</v>
       </c>
       <c r="L13">
-        <v>1.05448157252231</v>
+        <v>1.025499838691148</v>
       </c>
       <c r="M13">
-        <v>1.072842869205137</v>
+        <v>1.044148082434158</v>
       </c>
       <c r="N13">
-        <v>1.062402172109217</v>
+        <v>1.035576085433658</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.054611523732333</v>
+        <v>1.005818771379563</v>
       </c>
       <c r="D14">
-        <v>1.059753589814939</v>
+        <v>1.027483841630634</v>
       </c>
       <c r="E14">
-        <v>1.051118173279688</v>
+        <v>1.011634727328311</v>
       </c>
       <c r="F14">
-        <v>1.069558377782042</v>
+        <v>1.030694751382388</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053640172932185</v>
+        <v>1.052789747469114</v>
       </c>
       <c r="J14">
-        <v>1.061048877670954</v>
+        <v>1.034986781464867</v>
       </c>
       <c r="K14">
-        <v>1.063238437836342</v>
+        <v>1.041921735405141</v>
       </c>
       <c r="L14">
-        <v>1.054633781022531</v>
+        <v>1.026357200937363</v>
       </c>
       <c r="M14">
-        <v>1.073008963801978</v>
+        <v>1.045076372173144</v>
       </c>
       <c r="N14">
-        <v>1.062555688781254</v>
+        <v>1.03645658140919</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.054742867388315</v>
+        <v>1.006573471848299</v>
       </c>
       <c r="D15">
-        <v>1.059858648269027</v>
+        <v>1.028076182204597</v>
       </c>
       <c r="E15">
-        <v>1.051231516308762</v>
+        <v>1.012259212119015</v>
       </c>
       <c r="F15">
-        <v>1.069679918020266</v>
+        <v>1.031360642643275</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053689026964389</v>
+        <v>1.053123299977999</v>
       </c>
       <c r="J15">
-        <v>1.061143306656148</v>
+        <v>1.035525870342406</v>
       </c>
       <c r="K15">
-        <v>1.063324127689479</v>
+        <v>1.042418260738852</v>
       </c>
       <c r="L15">
-        <v>1.05472754077378</v>
+        <v>1.026882918069765</v>
       </c>
       <c r="M15">
-        <v>1.073111284563657</v>
+        <v>1.045645641374599</v>
       </c>
       <c r="N15">
-        <v>1.062650251866438</v>
+        <v>1.036996435854769</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.05550717537081</v>
+        <v>1.010912419455089</v>
       </c>
       <c r="D16">
-        <v>1.060469982677601</v>
+        <v>1.031483802610899</v>
       </c>
       <c r="E16">
-        <v>1.051891125507931</v>
+        <v>1.015852174824782</v>
       </c>
       <c r="F16">
-        <v>1.070387315446506</v>
+        <v>1.035192400630408</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053972828278008</v>
+        <v>1.055037551237205</v>
       </c>
       <c r="J16">
-        <v>1.061692565563476</v>
+        <v>1.038624250137236</v>
       </c>
       <c r="K16">
-        <v>1.063822498482594</v>
+        <v>1.045271880349711</v>
       </c>
       <c r="L16">
-        <v>1.055272944678832</v>
+        <v>1.029905137849189</v>
       </c>
       <c r="M16">
-        <v>1.073706598586032</v>
+        <v>1.048919144825983</v>
       </c>
       <c r="N16">
-        <v>1.063200290784416</v>
+        <v>1.040099215704297</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.055986459079758</v>
+        <v>1.013588368322551</v>
       </c>
       <c r="D17">
-        <v>1.06085332460312</v>
+        <v>1.033587137476794</v>
       </c>
       <c r="E17">
-        <v>1.052304797552179</v>
+        <v>1.018070293795403</v>
       </c>
       <c r="F17">
-        <v>1.070831031551544</v>
+        <v>1.037558432384069</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054150365516448</v>
+        <v>1.0562150686925</v>
       </c>
       <c r="J17">
-        <v>1.06203678672431</v>
+        <v>1.040534197662477</v>
       </c>
       <c r="K17">
-        <v>1.064134778771059</v>
+        <v>1.04703082118061</v>
       </c>
       <c r="L17">
-        <v>1.055614783034823</v>
+        <v>1.031768733843481</v>
       </c>
       <c r="M17">
-        <v>1.074079815859714</v>
+        <v>1.050938484857549</v>
       </c>
       <c r="N17">
-        <v>1.06354500077878</v>
+        <v>1.042011875574098</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.056265965243832</v>
+        <v>1.015133310165234</v>
       </c>
       <c r="D18">
-        <v>1.061076874355474</v>
+        <v>1.034802081746449</v>
       </c>
       <c r="E18">
-        <v>1.05254605594634</v>
+        <v>1.019351682743418</v>
       </c>
       <c r="F18">
-        <v>1.071089838566604</v>
+        <v>1.038925445683947</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054253745944798</v>
+        <v>1.056893780186444</v>
       </c>
       <c r="J18">
-        <v>1.062237452335332</v>
+        <v>1.04163654311756</v>
       </c>
       <c r="K18">
-        <v>1.064316806484873</v>
+        <v>1.048045959694677</v>
       </c>
       <c r="L18">
-        <v>1.05581407149325</v>
+        <v>1.032844537137416</v>
       </c>
       <c r="M18">
-        <v>1.074297432913522</v>
+        <v>1.052104478563778</v>
       </c>
       <c r="N18">
-        <v>1.063745951357987</v>
+        <v>1.043115786486168</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056361260899172</v>
+        <v>1.015657453871603</v>
       </c>
       <c r="D19">
-        <v>1.061153091096668</v>
+        <v>1.035214367052026</v>
       </c>
       <c r="E19">
-        <v>1.052628313868544</v>
+        <v>1.019786540261379</v>
       </c>
       <c r="F19">
-        <v>1.071178084259039</v>
+        <v>1.039389390886948</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054288966509467</v>
+        <v>1.057123850731598</v>
       </c>
       <c r="J19">
-        <v>1.06230585504684</v>
+        <v>1.042010468052911</v>
       </c>
       <c r="K19">
-        <v>1.064378852904659</v>
+        <v>1.048390293957573</v>
       </c>
       <c r="L19">
-        <v>1.05588200678145</v>
+        <v>1.033209493982973</v>
       </c>
       <c r="M19">
-        <v>1.074371622155104</v>
+        <v>1.052500079618994</v>
       </c>
       <c r="N19">
-        <v>1.063814451209191</v>
+        <v>1.043490242437817</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.055935041864429</v>
+        <v>1.013302921361773</v>
       </c>
       <c r="D20">
-        <v>1.060812200526246</v>
+        <v>1.033362709159182</v>
       </c>
       <c r="E20">
-        <v>1.05226041752226</v>
+        <v>1.017833603213614</v>
       </c>
       <c r="F20">
-        <v>1.07078342555165</v>
+        <v>1.037305940028803</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054131335460507</v>
+        <v>1.056089577258311</v>
       </c>
       <c r="J20">
-        <v>1.061999866728875</v>
+        <v>1.040330496940222</v>
       </c>
       <c r="K20">
-        <v>1.064101286484863</v>
+        <v>1.046843230965716</v>
       </c>
       <c r="L20">
-        <v>1.055578117377606</v>
+        <v>1.031569954712973</v>
       </c>
       <c r="M20">
-        <v>1.074039780872492</v>
+        <v>1.050723063898105</v>
       </c>
       <c r="N20">
-        <v>1.063508028352718</v>
+        <v>1.041807885573454</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.054548746232609</v>
+        <v>1.005457097570149</v>
       </c>
       <c r="D21">
-        <v>1.059703375411313</v>
+        <v>1.027200014514047</v>
       </c>
       <c r="E21">
-        <v>1.051064000308214</v>
+        <v>1.011335505302707</v>
       </c>
       <c r="F21">
-        <v>1.069500288388366</v>
+        <v>1.030375699539743</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053616813870824</v>
+        <v>1.052629839399469</v>
       </c>
       <c r="J21">
-        <v>1.061003739858391</v>
+        <v>1.0347284184504</v>
       </c>
       <c r="K21">
-        <v>1.063197476415245</v>
+        <v>1.041683769257276</v>
       </c>
       <c r="L21">
-        <v>1.05458896377584</v>
+        <v>1.026105259011366</v>
       </c>
       <c r="M21">
-        <v>1.072960056335947</v>
+        <v>1.044803574998481</v>
       </c>
       <c r="N21">
-        <v>1.06251048686782</v>
+        <v>1.036197851489608</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.053676640617779</v>
+        <v>1.000367690092556</v>
       </c>
       <c r="D22">
-        <v>1.059005778765292</v>
+        <v>1.023208790615952</v>
       </c>
       <c r="E22">
-        <v>1.050311487948383</v>
+        <v>1.007128276829389</v>
       </c>
       <c r="F22">
-        <v>1.068693471707136</v>
+        <v>1.025890332327821</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053291738855502</v>
+        <v>1.050375665492544</v>
       </c>
       <c r="J22">
-        <v>1.06037640763712</v>
+        <v>1.031091753209118</v>
       </c>
       <c r="K22">
-        <v>1.062628123178868</v>
+        <v>1.038334083876377</v>
       </c>
       <c r="L22">
-        <v>1.053966131118011</v>
+        <v>1.022559831551779</v>
       </c>
       <c r="M22">
-        <v>1.072280510752014</v>
+        <v>1.040965772119885</v>
       </c>
       <c r="N22">
-        <v>1.061882263762839</v>
+        <v>1.032556021766552</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.054139007335986</v>
+        <v>1.00308119026844</v>
       </c>
       <c r="D23">
-        <v>1.059375629592312</v>
+        <v>1.025336135447076</v>
       </c>
       <c r="E23">
-        <v>1.050710435838605</v>
+        <v>1.009370644041041</v>
       </c>
       <c r="F23">
-        <v>1.069121186502729</v>
+        <v>1.028280785268065</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053464216888673</v>
+        <v>1.051578422416949</v>
       </c>
       <c r="J23">
-        <v>1.060709066305567</v>
+        <v>1.033030929427077</v>
       </c>
       <c r="K23">
-        <v>1.062930052095641</v>
+        <v>1.04012026035943</v>
       </c>
       <c r="L23">
-        <v>1.054296393524692</v>
+        <v>1.02445015902144</v>
       </c>
       <c r="M23">
-        <v>1.072640815697431</v>
+        <v>1.043011730920343</v>
       </c>
       <c r="N23">
-        <v>1.062215394844752</v>
+        <v>1.034497951837167</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.055958275251212</v>
+        <v>1.013431951533505</v>
       </c>
       <c r="D24">
-        <v>1.060830782872062</v>
+        <v>1.033464155317514</v>
       </c>
       <c r="E24">
-        <v>1.052280471038725</v>
+        <v>1.017940591722066</v>
       </c>
       <c r="F24">
-        <v>1.070804936669621</v>
+        <v>1.037420070683279</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054139934861423</v>
+        <v>1.05614630645075</v>
       </c>
       <c r="J24">
-        <v>1.062016549634083</v>
+        <v>1.040422576572722</v>
       </c>
       <c r="K24">
-        <v>1.064116420578459</v>
+        <v>1.04692802826521</v>
       </c>
       <c r="L24">
-        <v>1.055594685319101</v>
+        <v>1.031659808968069</v>
       </c>
       <c r="M24">
-        <v>1.074057871189475</v>
+        <v>1.050820439889851</v>
       </c>
       <c r="N24">
-        <v>1.063524734949564</v>
+        <v>1.041900095969592</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.058067407389227</v>
+        <v>1.024825164777541</v>
       </c>
       <c r="D25">
-        <v>1.06251756423756</v>
+        <v>1.042433345565706</v>
       </c>
       <c r="E25">
-        <v>1.054101257594447</v>
+        <v>1.027402946713655</v>
       </c>
       <c r="F25">
-        <v>1.072758641447195</v>
+        <v>1.047517816100088</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054917244223051</v>
+        <v>1.061131063838895</v>
       </c>
       <c r="J25">
-        <v>1.063529393481127</v>
+        <v>1.048545003384975</v>
       </c>
       <c r="K25">
-        <v>1.065488429080743</v>
+        <v>1.054406807745762</v>
       </c>
       <c r="L25">
-        <v>1.057097360579136</v>
+        <v>1.0395902555257</v>
       </c>
       <c r="M25">
-        <v>1.075699377236589</v>
+        <v>1.059420689841121</v>
       </c>
       <c r="N25">
-        <v>1.065039727208397</v>
+        <v>1.050034057559575</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033474275513087</v>
+        <v>0.9973960698242029</v>
       </c>
       <c r="D2">
-        <v>1.049256647384708</v>
+        <v>1.023729040829533</v>
       </c>
       <c r="E2">
-        <v>1.034606274676465</v>
+        <v>1.00421951426458</v>
       </c>
       <c r="F2">
-        <v>1.055210173165713</v>
+        <v>1.033769212776342</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064878618188861</v>
+        <v>1.045808353732817</v>
       </c>
       <c r="J2">
-        <v>1.054697880736633</v>
+        <v>1.019654943917453</v>
       </c>
       <c r="K2">
-        <v>1.060069899881864</v>
+        <v>1.034867401806308</v>
       </c>
       <c r="L2">
-        <v>1.045603656625833</v>
+        <v>1.015620375898759</v>
       </c>
       <c r="M2">
-        <v>1.065950416577172</v>
+        <v>1.044777312100318</v>
       </c>
       <c r="N2">
-        <v>1.056195672702816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01048172205029</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044010621105019</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035724516536766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039526404212161</v>
+        <v>1.000837730525378</v>
       </c>
       <c r="D3">
-        <v>1.054037895435894</v>
+        <v>1.025921556840726</v>
       </c>
       <c r="E3">
-        <v>1.039656829190324</v>
+        <v>1.006889604112253</v>
       </c>
       <c r="F3">
-        <v>1.060606663398241</v>
+        <v>1.036064493384969</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067478811924076</v>
+        <v>1.046321012106588</v>
       </c>
       <c r="J3">
-        <v>1.058994615202237</v>
+        <v>1.021305584184724</v>
       </c>
       <c r="K3">
-        <v>1.064023065449972</v>
+        <v>1.03623317095219</v>
       </c>
       <c r="L3">
-        <v>1.049806243406966</v>
+        <v>1.01743508366009</v>
       </c>
       <c r="M3">
-        <v>1.070518634852525</v>
+        <v>1.046255815590086</v>
       </c>
       <c r="N3">
-        <v>1.060498509024204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011042763998165</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045180750887141</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.0366875652485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043344802329886</v>
+        <v>1.003029546623625</v>
       </c>
       <c r="D4">
-        <v>1.057057099041987</v>
+        <v>1.027321618199043</v>
       </c>
       <c r="E4">
-        <v>1.042847550317391</v>
+        <v>1.008596048798888</v>
       </c>
       <c r="F4">
-        <v>1.064017341036993</v>
+        <v>1.037532267017951</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069108789247762</v>
+        <v>1.046638625370677</v>
       </c>
       <c r="J4">
-        <v>1.061701173744311</v>
+        <v>1.022356072491365</v>
       </c>
       <c r="K4">
-        <v>1.066512415669002</v>
+        <v>1.037101109616056</v>
       </c>
       <c r="L4">
-        <v>1.052454948505078</v>
+        <v>1.018591822459423</v>
       </c>
       <c r="M4">
-        <v>1.073399973446614</v>
+        <v>1.047197868549443</v>
       </c>
       <c r="N4">
-        <v>1.063208911189855</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011399691953854</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045926317462299</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037302175290645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044927718655978</v>
+        <v>1.003945320489183</v>
       </c>
       <c r="D5">
-        <v>1.058309273440684</v>
+        <v>1.027909341419496</v>
       </c>
       <c r="E5">
-        <v>1.044171218888547</v>
+        <v>1.009310741084667</v>
       </c>
       <c r="F5">
-        <v>1.065432596183782</v>
+        <v>1.038147720462259</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.069781925518585</v>
+        <v>1.046770453485644</v>
       </c>
       <c r="J5">
-        <v>1.062822093800237</v>
+        <v>1.022796038548083</v>
       </c>
       <c r="K5">
-        <v>1.067543177950116</v>
+        <v>1.037465744196792</v>
       </c>
       <c r="L5">
-        <v>1.053552249701235</v>
+        <v>1.019076262729823</v>
       </c>
       <c r="M5">
-        <v>1.074594173104848</v>
+        <v>1.047592925148605</v>
       </c>
       <c r="N5">
-        <v>1.064331423080832</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011549358528413</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046238975875613</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037567198176805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045192216862565</v>
+        <v>1.004101679291882</v>
       </c>
       <c r="D6">
-        <v>1.05851853745627</v>
+        <v>1.028012037587641</v>
       </c>
       <c r="E6">
-        <v>1.044392452457755</v>
+        <v>1.009433215781463</v>
       </c>
       <c r="F6">
-        <v>1.06566915707978</v>
+        <v>1.038253845006946</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069894251182086</v>
+        <v>1.046794402864772</v>
       </c>
       <c r="J6">
-        <v>1.063009329546139</v>
+        <v>1.022872666885836</v>
       </c>
       <c r="K6">
-        <v>1.067715341817406</v>
+        <v>1.03753097394054</v>
       </c>
       <c r="L6">
-        <v>1.05373556007513</v>
+        <v>1.019160095653972</v>
       </c>
       <c r="M6">
-        <v>1.074793701630299</v>
+        <v>1.047662048914024</v>
       </c>
       <c r="N6">
-        <v>1.064518924722969</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011575679756836</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046293682268236</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037622094310229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043366039758798</v>
+        <v>1.00305007177815</v>
       </c>
       <c r="D7">
-        <v>1.057073896878203</v>
+        <v>1.027340936287403</v>
       </c>
       <c r="E7">
-        <v>1.042865305809346</v>
+        <v>1.008613050522223</v>
       </c>
       <c r="F7">
-        <v>1.064036323722767</v>
+        <v>1.03754862398197</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069117830699827</v>
+        <v>1.046645798245993</v>
       </c>
       <c r="J7">
-        <v>1.061716217073654</v>
+        <v>1.022370014649717</v>
       </c>
       <c r="K7">
-        <v>1.066526249844104</v>
+        <v>1.037117315025456</v>
       </c>
       <c r="L7">
-        <v>1.052469673516625</v>
+        <v>1.018605656371934</v>
       </c>
       <c r="M7">
-        <v>1.073415996700182</v>
+        <v>1.047211188644255</v>
       </c>
       <c r="N7">
-        <v>1.063223975882451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011405132497036</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045936859345598</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037333811897901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035540517638394</v>
+        <v>0.9985769414876984</v>
       </c>
       <c r="D8">
-        <v>1.050888406831487</v>
+        <v>1.024488099672038</v>
       </c>
       <c r="E8">
-        <v>1.036329642986447</v>
+        <v>1.005135674160806</v>
       </c>
       <c r="F8">
-        <v>1.057051286390194</v>
+        <v>1.034558653415885</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065768532257943</v>
+        <v>1.045991259230636</v>
       </c>
       <c r="J8">
-        <v>1.056165700882254</v>
+        <v>1.020226504332717</v>
       </c>
       <c r="K8">
-        <v>1.061420511840439</v>
+        <v>1.035346274126144</v>
       </c>
       <c r="L8">
-        <v>1.04703900456793</v>
+        <v>1.016246525978433</v>
       </c>
       <c r="M8">
-        <v>1.067510178829549</v>
+        <v>1.045290001136592</v>
       </c>
       <c r="N8">
-        <v>1.057665577321405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010676932503418</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044416378026054</v>
+      </c>
+      <c r="Q8">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R8">
+        <v>1.036086110820197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020950909076631</v>
+        <v>0.9904012296978356</v>
       </c>
       <c r="D9">
-        <v>1.039380860169864</v>
+        <v>1.019295705177278</v>
       </c>
       <c r="E9">
-        <v>1.024181882920469</v>
+        <v>0.9988271081738186</v>
       </c>
       <c r="F9">
-        <v>1.04407961075554</v>
+        <v>1.029139404693761</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059441672673677</v>
+        <v>1.044719755426277</v>
       </c>
       <c r="J9">
-        <v>1.04578492679106</v>
+        <v>1.016297558880186</v>
       </c>
       <c r="K9">
-        <v>1.051865762312557</v>
+        <v>1.032083292376081</v>
       </c>
       <c r="L9">
-        <v>1.036894441581274</v>
+        <v>1.011939243435644</v>
       </c>
       <c r="M9">
-        <v>1.056495834206161</v>
+        <v>1.041776766596003</v>
       </c>
       <c r="N9">
-        <v>1.047270061340311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009340085470166</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041635898138143</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033775765052729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010607818549023</v>
+        <v>0.9847840223546319</v>
       </c>
       <c r="D10">
-        <v>1.031244466094308</v>
+        <v>1.015779361965727</v>
       </c>
       <c r="E10">
-        <v>1.015599796226457</v>
+        <v>0.9945327837457186</v>
       </c>
       <c r="F10">
-        <v>1.034923216586408</v>
+        <v>1.025547520041664</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054903363905747</v>
+        <v>1.043824893527668</v>
       </c>
       <c r="J10">
-        <v>1.038406796292083</v>
+        <v>1.013614624871116</v>
       </c>
       <c r="K10">
-        <v>1.04507161244046</v>
+        <v>1.029869442256954</v>
       </c>
       <c r="L10">
-        <v>1.029692990308904</v>
+        <v>1.00900145711643</v>
       </c>
       <c r="M10">
-        <v>1.048689306657251</v>
+        <v>1.03947033404504</v>
       </c>
       <c r="N10">
-        <v>1.039881453049742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008430141913637</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039861864151975</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032227305824073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005963043387222</v>
+        <v>0.982586018763921</v>
       </c>
       <c r="D11">
-        <v>1.027597067627583</v>
+        <v>1.014613868778342</v>
       </c>
       <c r="E11">
-        <v>1.011754096081083</v>
+        <v>0.992900644224108</v>
       </c>
       <c r="F11">
-        <v>1.030822032674081</v>
+        <v>1.024900108774011</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052853524088829</v>
+        <v>1.04363744578233</v>
       </c>
       <c r="J11">
-        <v>1.035089839768342</v>
+        <v>1.012701622772655</v>
       </c>
       <c r="K11">
-        <v>1.042016657241271</v>
+        <v>1.029265352762324</v>
       </c>
       <c r="L11">
-        <v>1.026457700205027</v>
+        <v>1.007957697478387</v>
       </c>
       <c r="M11">
-        <v>1.045185193531685</v>
+        <v>1.039367242018973</v>
       </c>
       <c r="N11">
-        <v>1.036559786067277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008148527276601</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040215613414422</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031833169649499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004210916678499</v>
+        <v>0.9818539951475704</v>
       </c>
       <c r="D12">
-        <v>1.026222257586973</v>
+        <v>1.014298351128785</v>
       </c>
       <c r="E12">
-        <v>1.010304750306912</v>
+        <v>0.9923741543829104</v>
       </c>
       <c r="F12">
-        <v>1.029276684852646</v>
+        <v>1.024981208786601</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052078566691839</v>
+        <v>1.043636558500362</v>
       </c>
       <c r="J12">
-        <v>1.033838125979827</v>
+        <v>1.012446688034147</v>
       </c>
       <c r="K12">
-        <v>1.04086375255004</v>
+        <v>1.029156650143721</v>
       </c>
       <c r="L12">
-        <v>1.025237155089703</v>
+        <v>1.00764892654319</v>
       </c>
       <c r="M12">
-        <v>1.043863692077012</v>
+        <v>1.039644963293291</v>
       </c>
       <c r="N12">
-        <v>1.035306294701609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008084775217151</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040761007013225</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031756312774676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004588001242303</v>
+        <v>0.9822120515977861</v>
       </c>
       <c r="D13">
-        <v>1.02651808701961</v>
+        <v>1.014631774244755</v>
       </c>
       <c r="E13">
-        <v>1.010616608984976</v>
+        <v>0.992670582739565</v>
       </c>
       <c r="F13">
-        <v>1.029609187648143</v>
+        <v>1.025652782656206</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052245425272792</v>
+        <v>1.04379163823468</v>
       </c>
       <c r="J13">
-        <v>1.034107534121414</v>
+        <v>1.012693332078338</v>
       </c>
       <c r="K13">
-        <v>1.041111896346122</v>
+        <v>1.029440809213025</v>
       </c>
       <c r="L13">
-        <v>1.025499838691148</v>
+        <v>1.007895051989529</v>
       </c>
       <c r="M13">
-        <v>1.044148082434158</v>
+        <v>1.040262041436553</v>
       </c>
       <c r="N13">
-        <v>1.035576085433658</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008189469869426</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041525049630221</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031954721024544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005818771379563</v>
+        <v>0.9829573213409881</v>
       </c>
       <c r="D14">
-        <v>1.027483841630634</v>
+        <v>1.015159624280589</v>
       </c>
       <c r="E14">
-        <v>1.011634727328311</v>
+        <v>0.9932515711517912</v>
       </c>
       <c r="F14">
-        <v>1.030694751382388</v>
+        <v>1.026389328602873</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052789747469114</v>
+        <v>1.043970483855807</v>
       </c>
       <c r="J14">
-        <v>1.034986781464867</v>
+        <v>1.013093388974116</v>
       </c>
       <c r="K14">
-        <v>1.041921735405141</v>
+        <v>1.029817806780538</v>
       </c>
       <c r="L14">
-        <v>1.026357200937363</v>
+        <v>1.008319022650306</v>
       </c>
       <c r="M14">
-        <v>1.045076372173144</v>
+        <v>1.040846508660897</v>
       </c>
       <c r="N14">
-        <v>1.03645658140919</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008339251767108</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04216006724989</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03222270321087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006573471848299</v>
+        <v>0.9833798318474123</v>
       </c>
       <c r="D15">
-        <v>1.028076182204597</v>
+        <v>1.015437784299811</v>
       </c>
       <c r="E15">
-        <v>1.012259212119015</v>
+        <v>0.9935760887959264</v>
       </c>
       <c r="F15">
-        <v>1.031360642643275</v>
+        <v>1.026714803483797</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053123299977999</v>
+        <v>1.044052585880994</v>
       </c>
       <c r="J15">
-        <v>1.035525870342406</v>
+        <v>1.013305370752498</v>
       </c>
       <c r="K15">
-        <v>1.042418260738852</v>
+        <v>1.030003978939371</v>
       </c>
       <c r="L15">
-        <v>1.026882918069765</v>
+        <v>1.008547568371482</v>
       </c>
       <c r="M15">
-        <v>1.045645641374599</v>
+        <v>1.041080679764597</v>
       </c>
       <c r="N15">
-        <v>1.036996435854769</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008414426246335</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042382628318087</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032360228884916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010912419455089</v>
+        <v>0.9856847998228964</v>
       </c>
       <c r="D16">
-        <v>1.031483802610899</v>
+        <v>1.016867719705691</v>
       </c>
       <c r="E16">
-        <v>1.015852174824782</v>
+        <v>0.9953274261689038</v>
       </c>
       <c r="F16">
-        <v>1.035192400630408</v>
+        <v>1.028144341941572</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055037551237205</v>
+        <v>1.044419475835876</v>
       </c>
       <c r="J16">
-        <v>1.038624250137236</v>
+        <v>1.014399477454265</v>
       </c>
       <c r="K16">
-        <v>1.045271880349711</v>
+        <v>1.030903153977193</v>
       </c>
       <c r="L16">
-        <v>1.029905137849189</v>
+        <v>1.009744633492768</v>
       </c>
       <c r="M16">
-        <v>1.048919144825983</v>
+        <v>1.041988136341953</v>
       </c>
       <c r="N16">
-        <v>1.040099215704297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008781622638077</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043061229319439</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032999163213642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013588368322551</v>
+        <v>0.9870658506357027</v>
       </c>
       <c r="D17">
-        <v>1.033587137476794</v>
+        <v>1.01769039406087</v>
       </c>
       <c r="E17">
-        <v>1.018070293795403</v>
+        <v>0.9963707718929876</v>
       </c>
       <c r="F17">
-        <v>1.037558432384069</v>
+        <v>1.028850782960952</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0562150686925</v>
+        <v>1.044604983961291</v>
       </c>
       <c r="J17">
-        <v>1.040534197662477</v>
+        <v>1.015030306163236</v>
       </c>
       <c r="K17">
-        <v>1.04703082118061</v>
+        <v>1.031395196899557</v>
       </c>
       <c r="L17">
-        <v>1.031768733843481</v>
+        <v>1.010442735269464</v>
       </c>
       <c r="M17">
-        <v>1.050938484857549</v>
+        <v>1.042371181477957</v>
       </c>
       <c r="N17">
-        <v>1.042011875574098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008985109131526</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043235186556976</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033349657798625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015133310165234</v>
+        <v>0.9877739122937267</v>
       </c>
       <c r="D18">
-        <v>1.034802081746449</v>
+        <v>1.018043492050631</v>
       </c>
       <c r="E18">
-        <v>1.019351682743418</v>
+        <v>0.9968919082287929</v>
       </c>
       <c r="F18">
-        <v>1.038925445683947</v>
+        <v>1.028945662732472</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056893780186444</v>
+        <v>1.044639935679165</v>
       </c>
       <c r="J18">
-        <v>1.04163654311756</v>
+        <v>1.015306898523267</v>
       </c>
       <c r="K18">
-        <v>1.048045959694677</v>
+        <v>1.031557873803338</v>
       </c>
       <c r="L18">
-        <v>1.032844537137416</v>
+        <v>1.010764507925082</v>
       </c>
       <c r="M18">
-        <v>1.052104478563778</v>
+        <v>1.042282785767731</v>
       </c>
       <c r="N18">
-        <v>1.043115786486168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009061020520788</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042928068314191</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033452995112394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015657453871603</v>
+        <v>0.9878749573326026</v>
       </c>
       <c r="D19">
-        <v>1.035214367052026</v>
+        <v>1.017975534211456</v>
       </c>
       <c r="E19">
-        <v>1.019786540261379</v>
+        <v>0.9969424704591814</v>
       </c>
       <c r="F19">
-        <v>1.039389390886948</v>
+        <v>1.028481319249855</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057123850731598</v>
+        <v>1.044542421319961</v>
       </c>
       <c r="J19">
-        <v>1.042010468052911</v>
+        <v>1.015266634544154</v>
       </c>
       <c r="K19">
-        <v>1.048390293957573</v>
+        <v>1.031428116689941</v>
       </c>
       <c r="L19">
-        <v>1.033209493982973</v>
+        <v>1.010749362319675</v>
       </c>
       <c r="M19">
-        <v>1.052500079618994</v>
+        <v>1.041763885836691</v>
       </c>
       <c r="N19">
-        <v>1.043490242437817</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009025796939638</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042192927869758</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033367672014585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013302921361773</v>
+        <v>0.986259350902243</v>
       </c>
       <c r="D20">
-        <v>1.033362709159182</v>
+        <v>1.016717453531267</v>
       </c>
       <c r="E20">
-        <v>1.017833603213614</v>
+        <v>0.9956611689985635</v>
       </c>
       <c r="F20">
-        <v>1.037305940028803</v>
+        <v>1.02649959082597</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056089577258311</v>
+        <v>1.044074301678444</v>
       </c>
       <c r="J20">
-        <v>1.040330496940222</v>
+        <v>1.014330423902273</v>
       </c>
       <c r="K20">
-        <v>1.046843230965716</v>
+        <v>1.03047258095833</v>
       </c>
       <c r="L20">
-        <v>1.031569954712973</v>
+        <v>1.009780742995553</v>
       </c>
       <c r="M20">
-        <v>1.050723063898105</v>
+        <v>1.040091949428186</v>
       </c>
       <c r="N20">
-        <v>1.041807885573454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008675176399249</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040343274771787</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03269600191708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005457097570149</v>
+        <v>0.9819947118403648</v>
       </c>
       <c r="D21">
-        <v>1.027200014514047</v>
+        <v>1.014014148079739</v>
       </c>
       <c r="E21">
-        <v>1.011335505302707</v>
+        <v>0.9924057283391169</v>
       </c>
       <c r="F21">
-        <v>1.030375699539743</v>
+        <v>1.023638689142204</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052629839399469</v>
+        <v>1.043344992924795</v>
       </c>
       <c r="J21">
-        <v>1.0347284184504</v>
+        <v>1.01226500387338</v>
       </c>
       <c r="K21">
-        <v>1.041683769257276</v>
+        <v>1.028734794818372</v>
       </c>
       <c r="L21">
-        <v>1.026105259011366</v>
+        <v>1.007532419167641</v>
       </c>
       <c r="M21">
-        <v>1.044803574998481</v>
+        <v>1.038185644288831</v>
       </c>
       <c r="N21">
-        <v>1.036197851489608</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007969307597762</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038793764479933</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031470550222128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000367690092556</v>
+        <v>0.9792744240591509</v>
       </c>
       <c r="D22">
-        <v>1.023208790615952</v>
+        <v>1.012302507855206</v>
       </c>
       <c r="E22">
-        <v>1.007128276829389</v>
+        <v>0.9903383843692481</v>
       </c>
       <c r="F22">
-        <v>1.025890332327821</v>
+        <v>1.02186747467248</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050375665492544</v>
+        <v>1.04287791837212</v>
       </c>
       <c r="J22">
-        <v>1.031091753209118</v>
+        <v>1.010952027413073</v>
       </c>
       <c r="K22">
-        <v>1.038334083876377</v>
+        <v>1.027634126803475</v>
       </c>
       <c r="L22">
-        <v>1.022559831551779</v>
+        <v>1.006103700639262</v>
       </c>
       <c r="M22">
-        <v>1.040965772119885</v>
+        <v>1.037017832960662</v>
       </c>
       <c r="N22">
-        <v>1.032556021766552</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007521202091694</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037869517321595</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.0306787550461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00308119026844</v>
+        <v>0.9807133816496882</v>
       </c>
       <c r="D23">
-        <v>1.025336135447076</v>
+        <v>1.013201950510824</v>
       </c>
       <c r="E23">
-        <v>1.009370644041041</v>
+        <v>0.9914300624708827</v>
       </c>
       <c r="F23">
-        <v>1.028280785268065</v>
+        <v>1.02280122847676</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051578422416949</v>
+        <v>1.043122174834492</v>
       </c>
       <c r="J23">
-        <v>1.033030929427077</v>
+        <v>1.011642859439396</v>
       </c>
       <c r="K23">
-        <v>1.04012026035943</v>
+        <v>1.028209471357005</v>
       </c>
       <c r="L23">
-        <v>1.02445015902144</v>
+        <v>1.006856427099222</v>
       </c>
       <c r="M23">
-        <v>1.043011730920343</v>
+        <v>1.037631452086664</v>
       </c>
       <c r="N23">
-        <v>1.034497951837167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007756202628708</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.038355157333595</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031075872816889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013431951533505</v>
+        <v>0.9862898775742268</v>
       </c>
       <c r="D24">
-        <v>1.033464155317514</v>
+        <v>1.016708192207351</v>
       </c>
       <c r="E24">
-        <v>1.017940591722066</v>
+        <v>0.995679077507153</v>
       </c>
       <c r="F24">
-        <v>1.037420070683279</v>
+        <v>1.026441422857151</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05614630645075</v>
+        <v>1.044056855642979</v>
       </c>
       <c r="J24">
-        <v>1.040422576572722</v>
+        <v>1.014326096774351</v>
       </c>
       <c r="K24">
-        <v>1.04692802826521</v>
+        <v>1.030448111782536</v>
       </c>
       <c r="L24">
-        <v>1.031659808968069</v>
+        <v>1.009782500683704</v>
       </c>
       <c r="M24">
-        <v>1.050820439889851</v>
+        <v>1.040019581214348</v>
       </c>
       <c r="N24">
-        <v>1.041900095969592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008670089515079</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040245204573169</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032651178541418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024825164777541</v>
+        <v>0.9925628757131478</v>
       </c>
       <c r="D25">
-        <v>1.042433345565706</v>
+        <v>1.020674062195284</v>
       </c>
       <c r="E25">
-        <v>1.027402946713655</v>
+        <v>1.000490879829249</v>
       </c>
       <c r="F25">
-        <v>1.047517816100088</v>
+        <v>1.030570116998959</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061131063838895</v>
+        <v>1.045070190035406</v>
       </c>
       <c r="J25">
-        <v>1.048545003384975</v>
+        <v>1.017343147401036</v>
       </c>
       <c r="K25">
-        <v>1.054406807745762</v>
+        <v>1.032959698571984</v>
       </c>
       <c r="L25">
-        <v>1.0395902555257</v>
+        <v>1.013081580297057</v>
       </c>
       <c r="M25">
-        <v>1.059420689841121</v>
+        <v>1.042711707632644</v>
       </c>
       <c r="N25">
-        <v>1.050034057559575</v>
+        <v>1.009697176893299</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042375839741122</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034424140381165</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9973960698242029</v>
+        <v>0.9974979895534194</v>
       </c>
       <c r="D2">
-        <v>1.023729040829533</v>
+        <v>1.023395677031458</v>
       </c>
       <c r="E2">
-        <v>1.00421951426458</v>
+        <v>1.004312184699273</v>
       </c>
       <c r="F2">
-        <v>1.033769212776342</v>
+        <v>1.033540579379891</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045808353732817</v>
+        <v>1.045675971920104</v>
       </c>
       <c r="J2">
-        <v>1.019654943917453</v>
+        <v>1.019753793725811</v>
       </c>
       <c r="K2">
-        <v>1.034867401806308</v>
+        <v>1.034538418037447</v>
       </c>
       <c r="L2">
-        <v>1.015620375898759</v>
+        <v>1.015711769075049</v>
       </c>
       <c r="M2">
-        <v>1.044777312100318</v>
+        <v>1.044551609799071</v>
       </c>
       <c r="N2">
-        <v>1.01048172205029</v>
+        <v>1.012455051188768</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044010621105019</v>
+        <v>1.043831993709093</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035724516536766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035500701705341</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021272606798574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000837730525378</v>
+        <v>1.000830563640435</v>
       </c>
       <c r="D3">
-        <v>1.025921556840726</v>
+        <v>1.025451593466165</v>
       </c>
       <c r="E3">
-        <v>1.006889604112253</v>
+        <v>1.006887208131277</v>
       </c>
       <c r="F3">
-        <v>1.036064493384969</v>
+        <v>1.035740612419353</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046321012106588</v>
+        <v>1.046128934157358</v>
       </c>
       <c r="J3">
-        <v>1.021305584184724</v>
+        <v>1.021298612233184</v>
       </c>
       <c r="K3">
-        <v>1.03623317095219</v>
+        <v>1.035768852760127</v>
       </c>
       <c r="L3">
-        <v>1.01743508366009</v>
+        <v>1.017432717815097</v>
       </c>
       <c r="M3">
-        <v>1.046255815590086</v>
+        <v>1.045935730679408</v>
       </c>
       <c r="N3">
-        <v>1.011042763998165</v>
+        <v>1.012872414544042</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045180750887141</v>
+        <v>1.044927426728753</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.0366875652485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036367780859659</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021503481885618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003029546623625</v>
+        <v>1.00295363597591</v>
       </c>
       <c r="D4">
-        <v>1.027321618199043</v>
+        <v>1.026765089892371</v>
       </c>
       <c r="E4">
-        <v>1.008596048798888</v>
+        <v>1.008533659677027</v>
       </c>
       <c r="F4">
-        <v>1.037532267017951</v>
+        <v>1.037148131137983</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046638625370677</v>
+        <v>1.046408684182503</v>
       </c>
       <c r="J4">
-        <v>1.022356072491365</v>
+        <v>1.022282088028626</v>
       </c>
       <c r="K4">
-        <v>1.037101109616056</v>
+        <v>1.03655086905339</v>
       </c>
       <c r="L4">
-        <v>1.018591822459423</v>
+        <v>1.018530170560421</v>
       </c>
       <c r="M4">
-        <v>1.047197868549443</v>
+        <v>1.046817967434698</v>
       </c>
       <c r="N4">
-        <v>1.011399691953854</v>
+        <v>1.013138064397203</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045926317462299</v>
+        <v>1.045625653381378</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037302175290645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036921718132179</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021647914686024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003945320489183</v>
+        <v>1.003840860930369</v>
       </c>
       <c r="D5">
-        <v>1.027909341419496</v>
+        <v>1.027316803458325</v>
       </c>
       <c r="E5">
-        <v>1.009310741084667</v>
+        <v>1.009223418327459</v>
       </c>
       <c r="F5">
-        <v>1.038147720462259</v>
+        <v>1.037738542862657</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046770453485644</v>
+        <v>1.04652474889831</v>
       </c>
       <c r="J5">
-        <v>1.022796038548083</v>
+        <v>1.02269415102641</v>
       </c>
       <c r="K5">
-        <v>1.037465744196792</v>
+        <v>1.036879725090428</v>
       </c>
       <c r="L5">
-        <v>1.019076262729823</v>
+        <v>1.018989944252898</v>
       </c>
       <c r="M5">
-        <v>1.047592925148605</v>
+        <v>1.047188140003236</v>
       </c>
       <c r="N5">
-        <v>1.011549358528413</v>
+        <v>1.013249520259652</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046238975875613</v>
+        <v>1.045918618027611</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037567198176805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037162152105953</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021708504071817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004101679291882</v>
+        <v>1.003992362183362</v>
       </c>
       <c r="D6">
-        <v>1.028012037587641</v>
+        <v>1.02741342716692</v>
       </c>
       <c r="E6">
-        <v>1.009433215781463</v>
+        <v>1.009341648152838</v>
       </c>
       <c r="F6">
-        <v>1.038253845006946</v>
+        <v>1.037840445032002</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046794402864772</v>
+        <v>1.046546032687557</v>
       </c>
       <c r="J6">
-        <v>1.022872666885836</v>
+        <v>1.022766027689707</v>
       </c>
       <c r="K6">
-        <v>1.03753097394054</v>
+        <v>1.036938919431558</v>
       </c>
       <c r="L6">
-        <v>1.019160095653972</v>
+        <v>1.019069576286513</v>
       </c>
       <c r="M6">
-        <v>1.047662048914024</v>
+        <v>1.047253066692503</v>
       </c>
       <c r="N6">
-        <v>1.011575679756836</v>
+        <v>1.013269163786387</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046293682268236</v>
+        <v>1.045970002764657</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037622094310229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037213647822222</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021719878210551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00305007177815</v>
+        <v>1.002980756322507</v>
       </c>
       <c r="D7">
-        <v>1.027340936287403</v>
+        <v>1.026788427761332</v>
       </c>
       <c r="E7">
-        <v>1.008613050522223</v>
+        <v>1.008556550918456</v>
       </c>
       <c r="F7">
-        <v>1.03754862398197</v>
+        <v>1.037167332315519</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046645798245993</v>
+        <v>1.04641771156359</v>
       </c>
       <c r="J7">
-        <v>1.022370014649717</v>
+        <v>1.022302457273901</v>
       </c>
       <c r="K7">
-        <v>1.037117315025456</v>
+        <v>1.036571046424857</v>
       </c>
       <c r="L7">
-        <v>1.018605656371934</v>
+        <v>1.018549824140759</v>
       </c>
       <c r="M7">
-        <v>1.047211188644255</v>
+        <v>1.046834098812216</v>
       </c>
       <c r="N7">
-        <v>1.011405132497036</v>
+        <v>1.013169979323443</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045936859345598</v>
+        <v>1.045638420195051</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037333811897901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036958158341714</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021653502002917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9985769414876984</v>
+        <v>0.9986634978678927</v>
       </c>
       <c r="D8">
-        <v>1.024488099672038</v>
+        <v>1.024122358996595</v>
       </c>
       <c r="E8">
-        <v>1.005135674160806</v>
+        <v>1.005215445457919</v>
       </c>
       <c r="F8">
-        <v>1.034558653415885</v>
+        <v>1.034307577112683</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045991259230636</v>
+        <v>1.045845086687482</v>
       </c>
       <c r="J8">
-        <v>1.020226504332717</v>
+        <v>1.020310540371151</v>
       </c>
       <c r="K8">
-        <v>1.035346274126144</v>
+        <v>1.034985198157993</v>
       </c>
       <c r="L8">
-        <v>1.016246525978433</v>
+        <v>1.016325230654909</v>
       </c>
       <c r="M8">
-        <v>1.045290001136592</v>
+        <v>1.045042049438741</v>
       </c>
       <c r="N8">
-        <v>1.010676932503418</v>
+        <v>1.012684795957794</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044416378026054</v>
+        <v>1.044220141914208</v>
       </c>
       <c r="Q8">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036086110820197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035841866911688</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021360143062409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9904012296978356</v>
+        <v>0.9907547360422855</v>
       </c>
       <c r="D9">
-        <v>1.019295705177278</v>
+        <v>1.019259090105841</v>
       </c>
       <c r="E9">
-        <v>0.9988271081738186</v>
+        <v>0.9991390069196252</v>
       </c>
       <c r="F9">
-        <v>1.029139404693761</v>
+        <v>1.029118547657321</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044719755426277</v>
+        <v>1.044717306285303</v>
       </c>
       <c r="J9">
-        <v>1.016297558880186</v>
+        <v>1.016638246356358</v>
       </c>
       <c r="K9">
-        <v>1.032083292376081</v>
+        <v>1.032047243006248</v>
       </c>
       <c r="L9">
-        <v>1.011939243435644</v>
+        <v>1.012246068598426</v>
       </c>
       <c r="M9">
-        <v>1.041776766596003</v>
+        <v>1.041756223990995</v>
       </c>
       <c r="N9">
-        <v>1.009340085470166</v>
+        <v>1.01170127336716</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041635898138143</v>
+        <v>1.041619640069007</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033775765052729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033761059471905</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020794763305656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9847840223546319</v>
+        <v>0.9853550670747938</v>
       </c>
       <c r="D10">
-        <v>1.015779361965727</v>
+        <v>1.0159893498704</v>
       </c>
       <c r="E10">
-        <v>0.9945327837457186</v>
+        <v>0.9950337644330467</v>
       </c>
       <c r="F10">
-        <v>1.025547520041664</v>
+        <v>1.025700026732894</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043824893527668</v>
+        <v>1.043930163532082</v>
       </c>
       <c r="J10">
-        <v>1.013614624871116</v>
+        <v>1.014162025019465</v>
       </c>
       <c r="K10">
-        <v>1.029869442256954</v>
+        <v>1.030075790636078</v>
       </c>
       <c r="L10">
-        <v>1.00900145711643</v>
+        <v>1.009493268489246</v>
       </c>
       <c r="M10">
-        <v>1.03947033404504</v>
+        <v>1.039620261860176</v>
       </c>
       <c r="N10">
-        <v>1.008430141913637</v>
+        <v>1.011151028695362</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039861864151975</v>
+        <v>1.039980514689369</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032227305824073</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032385668389192</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020411017129487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.982586018763921</v>
+        <v>0.9832713808215118</v>
       </c>
       <c r="D11">
-        <v>1.014613868778342</v>
+        <v>1.014928104502692</v>
       </c>
       <c r="E11">
-        <v>0.992900644224108</v>
+        <v>0.993500751136433</v>
       </c>
       <c r="F11">
-        <v>1.024900108774011</v>
+        <v>1.025125517050294</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04363744578233</v>
+        <v>1.043785991553516</v>
       </c>
       <c r="J11">
-        <v>1.012701622772655</v>
+        <v>1.013357038138419</v>
       </c>
       <c r="K11">
-        <v>1.029265352762324</v>
+        <v>1.029573884752311</v>
       </c>
       <c r="L11">
-        <v>1.007957697478387</v>
+        <v>1.008546283467755</v>
       </c>
       <c r="M11">
-        <v>1.039367242018973</v>
+        <v>1.039588664235988</v>
       </c>
       <c r="N11">
-        <v>1.008148527276601</v>
+        <v>1.011182589657723</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040215613414422</v>
+        <v>1.040390755706604</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031833169649499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032066990650564</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020352411267565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9818539951475704</v>
+        <v>0.9825744318422649</v>
       </c>
       <c r="D12">
-        <v>1.014298351128785</v>
+        <v>1.014640706025747</v>
       </c>
       <c r="E12">
-        <v>0.9923741543829104</v>
+        <v>0.9930040182092064</v>
       </c>
       <c r="F12">
-        <v>1.024981208786601</v>
+        <v>1.02522582319507</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043636558500362</v>
+        <v>1.043795106046054</v>
       </c>
       <c r="J12">
-        <v>1.012446688034147</v>
+        <v>1.013135030855787</v>
       </c>
       <c r="K12">
-        <v>1.029156650143721</v>
+        <v>1.029492687639887</v>
       </c>
       <c r="L12">
-        <v>1.00764892654319</v>
+        <v>1.008266488867777</v>
       </c>
       <c r="M12">
-        <v>1.039644963293291</v>
+        <v>1.03988518473934</v>
       </c>
       <c r="N12">
-        <v>1.008084775217151</v>
+        <v>1.011240452173865</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040761007013225</v>
+        <v>1.04095095522527</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031756312774676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032009582456871</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02036363014882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9822120515977861</v>
+        <v>0.982897834054301</v>
       </c>
       <c r="D13">
-        <v>1.014631774244755</v>
+        <v>1.014937920716964</v>
       </c>
       <c r="E13">
-        <v>0.992670582739565</v>
+        <v>0.993269074885567</v>
       </c>
       <c r="F13">
-        <v>1.025652782656206</v>
+        <v>1.025871211686977</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04379163823468</v>
+        <v>1.043932017732461</v>
       </c>
       <c r="J13">
-        <v>1.012693332078338</v>
+        <v>1.013348706930311</v>
       </c>
       <c r="K13">
-        <v>1.029440809213025</v>
+        <v>1.029741329895041</v>
       </c>
       <c r="L13">
-        <v>1.007895051989529</v>
+        <v>1.008481903346362</v>
       </c>
       <c r="M13">
-        <v>1.040262041436553</v>
+        <v>1.040476567364071</v>
       </c>
       <c r="N13">
-        <v>1.008189469869426</v>
+        <v>1.011289995038139</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041525049630221</v>
+        <v>1.04169463738363</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031954721024544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032182633118479</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020433880602785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9829573213409881</v>
+        <v>0.9835878550121095</v>
       </c>
       <c r="D14">
-        <v>1.015159624280589</v>
+        <v>1.015411845462842</v>
       </c>
       <c r="E14">
-        <v>0.9932515711517912</v>
+        <v>0.9938010287216282</v>
       </c>
       <c r="F14">
-        <v>1.026389328602873</v>
+        <v>1.026569339580865</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043970483855807</v>
+        <v>1.044085814597797</v>
       </c>
       <c r="J14">
-        <v>1.013093388974116</v>
+        <v>1.01369635967547</v>
       </c>
       <c r="K14">
-        <v>1.029817806780538</v>
+        <v>1.030065449923537</v>
       </c>
       <c r="L14">
-        <v>1.008319022650306</v>
+        <v>1.008857926855518</v>
       </c>
       <c r="M14">
-        <v>1.040846508660897</v>
+        <v>1.041023344023182</v>
       </c>
       <c r="N14">
-        <v>1.008339251767108</v>
+        <v>1.011322248193107</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04216006724989</v>
+        <v>1.042299840913319</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03222270321087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03241336228279</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02051001178831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9833798318474123</v>
+        <v>0.9839821252023019</v>
       </c>
       <c r="D15">
-        <v>1.015437784299811</v>
+        <v>1.015662934488371</v>
       </c>
       <c r="E15">
-        <v>0.9935760887959264</v>
+        <v>0.9941006997120604</v>
       </c>
       <c r="F15">
-        <v>1.026714803483797</v>
+        <v>1.026875662360865</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044052585880994</v>
+        <v>1.044155776139358</v>
       </c>
       <c r="J15">
-        <v>1.013305370752498</v>
+        <v>1.013881564215418</v>
       </c>
       <c r="K15">
-        <v>1.030003978939371</v>
+        <v>1.030225073129584</v>
       </c>
       <c r="L15">
-        <v>1.008547568371482</v>
+        <v>1.009062180678381</v>
       </c>
       <c r="M15">
-        <v>1.041080679764597</v>
+        <v>1.041238722469779</v>
       </c>
       <c r="N15">
-        <v>1.008414426246335</v>
+        <v>1.011332701175312</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042382628318087</v>
+        <v>1.042507544663419</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032360228884916</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032532684583985</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020544077214217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9856847998228964</v>
+        <v>0.9861527950727623</v>
       </c>
       <c r="D16">
-        <v>1.016867719705691</v>
+        <v>1.016963186458628</v>
       </c>
       <c r="E16">
-        <v>0.9953274261689038</v>
+        <v>0.9957348921970973</v>
       </c>
       <c r="F16">
-        <v>1.028144341941572</v>
+        <v>1.028214105981685</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044419475835876</v>
+        <v>1.044466421205774</v>
       </c>
       <c r="J16">
-        <v>1.014399477454265</v>
+        <v>1.014848204537492</v>
       </c>
       <c r="K16">
-        <v>1.030903153977193</v>
+        <v>1.030996975259745</v>
       </c>
       <c r="L16">
-        <v>1.009744633492768</v>
+        <v>1.010144678275759</v>
       </c>
       <c r="M16">
-        <v>1.041988136341953</v>
+        <v>1.042056731645044</v>
       </c>
       <c r="N16">
-        <v>1.008781622638077</v>
+        <v>1.011383611737591</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043061229319439</v>
+        <v>1.043115448313688</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032999163213642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033081929503697</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020691571392368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9870658506357027</v>
+        <v>0.9874680198104131</v>
       </c>
       <c r="D17">
-        <v>1.01769039406087</v>
+        <v>1.017720006942771</v>
       </c>
       <c r="E17">
-        <v>0.9963707718929876</v>
+        <v>0.9967212592445869</v>
       </c>
       <c r="F17">
-        <v>1.028850782960952</v>
+        <v>1.028874578941485</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044604983961291</v>
+        <v>1.044624117867001</v>
       </c>
       <c r="J17">
-        <v>1.015030306163236</v>
+        <v>1.015416450230054</v>
       </c>
       <c r="K17">
-        <v>1.031395196899557</v>
+        <v>1.031424313586956</v>
       </c>
       <c r="L17">
-        <v>1.010442735269464</v>
+        <v>1.010787021931405</v>
       </c>
       <c r="M17">
-        <v>1.042371181477957</v>
+        <v>1.042394589766464</v>
       </c>
       <c r="N17">
-        <v>1.008985109131526</v>
+        <v>1.011435145688327</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043235186556976</v>
+        <v>1.043253690735717</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033349657798625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033386921657505</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020765526984796</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,105 +1431,123 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9877739122937267</v>
+        <v>0.9881536541482452</v>
       </c>
       <c r="D18">
-        <v>1.018043492050631</v>
+        <v>1.01805056306434</v>
       </c>
       <c r="E18">
-        <v>0.9968919082287929</v>
+        <v>0.9972235568964893</v>
       </c>
       <c r="F18">
-        <v>1.028945662732472</v>
+        <v>1.028954045884733</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044639935679165</v>
+        <v>1.044650735744832</v>
       </c>
       <c r="J18">
-        <v>1.015306898523267</v>
+        <v>1.015671795317363</v>
       </c>
       <c r="K18">
-        <v>1.031557873803338</v>
+        <v>1.03156482826635</v>
       </c>
       <c r="L18">
-        <v>1.010764507925082</v>
+        <v>1.011090388084043</v>
       </c>
       <c r="M18">
-        <v>1.042282785767731</v>
+        <v>1.042291034471724</v>
       </c>
       <c r="N18">
-        <v>1.009061020520788</v>
+        <v>1.011450242475663</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042928068314191</v>
+        <v>1.042934590242759</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033452995112394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033473455947639</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020774437087661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C19">
-        <v>0.9878749573326026</v>
+        <v>0.9882659428532922</v>
       </c>
       <c r="D19">
-        <v>1.017975534211456</v>
+        <v>1.017996108797831</v>
       </c>
       <c r="E19">
-        <v>0.9969424704591814</v>
+        <v>0.9972847871823778</v>
       </c>
       <c r="F19">
-        <v>1.028481319249855</v>
+        <v>1.028499657913038</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044542421319961</v>
+        <v>1.044561047786102</v>
       </c>
       <c r="J19">
-        <v>1.015266634544154</v>
+        <v>1.015642429786762</v>
       </c>
       <c r="K19">
-        <v>1.031428116689941</v>
+        <v>1.031448353906958</v>
       </c>
       <c r="L19">
-        <v>1.010749362319675</v>
+        <v>1.011085757836597</v>
       </c>
       <c r="M19">
-        <v>1.041763885836691</v>
+        <v>1.041781931616867</v>
       </c>
       <c r="N19">
-        <v>1.009025796939638</v>
+        <v>1.011415491241192</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042192927869758</v>
+        <v>1.042207200608233</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033367672014585</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033398148222261</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020726354618673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.986259350902243</v>
+        <v>0.9867526016699926</v>
       </c>
       <c r="D20">
-        <v>1.016717453531267</v>
+        <v>1.016849442894124</v>
       </c>
       <c r="E20">
-        <v>0.9956611689985635</v>
+        <v>0.9960940413050935</v>
       </c>
       <c r="F20">
-        <v>1.02649959082597</v>
+        <v>1.026597057521901</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044074301678444</v>
+        <v>1.044145010104579</v>
       </c>
       <c r="J20">
-        <v>1.014330423902273</v>
+        <v>1.014803915639854</v>
       </c>
       <c r="K20">
-        <v>1.03047258095833</v>
+        <v>1.030602347217757</v>
       </c>
       <c r="L20">
-        <v>1.009780742995553</v>
+        <v>1.010205921767527</v>
       </c>
       <c r="M20">
-        <v>1.040091949428186</v>
+        <v>1.04018781441056</v>
       </c>
       <c r="N20">
-        <v>1.008675176399249</v>
+        <v>1.011227380429771</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040343274771787</v>
+        <v>1.040419141744357</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03269600191708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03280431093326</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020516374874205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9819947118403648</v>
+        <v>0.982757242836335</v>
       </c>
       <c r="D21">
-        <v>1.014014148079739</v>
+        <v>1.014404218169166</v>
       </c>
       <c r="E21">
-        <v>0.9924057283391169</v>
+        <v>0.9930752727523331</v>
       </c>
       <c r="F21">
-        <v>1.023638689142204</v>
+        <v>1.023918829871349</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043344992924795</v>
+        <v>1.043530955897269</v>
       </c>
       <c r="J21">
-        <v>1.01226500387338</v>
+        <v>1.01299399468905</v>
       </c>
       <c r="K21">
-        <v>1.028734794818372</v>
+        <v>1.029117741997719</v>
       </c>
       <c r="L21">
-        <v>1.007532419167641</v>
+        <v>1.008189034633902</v>
       </c>
       <c r="M21">
-        <v>1.038185644288831</v>
+        <v>1.038460792872388</v>
       </c>
       <c r="N21">
-        <v>1.007969307597762</v>
+        <v>1.011153375827422</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038793764479933</v>
+        <v>1.03901152661963</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031470550222128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031758198807475</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.0202225897017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9792744240591509</v>
+        <v>0.9802070297233355</v>
       </c>
       <c r="D22">
-        <v>1.012302507855206</v>
+        <v>1.012855896355179</v>
       </c>
       <c r="E22">
-        <v>0.9903383843692481</v>
+        <v>0.9911573991154223</v>
       </c>
       <c r="F22">
-        <v>1.02186747467248</v>
+        <v>1.022263567626282</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04287791837212</v>
+        <v>1.043136903371966</v>
       </c>
       <c r="J22">
-        <v>1.010952027413073</v>
+        <v>1.011841226125954</v>
       </c>
       <c r="K22">
-        <v>1.027634126803475</v>
+        <v>1.028176906196824</v>
       </c>
       <c r="L22">
-        <v>1.006103700639262</v>
+        <v>1.006906088773383</v>
       </c>
       <c r="M22">
-        <v>1.037017832960662</v>
+        <v>1.037406515234271</v>
       </c>
       <c r="N22">
-        <v>1.007521202091694</v>
+        <v>1.01109868864861</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037869517321595</v>
+        <v>1.038177134342534</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.0306787550461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031078116099738</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020035282532713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9807133816496882</v>
+        <v>0.9815441750373776</v>
       </c>
       <c r="D23">
-        <v>1.013201950510824</v>
+        <v>1.013660834225289</v>
       </c>
       <c r="E23">
-        <v>0.9914300624708827</v>
+        <v>0.9921593640077864</v>
       </c>
       <c r="F23">
-        <v>1.02280122847676</v>
+        <v>1.023130134034617</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043122174834492</v>
+        <v>1.0433387444526</v>
       </c>
       <c r="J23">
-        <v>1.011642859439396</v>
+        <v>1.012436117225495</v>
       </c>
       <c r="K23">
-        <v>1.028209471357005</v>
+        <v>1.028659779811374</v>
       </c>
       <c r="L23">
-        <v>1.006856427099222</v>
+        <v>1.007571307571378</v>
       </c>
       <c r="M23">
-        <v>1.037631452086664</v>
+        <v>1.037954359528549</v>
       </c>
       <c r="N23">
-        <v>1.007756202628708</v>
+        <v>1.01108314868071</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038355157333595</v>
+        <v>1.038610717641323</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031075872816889</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031408910720603</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020129651361468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9862898775742268</v>
+        <v>0.9867835740298124</v>
       </c>
       <c r="D24">
-        <v>1.016708192207351</v>
+        <v>1.016840848887546</v>
       </c>
       <c r="E24">
-        <v>0.995679077507153</v>
+        <v>0.9961124489420207</v>
       </c>
       <c r="F24">
-        <v>1.026441422857151</v>
+        <v>1.026539425687454</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044056855642979</v>
+        <v>1.04412816379523</v>
       </c>
       <c r="J24">
-        <v>1.014326096774351</v>
+        <v>1.014800045972703</v>
       </c>
       <c r="K24">
-        <v>1.030448111782536</v>
+        <v>1.030578536936029</v>
       </c>
       <c r="L24">
-        <v>1.009782500683704</v>
+        <v>1.010208180021097</v>
       </c>
       <c r="M24">
-        <v>1.040019581214348</v>
+        <v>1.04011597534787</v>
       </c>
       <c r="N24">
-        <v>1.008670089515079</v>
+        <v>1.011219714401702</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040245204573169</v>
+        <v>1.040321494089752</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032651178541418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032757285338272</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020506303733741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9925628757131478</v>
+        <v>0.9928361628130696</v>
       </c>
       <c r="D25">
-        <v>1.020674062195284</v>
+        <v>1.020544468722121</v>
       </c>
       <c r="E25">
-        <v>1.000490879829249</v>
+        <v>1.000732907722591</v>
       </c>
       <c r="F25">
-        <v>1.030570116998959</v>
+        <v>1.030484039316672</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045070190035406</v>
+        <v>1.045026958673188</v>
       </c>
       <c r="J25">
-        <v>1.017343147401036</v>
+        <v>1.017607047474892</v>
       </c>
       <c r="K25">
-        <v>1.032959698571984</v>
+        <v>1.032832014980538</v>
       </c>
       <c r="L25">
-        <v>1.013081580297057</v>
+        <v>1.013319856886975</v>
       </c>
       <c r="M25">
-        <v>1.042711707632644</v>
+        <v>1.042626867778255</v>
       </c>
       <c r="N25">
-        <v>1.009697176893299</v>
+        <v>1.011931335885967</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042375839741122</v>
+        <v>1.04230869485576</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034424140381165</v>
+        <v>1.034347441965031</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020949265088859</v>
       </c>
     </row>
   </sheetData>
